--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e55f31e0d1b9548b/Área de Trabalho/INSPER/CDADOS/CD22-2/projeto01/22-2a-cd-p1-grupo_renatogp/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="304" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEDF127D-E817-4594-B280-348D1B189BC3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="1869">
   <si>
     <t>Categoria</t>
   </si>
@@ -1376,7 +1382,7 @@
     <t>O Ibovespa deve abrir hoje dividido entre o sinal positivo vindo dos mercados internacionais e a reação dos ativos domésticos ao aumento da taxa Selic para 13,75% ontem. A porta aberta deixada pelo Comitê de Política Monetária (Copom) para a próxima reunião tende a influenciar os negócios com dólar e juros futuros, respingando na bolsa.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar à vista é negociado em queda frente ao real, renovando mínimas abaixo de R$ 5,05. Porém, a moeda norte-americana exibiu forte volatilidade nas primeiras horas de negócios. </t>
+    <t>O dólar à vista é negociado em queda frente ao real, renovando mínimas abaixo de R$ 5,05. Porém, a moeda norte-americana exibiu forte volatilidade nas primeiras horas de negócios. </t>
   </si>
   <si>
     <t>Os contratos futuros de açúcar bruto na ICE atingiram uma mínima de duas semanas nesta sexta-feira, parecendo estar a caminho de um quinto declínio diário consecutivo, mas o mercado se recuperou devido aos números ruins das safras do Brasil e à cobertura de fundos vendidos. O café também subiu.</t>
@@ -1385,7 +1391,7 @@
     <t>As taxas dos títulos públicos negociadas no Tesouro Direto renovaram suas máximas nesta quarta-feira (20), com destaque para o desempenho dos títulos prefixados pagando até 13,7% ao ano.</t>
   </si>
   <si>
-    <t xml:space="preserve">As ações da Gol (GOLL4) caíam 5,32%, a R$ 8,55, por volta das 13h desta quinta-feira (28), em reação ao balanço divulgado mais cedo. Na véspera, os papéis da aérea dispararam quase 11%. </t>
+    <t>As ações da Gol (GOLL4) caíam 5,32%, a R$ 8,55, por volta das 13h desta quinta-feira (28), em reação ao balanço divulgado mais cedo. Na véspera, os papéis da aérea dispararam quase 11%. </t>
   </si>
   <si>
     <t>A China anunciou nesta quarta-feira (25) um pacote de estímulo fiscal que embalou os ativos do país. As ações de empresas chinesas de tecnologia dispararam em Hong Kong e também avançam no pré-mercado em Nova York, enquanto o minério de ferro voltou a subir em Dalian.</t>
@@ -1457,7 +1463,7 @@
     <t>O dólar à vista fechou em alta de 1,5% frente ao real, cotado bem perto dos R$ 5,20 para venda, em dia de forte volatilidade acompanhando a aversão ao risco no mercado global e ajustes domésticos.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em alta na abertura do pregão desta quinta-feira (28). Por volta das 9h00, a moeda avançava 0,36%, a R$ 5,2620. </t>
+    <t>O dólar operava em alta na abertura do pregão desta quinta-feira (28). Por volta das 9h00, a moeda avançava 0,36%, a R$ 5,2620. </t>
   </si>
   <si>
     <t>O índice de preços ao consumidor nos Estados Unidos (CPI, na sigla em inglês) voltou a ganhar força neste mês. O CPI subiu 1,3% em base mensal e avançou 9,1% ante igual período de 2021, ficando acima das estimativas do mercado, de altas de 1,1% e de +8,8%.</t>
@@ -1499,7 +1505,7 @@
     <t>O Ibovespa (IBOV) operava em alta na abertura do pregão desta segunda-feira (25), com Federal Reserve (Fed) no radar. Por volta das 10h05, o principal índice da Bolsa brasileira subia 0,40%, aos 99,3 mil pontos.</t>
   </si>
   <si>
-    <t xml:space="preserve">O Ibovespa abre o pregão desta sexta-feira (2) com as atenções dos mercados globais voltadas para os dados de emprego (payroll) nos Estados Unidos (9h30). Os investidores esperam que a criação de vagas, a taxa de desemprego e o rendimento médio real sejam ruins o suficiente para enfraquecer a postura agressiva (“hawkish”) do Federal Reserve.   </t>
+    <t>O Ibovespa abre o pregão desta sexta-feira (2) com as atenções dos mercados globais voltadas para os dados de emprego (payroll) nos Estados Unidos (9h30). Os investidores esperam que a criação de vagas, a taxa de desemprego e o rendimento médio real sejam ruins o suficiente para enfraquecer a postura agressiva (“hawkish”) do Federal Reserve.   </t>
   </si>
   <si>
     <t>Os economistas ouvidos pelo Banco Central revisaram pela nona semana a previsão do Índice Nacional de Preços ao Consumidor Amplo (IPCA) ao final deste ano, passando de 6,82% para 6,70%. Há um mês, a projeção era de +7,15%.</t>
@@ -1559,7 +1565,7 @@
     <t>Os contratos futuros de café arábica na ICE fecharam em alta de quase 8% nesta segunda-feira, com o mercado se recuperando parcialmente de uma baixa de 9 meses, atingida no final da semana passada.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em queda na abertura do pregão desta sexta-feira (29). Por volta das 9h00, a moeda recuava 0,24%, a R$ 5,1700. </t>
+    <t>O dólar operava em queda na abertura do pregão desta sexta-feira (29). Por volta das 9h00, a moeda recuava 0,24%, a R$ 5,1700. </t>
   </si>
   <si>
     <t>As ações da 3R Petroleum (RRRP3) caíram forte na sessão desta terça-feira (12) em meio à derrocada do preço do petróleo, que derreteu.</t>
@@ -1661,7 +1667,7 @@
     <t>A secretária do Tesouro dos Estados Unidos, Janet Yellen, reconheceu nesta terça-feira a desvalorização substancial do iene japonês nas últimas semanas, mas disse que a visão dos EUA continua sendo de que a intervenção cambial é justificada apenas em “circunstâncias raras e excepcionais”.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em queda na abertura do pregão desta segunda-feira (01). Por volta das 9h00, a moeda recuava 0,30%, a R$ 5,1578. </t>
+    <t>O dólar operava em queda na abertura do pregão desta segunda-feira (01). Por volta das 9h00, a moeda recuava 0,30%, a R$ 5,1578. </t>
   </si>
   <si>
     <t>O Ibovespa sucumbiu ao mau humor externo na última sexta-feira (19), com o rali do mercado de urso dando os primeiros sinais de esfriamento. E o clima mais hostil da semana passada continua nesta segunda-feira (22) com a aversão ao risco sendo atribuída à postura mais dura (“hawkish”) do Federal Reserve.</t>
@@ -1700,7 +1706,7 @@
     <t>O ministro das Finanças do Japão, Shunichi Suzuki, alertou nesta sexta-feira para “movimentos especulativos” por trás do enfraquecimento rápido do iene, usando as palavras mais forte até agora em meio a novas mínimas de 24 anos da moeda japonesa.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava entre perdas e ganhos na abertura do pregão desta quinta-feira (04), com um sinal positivo vindo dos mercados internacionais. Por volta das 9h02, a moeda recuava 0,05%, a R$ 5,2791. </t>
+    <t>O dólar operava entre perdas e ganhos na abertura do pregão desta quinta-feira (04), com um sinal positivo vindo dos mercados internacionais. Por volta das 9h02, a moeda recuava 0,05%, a R$ 5,2791. </t>
   </si>
   <si>
     <t>As ações da Vale (VALE3) caíram 2,16% nesta quarta-feira (20), após a mineradora ter apresentado uma produção aquém da esperada pelo mercado durante o segundo trimestre (2T22).</t>
@@ -1709,7 +1715,7 @@
     <t>Não foi desta vez que o Banco Central encerrou o ciclo de aperto monetário. Ontem, o Comitê de Política Monetária (Copom) elevou a Selic em 0,50 ponto porcentual, para 13,75% ao ano e sinalizou que uma alta mais branda pode ser aprovada na reunião de setembro.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em queda na abertura do pregão desta segunda-feira (22), acompanhando movimento semelhante dos mercados de câmbio globais, com o foco na reunião de política monetária do Federeal Reserve, mais tarde nesta semana. Por volta das 9h00, a moeda norte-americana recuava 0,40%, a R$ 5,4748. </t>
+    <t>O dólar operava em queda na abertura do pregão desta segunda-feira (22), acompanhando movimento semelhante dos mercados de câmbio globais, com o foco na reunião de política monetária do Federeal Reserve, mais tarde nesta semana. Por volta das 9h00, a moeda norte-americana recuava 0,40%, a R$ 5,4748. </t>
   </si>
   <si>
     <t>A economia global está cada vez mais em risco de entrar em recessão, mostraram pesquisas nesta terça-feira, uma vez que consumidores enfrentam a inflação mais alta em uma geração e controlam os gastos, enquanto os bancos centrais apertam agressivamente a política monetária justamente quando apoio é necessário.</t>
@@ -1754,7 +1760,7 @@
     <t>Mais americanos estão se mudando para a Europa, levados para o outro lado do Atlântico pelo aumento do custo de vida, preços de imóveis inflados, um dólar forte e polarização política em casa.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em queda na abertura do pregão desta quarta-feira (27), dia de decisão do Federal Reserve (Fed). Por volta das 9h00, a moeda recuava 0,38%, a R$ 5,3308. </t>
+    <t>O dólar operava em queda na abertura do pregão desta quarta-feira (27), dia de decisão do Federal Reserve (Fed). Por volta das 9h00, a moeda recuava 0,38%, a R$ 5,3308. </t>
   </si>
   <si>
     <t>O Ibovespa (IBOV) subia na abertura do pregão desta quinta-feira (25), após ter antecipado na véspera a precificação da expectativa mais hawkish para o discurso do presidente do Fed, Jerome Powell, na sexta (26).</t>
@@ -1853,13 +1859,13 @@
     <t>O Ibovespa (IBOV) segue em queda nesta segunda-feira (22), após recuo de mais de 2% na sexta (19), influenciado pelo mau humor das Bolsas globais.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em alta na abertura do pregão desta segunda-feira (22). Por volta das 9h05, a moeda norte-americana avançava 0,60%, a R$ 5,3897. </t>
+    <t>O dólar operava em alta na abertura do pregão desta segunda-feira (22). Por volta das 9h05, a moeda norte-americana avançava 0,60%, a R$ 5,3897. </t>
   </si>
   <si>
     <t>O dólar à vista recua 1,5% e opera no menor nível em dois meses, a R$ 5,04, acompanhando o movimento no exterior. A moeda reage aos dados de inflação dos Estados Unidos (CPI), que vieram abaixo do esperado e devem atenuar o tom mais agressivo (“hawkish”) do Federal Reserve (Fed, o banco central norte-americano).</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t> </t>
   </si>
   <si>
     <t>Daqui dois meses, os brasileiros vão às urnas para decidir quem será o próximo presidente do país. Entre os preferidos nas pesquisas, estão o ex-presidente Lula (PT) e o atual, Jair Bolsonaro (PL).</t>
@@ -2174,7 +2180,7 @@
     <t>O Wells Fargo (WFCO34) divulgou nesta sexta-feira uma queda de 48% no lucro do segundo trimestre, diante de maiores provisões para potenciais perdas com calotes e de uma pressão da alta dos juros no negócio de financiamento imobiliário.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em queda na abertura do pregão desta quarta-feira (03). Por volta das 9h00, a moeda recuava 0,48%, a R$ 5,2529. </t>
+    <t>O dólar operava em queda na abertura do pregão desta quarta-feira (03). Por volta das 9h00, a moeda recuava 0,48%, a R$ 5,2529. </t>
   </si>
   <si>
     <t>Japão e China reduziram em maio suas participações em títulos do governo dos Estados Unidos para os menores níveis em vários anos, segundo dados do Departamento do Tesouro dos EUA nesta segunda-feira.</t>
@@ -2198,7 +2204,7 @@
     <t>A Chevron Corp (CHVX34) divulgou seus maiores ganhos trimestrais de todos os tempos nesta sexta-feira, com base em fortes margens de combustível e elevados preços de gás natural e petróleo.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em leve queda na abertura do pregão desta terça-feira (19). Por volta das 9h00, a moeda norte-americana recuava 0,50%, a R$ 5,4105. </t>
+    <t>O dólar operava em leve queda na abertura do pregão desta terça-feira (19). Por volta das 9h00, a moeda norte-americana recuava 0,50%, a R$ 5,4105. </t>
   </si>
   <si>
     <t>A Suzano (SUZB3) terminou o segundo trimestre de 2022 com lucro líquido consolidado de R$ 182 milhões, de acordo com os dados financeiros e operacionais divulgados pela companhia nesta quarta-feira (27).</t>
@@ -2219,7 +2225,7 @@
     <t>Conviver com a inflação alta é um hábito dos países da América Latina. Aqui no Brasil, a alta dos preços já chega a 11,89%; no Chile, a taxa anualizada é de 12,5%. Quem mais está sofrendo é a Argentina, com uma inflação anual de 64%.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em alta na abertura do pregão desta quinta-feira (14) em meio ao temor pelo aperto monetário e recessão nos Estados Unidos. Por volta das 9h05, a moeda norte-americana avançava 1,3%, a R$ 5,4620. </t>
+    <t>O dólar operava em alta na abertura do pregão desta quinta-feira (14) em meio ao temor pelo aperto monetário e recessão nos Estados Unidos. Por volta das 9h05, a moeda norte-americana avançava 1,3%, a R$ 5,4620. </t>
   </si>
   <si>
     <t>Boa tarde, investidor!</t>
@@ -2324,7 +2330,7 @@
     <t>O day trade é uma das operações mais controversas do mercado de ações. Esse tipo de negociação envolve a compra e venda, no mesmo dia, de ativos como ações, dólar e índices. Em alguns casos, a transação pode durar poucos minutos.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em leve alta na abertura do pregão desta quinta-feira (21), puxado pelo movimento de aversão ao risco no exterior. Por volta das 9h05, a moeda norte-americana avançava 0,10%, a R$ 5,4769. </t>
+    <t>O dólar operava em leve alta na abertura do pregão desta quinta-feira (21), puxado pelo movimento de aversão ao risco no exterior. Por volta das 9h05, a moeda norte-americana avançava 0,10%, a R$ 5,4769. </t>
   </si>
   <si>
     <t>Em uma semana de perdas intensas, que, para a soja, começou na segunda e, para o milho, na terça, há uma fragrante tentativa de correções dos fundos nesta sexta (2) e de descolamento dos reflexos dos mercados financeiros, origem do desvio de recursos das commodities estes dias.</t>
@@ -3581,7 +3587,7 @@
     <t>Precisamos falar sobre o balanço da Weg (WEGE3): o que esperar dos resultados da multinacional brasileira que valorizou 17.600% desde o IPO</t>
   </si>
   <si>
-    <t xml:space="preserve">Radar de negócios: Mercado Livre (MELI34) elege Ideris, da Locaweb (LWSA3), como melhor parceiro tecnológico </t>
+    <t>Radar de negócios: Mercado Livre (MELI34) elege Ideris, da Locaweb (LWSA3), como melhor parceiro tecnológico </t>
   </si>
   <si>
     <t>Nova ministra da Economia da Argentina se reunirá com chefe do FMI na segunda-feira</t>
@@ -4247,7 +4253,7 @@
     <t>Tudo o que o etanol não precisa era o petróleo com preços achatados aos níveis pré-Ucrânia e dólar mais forte.</t>
   </si>
   <si>
-    <t xml:space="preserve">O Ibovespa chega ao último pregão de agosto com a valorização de 7% acumulada no mês sob ameaça. A narrativa sobre inflação e juros altos volta a assustar o mercado financeiro, sobrepondo-se aos riscos de recessão, diante do compromisso dos bancos centrais de conter a alta dos preços.  </t>
+    <t>O Ibovespa chega ao último pregão de agosto com a valorização de 7% acumulada no mês sob ameaça. A narrativa sobre inflação e juros altos volta a assustar o mercado financeiro, sobrepondo-se aos riscos de recessão, diante do compromisso dos bancos centrais de conter a alta dos preços.  </t>
   </si>
   <si>
     <t>A sensação de que tudo caiu demais nos últimos dias nos mercados de ativos de riscos está movendo bruscamente para cima as compras de posições das commodities agrícolas. A senha foi dada pelo Federal Reserve (Fed) na quarta.</t>
@@ -4337,7 +4343,7 @@
     <t>Os credores da Evergrande, a segunda maior empresa imobiliária da China, ainda não se deram conta dos problemas decorrentes do plano de reestruturação anunciado na sexta-feira, dia 30. O que parece certo é que os investidores terão que aceitar pesadas perdas nos papéis que adquiriram.</t>
   </si>
   <si>
-    <t xml:space="preserve">O Brasil é uma potência mundial no agronegócio há séculos. De olho nisso, os apresentadores Ratinho e Silvio Santos são alguns dos nomes que marcaram presença no setor. Os dois montaram impérios rurais gigantescos para surfar nos lucros bilionários do setor. </t>
+    <t>O Brasil é uma potência mundial no agronegócio há séculos. De olho nisso, os apresentadores Ratinho e Silvio Santos são alguns dos nomes que marcaram presença no setor. Os dois montaram impérios rurais gigantescos para surfar nos lucros bilionários do setor. </t>
   </si>
   <si>
     <t>O Ibovespa opera sem muita força nesta terça-feira (26), dia em que os mercados entram em modo de cautela na véspera da divulgação da decisão de política monetária do Fed. Por volta das 11h30, o principal índice da Bolsa caía 0,08%, aos 100,1 mil pontos.</t>
@@ -4361,7 +4367,7 @@
     <t>Veja as principais manchetes dos jornais nesta quarta-feira (24):</t>
   </si>
   <si>
-    <t xml:space="preserve">Faz 7 anos que Felipe Miranda, co-CEO e estrategista-chefe da Empiricus, chegou ao mercado com uma carteira disruptiva. Levando o nome de “Oportunidades de Uma Vida”, a carteira ganhou fama após o primeiro grande acerto do analista, a tese que levava o nome de “O Fim do Brasil”. </t>
+    <t>Faz 7 anos que Felipe Miranda, co-CEO e estrategista-chefe da Empiricus, chegou ao mercado com uma carteira disruptiva. Levando o nome de “Oportunidades de Uma Vida”, a carteira ganhou fama após o primeiro grande acerto do analista, a tese que levava o nome de “O Fim do Brasil”. </t>
   </si>
   <si>
     <t>A trégua de uns dias acabou desde ontem. O peso do temor sobre a saúde da economia global voltou a ser mais sentido nas commodities agrícolas, após alguns pregões nas bolsas de futuros nos quais os fundos estavam se ajustando aos fundamentos.</t>
@@ -4376,7 +4382,7 @@
     <t>O Ibovespa conseguiu encerrar mais um pregão em alta ontem, mas a cautela nos mercados globais na manhã desta quarta-feira (17) pode trazer uma dose extra de volatilidade. É cheia a agenda econômica do dia e o destaque fica com a ata do Federal Reserve, à tarde (15h).</t>
   </si>
   <si>
-    <t xml:space="preserve">Começou a corrida eleitoral. Até o momento, desenha-se um duelo entre o presidente Jair Bolsonaro e o ex-presidente Luiz Inácio Lula da Silva, como mostram pesquisas preliminares de intenção de votos. </t>
+    <t>Começou a corrida eleitoral. Até o momento, desenha-se um duelo entre o presidente Jair Bolsonaro e o ex-presidente Luiz Inácio Lula da Silva, como mostram pesquisas preliminares de intenção de votos. </t>
   </si>
   <si>
     <t>A virada da soja e do milho ontem, na segunda parte do pregão de Chicago, quando subiu por informações sobre novas vendas dos Estados Unidos à China, não durou uma noite.</t>
@@ -4403,7 +4409,7 @@
     <t>Os estrangeiros compraram em termos líquidos o equivalente a 2,15 bilhões de dólares em derivativos de taxa de câmbio na bolsa brasileira em julho até a segunda-feira (18), período marcado pela força global da moeda norte-americana em meio à escalada de temores de recessão mundial.</t>
   </si>
   <si>
-    <t xml:space="preserve">Os resultados financeiros da maioria das empresas listadas na B3 no segundo trimestre foram vistos como positivos. Até melhores do que o esperado. </t>
+    <t>Os resultados financeiros da maioria das empresas listadas na B3 no segundo trimestre foram vistos como positivos. Até melhores do que o esperado. </t>
   </si>
   <si>
     <t>A última semana cheia do mês de agosto pode até ter começado com o pé esquerdo, com o Ibovespa (IBOV) acompanhando o mau humor dos mercados globais. Acontece que esse ajuste nos preços torna mais atrativa a ação mais indicada da semana, que por sinal tem o agronegócio como destaque.</t>
@@ -4442,7 +4448,7 @@
     <t>O dólar à vista fechou em alta frente ao real pelo quarto dia seguido, cotado a R$ 5,17 para venda, em pregão de forte volatilidade.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em alta na abertura do pregão desta terça-feira (02). Por volta das 9h05, a moeda avançava 0,31%, a R$ 5,1997. </t>
+    <t>O dólar operava em alta na abertura do pregão desta terça-feira (02). Por volta das 9h05, a moeda avançava 0,31%, a R$ 5,1997. </t>
   </si>
   <si>
     <t>Os preços futuros do açúcar bruto subiram acentuadamente na ICE nesta quinta-feira, afastando-se ainda mais de uma mínima de quatro meses vista nesta semana, em meio a cotações mais fortes do açúcar branco e à medida que os receios de recessão são tidos como precificados até o momento.</t>
@@ -4487,7 +4493,7 @@
     <t>Os contratos futuros de minério de ferro na Bolsa de Dalian se recuperaram de uma venda (sell-off) na sessão anterior, subindo 5% nesta quinta-feira com a queda do dólar.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em queda na abertura do pregão desta segunda-feira (18). Por volta das 9h00, a moeda norte-americana recuava 0,53%, a R$ 5,3796. </t>
+    <t>O dólar operava em queda na abertura do pregão desta segunda-feira (18). Por volta das 9h00, a moeda norte-americana recuava 0,53%, a R$ 5,3796. </t>
   </si>
   <si>
     <t>O Ibovespa operava em alta na abertura desta segunda-feira (18), seguindo o viés positivo dos mercados globais. Por volta das 10h02, o principal índice da Bolsa brasileira avançava 0,44%, aos 96,9 mil pontos.</t>
@@ -4529,7 +4535,7 @@
     <t>Os contratos futuros do açúcar bruto negociados na bolsa ICE atingiram uma nova mínima de um ano nesta terça-feira, antes de fecharem estáveis ​​em uma sessão marcada por volatilidade, com o mercado procurando direção.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar começou o pregão desta sexta-feira (8) em alta, em dia marcado pela expectativa sobre o relatório de emprego nos Estados Unidos (payroll). </t>
+    <t>O dólar começou o pregão desta sexta-feira (8) em alta, em dia marcado pela expectativa sobre o relatório de emprego nos Estados Unidos (payroll). </t>
   </si>
   <si>
     <t>Em entrevista ao portal UOL nesta quarta-feira (27), o ex-presidente Luis Inácio Lula da Silva (PT) disse que pretende alterar a política de preços da Petrobras caso seja eleito nas eleições de outubro.</t>
@@ -4655,7 +4661,7 @@
     <t>O Ibovespa (IBOV) operava entre perdas e ganhos nesta terça-feira (30), enquanto os mercados internacionais sobem e tentam se ajustar ao discurso mais hawkish do presidente do Fed, Jerome Powell, na semana passada.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em queda na abertura do pregão desta sexta-feira (22). Por volta das 9h00, a moeda norte-americana recuava 0,15%, a R$ 5,4883. </t>
+    <t>O dólar operava em queda na abertura do pregão desta sexta-feira (22). Por volta das 9h00, a moeda norte-americana recuava 0,15%, a R$ 5,4883. </t>
   </si>
   <si>
     <t>Suzano (SUZB3), Klabin (KLBN11) e Dexco (DXCO3) estão prestes a divulgar balanços do segundo trimestre (2T22). E somente uma das ações de papel &amp; celulose tem potencial de valorização de 72% em até 12 meses, segundo o Santander.</t>
@@ -4781,7 +4787,7 @@
     <t>O dólar à vista fechou em queda de 0,9% frente ao real, negociado a R$ 5,07 para venda, em movimento, na contramão do exterior que digeriu o evento da semana.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em alta na abertura do pregão desta quarta-feira (20). Por volta das 9h05, a moeda norte-americana avançava 0,27%, a R$ 5,4282. </t>
+    <t>O dólar operava em alta na abertura do pregão desta quarta-feira (20). Por volta das 9h05, a moeda norte-americana avançava 0,27%, a R$ 5,4282. </t>
   </si>
   <si>
     <t>Apesar de os mercados globais ainda ecoarem a fala agressiva (“hawkish”) do presidente do Federal Reserve, Jerome Powell, na sexta-feira (26), o primeiro debate na TV entre os candidatos à Presidência da República está no foco dos negócios no Ibovespa e com o dólar nesta segunda-feira (29).</t>
@@ -4790,7 +4796,7 @@
     <t>O Ibovespa (IBOV) segue na contramão dos mercados globais e abre em queda nesta quinta-feira (21), após a decisão do BCE de elevar a taxa de juros em 0,5 ponto percentual para controlar a inflação no bloco.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar à vista fechou estável frente ao real em dia de forte volatilidade, cotado a R$ 5,11. </t>
+    <t>O dólar à vista fechou estável frente ao real em dia de forte volatilidade, cotado a R$ 5,11. </t>
   </si>
   <si>
     <t>O ministro das Finanças do Japão, Shunichi Suzuki, disse nesta sexta-feira que os movimentos cambiais devem refletir os fundamentos econômicos, após a recuperação do iene ante mínimas em 24 anos além de 139 ienes por dólar vistas recentemente.</t>
@@ -4847,7 +4853,7 @@
     <t>A soja, o milho e o trigo estão sendo operados, neste fim das operações noturnas de Chicago, com os fundos compondo ajustes técnicos e fundamentos e testando reversão das baixas da terça.</t>
   </si>
   <si>
-    <t xml:space="preserve">O dólar operava em queda na abertura do pregão desta sexta-feira (14), em dia de dados sobre o varejo e a indústria nos Estados Unidos. Por volta das 9h05, a moeda norte-americana recuava 0,32%, a R$ 5,4057. </t>
+    <t>O dólar operava em queda na abertura do pregão desta sexta-feira (14), em dia de dados sobre o varejo e a indústria nos Estados Unidos. Por volta das 9h05, a moeda norte-americana recuava 0,32%, a R$ 5,4057. </t>
   </si>
   <si>
     <t>O Brasil recebeu em termos líquidos 156 milhões de dólares pelo câmbio contratado na semana passada, com o resultado na conta financeira segurando o saldo no azul após nova saída pelas operações comerciais, mostraram dados atualizados pelo Banco Central e divulgados nesta quarta-feira.</t>
@@ -5616,13 +5622,19 @@
   </si>
   <si>
     <t>06/07/2022 - 17:09</t>
+  </si>
+  <si>
+    <t>IRRELEVANTE</t>
+  </si>
+  <si>
+    <t>RELEVANTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5685,11 +5697,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5731,7 +5751,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5763,9 +5783,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5797,6 +5835,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5972,14 +6028,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="F304" sqref="F304"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5999,7 +6057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6015,8 +6073,11 @@
       <c r="E2">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6032,8 +6093,11 @@
       <c r="E3">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6049,8 +6113,11 @@
       <c r="E4">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -6066,8 +6133,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6083,8 +6153,11 @@
       <c r="E6">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6100,8 +6173,11 @@
       <c r="E7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6117,8 +6193,11 @@
       <c r="E8">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6134,8 +6213,11 @@
       <c r="E9">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6151,8 +6233,11 @@
       <c r="E10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6165,8 +6250,11 @@
       <c r="E11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6182,8 +6270,11 @@
       <c r="E12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6199,8 +6290,11 @@
       <c r="E13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -6216,8 +6310,11 @@
       <c r="E14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -6233,8 +6330,11 @@
       <c r="E15">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -6250,8 +6350,11 @@
       <c r="E16">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -6267,8 +6370,11 @@
       <c r="E17">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6284,8 +6390,11 @@
       <c r="E18">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6301,8 +6410,11 @@
       <c r="E19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -6318,8 +6430,11 @@
       <c r="E20">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -6335,8 +6450,11 @@
       <c r="E21">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6352,8 +6470,11 @@
       <c r="E22">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6369,8 +6490,11 @@
       <c r="E23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -6386,8 +6510,11 @@
       <c r="E24">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -6403,8 +6530,11 @@
       <c r="E25">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -6420,8 +6550,11 @@
       <c r="E26">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -6437,8 +6570,11 @@
       <c r="E27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -6454,8 +6590,11 @@
       <c r="E28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -6471,8 +6610,11 @@
       <c r="E29">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -6488,8 +6630,11 @@
       <c r="E30">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -6505,8 +6650,11 @@
       <c r="E31">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -6522,8 +6670,11 @@
       <c r="E32">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -6539,8 +6690,11 @@
       <c r="E33">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -6556,8 +6710,11 @@
       <c r="E34">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -6573,8 +6730,11 @@
       <c r="E35">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -6590,8 +6750,11 @@
       <c r="E36">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -6607,8 +6770,11 @@
       <c r="E37">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -6624,8 +6790,11 @@
       <c r="E38">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -6641,8 +6810,11 @@
       <c r="E39">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -6658,8 +6830,11 @@
       <c r="E40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -6675,8 +6850,11 @@
       <c r="E41">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -6692,8 +6870,11 @@
       <c r="E42">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -6709,8 +6890,11 @@
       <c r="E43">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -6726,8 +6910,11 @@
       <c r="E44">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -6743,8 +6930,11 @@
       <c r="E45">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -6760,8 +6950,11 @@
       <c r="E46">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -6777,8 +6970,11 @@
       <c r="E47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -6794,8 +6990,11 @@
       <c r="E48">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -6811,8 +7010,11 @@
       <c r="E49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -6828,8 +7030,11 @@
       <c r="E50">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -6845,8 +7050,11 @@
       <c r="E51">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -6862,8 +7070,11 @@
       <c r="E52">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -6879,8 +7090,11 @@
       <c r="E53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -6896,8 +7110,11 @@
       <c r="E54">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -6913,8 +7130,11 @@
       <c r="E55">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -6930,8 +7150,11 @@
       <c r="E56">
         <v>51</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -6947,8 +7170,11 @@
       <c r="E57">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -6964,8 +7190,11 @@
       <c r="E58">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -6981,8 +7210,11 @@
       <c r="E59">
         <v>47</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -6998,8 +7230,11 @@
       <c r="E60">
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -7015,8 +7250,11 @@
       <c r="E61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -7032,8 +7270,11 @@
       <c r="E62">
         <v>23</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -7049,8 +7290,11 @@
       <c r="E63">
         <v>37</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -7066,8 +7310,11 @@
       <c r="E64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -7083,8 +7330,11 @@
       <c r="E65">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -7100,8 +7350,11 @@
       <c r="E66">
         <v>42</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -7117,8 +7370,11 @@
       <c r="E67">
         <v>39</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -7134,8 +7390,11 @@
       <c r="E68">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -7151,8 +7410,11 @@
       <c r="E69">
         <v>30</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -7168,8 +7430,11 @@
       <c r="E70">
         <v>23</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7185,8 +7450,11 @@
       <c r="E71">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -7202,8 +7470,11 @@
       <c r="E72">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -7219,8 +7490,11 @@
       <c r="E73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -7236,8 +7510,11 @@
       <c r="E74">
         <v>56</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -7253,8 +7530,11 @@
       <c r="E75">
         <v>49</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -7270,8 +7550,11 @@
       <c r="E76">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -7287,8 +7570,11 @@
       <c r="E77">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -7304,8 +7590,11 @@
       <c r="E78">
         <v>57</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -7321,8 +7610,11 @@
       <c r="E79">
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -7338,8 +7630,11 @@
       <c r="E80">
         <v>38</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -7355,8 +7650,11 @@
       <c r="E81">
         <v>55</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -7372,8 +7670,11 @@
       <c r="E82">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -7389,8 +7690,11 @@
       <c r="E83">
         <v>45</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -7406,8 +7710,11 @@
       <c r="E84">
         <v>29</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -7423,8 +7730,11 @@
       <c r="E85">
         <v>53</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -7440,8 +7750,11 @@
       <c r="E86">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -7457,8 +7770,11 @@
       <c r="E87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -7474,8 +7790,11 @@
       <c r="E88">
         <v>30</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -7491,8 +7810,11 @@
       <c r="E89">
         <v>34</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -7508,8 +7830,11 @@
       <c r="E90">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -7525,8 +7850,11 @@
       <c r="E91">
         <v>44</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>35</v>
       </c>
@@ -7542,8 +7870,11 @@
       <c r="E92">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -7559,8 +7890,11 @@
       <c r="E93">
         <v>58</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -7576,8 +7910,11 @@
       <c r="E94">
         <v>26</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -7593,8 +7930,11 @@
       <c r="E95">
         <v>34</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -7610,8 +7950,11 @@
       <c r="E96">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -7627,8 +7970,11 @@
       <c r="E97">
         <v>45</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -7644,8 +7990,11 @@
       <c r="E98">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -7661,8 +8010,11 @@
       <c r="E99">
         <v>56</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -7678,8 +8030,11 @@
       <c r="E100">
         <v>42</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -7695,8 +8050,11 @@
       <c r="E101">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -7712,8 +8070,11 @@
       <c r="E102">
         <v>33</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -7729,8 +8090,11 @@
       <c r="E103">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -7746,8 +8110,11 @@
       <c r="E104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -7763,8 +8130,11 @@
       <c r="E105">
         <v>36</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -7780,8 +8150,11 @@
       <c r="E106">
         <v>35</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -7797,8 +8170,11 @@
       <c r="E107">
         <v>39</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -7814,8 +8190,11 @@
       <c r="E108">
         <v>18</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -7831,8 +8210,11 @@
       <c r="E109">
         <v>27</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -7848,8 +8230,11 @@
       <c r="E110">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -7865,8 +8250,11 @@
       <c r="E111">
         <v>22</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -7882,8 +8270,11 @@
       <c r="E112">
         <v>46</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -7899,8 +8290,11 @@
       <c r="E113">
         <v>31</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -7916,8 +8310,11 @@
       <c r="E114">
         <v>32</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -7933,8 +8330,11 @@
       <c r="E115">
         <v>46</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -7950,8 +8350,11 @@
       <c r="E116">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -7967,8 +8370,11 @@
       <c r="E117">
         <v>24</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -7984,8 +8390,11 @@
       <c r="E118">
         <v>54</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -8001,8 +8410,11 @@
       <c r="E119">
         <v>27</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -8018,8 +8430,11 @@
       <c r="E120">
         <v>13</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -8035,8 +8450,11 @@
       <c r="E121">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -8052,8 +8470,11 @@
       <c r="E122">
         <v>21</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -8069,8 +8490,11 @@
       <c r="E123">
         <v>52</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -8086,8 +8510,11 @@
       <c r="E124">
         <v>53</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -8103,8 +8530,11 @@
       <c r="E125">
         <v>28</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>44</v>
       </c>
@@ -8120,8 +8550,11 @@
       <c r="E126">
         <v>55</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -8137,8 +8570,11 @@
       <c r="E127">
         <v>20</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -8154,8 +8590,11 @@
       <c r="E128">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -8171,8 +8610,11 @@
       <c r="E129">
         <v>44</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -8188,8 +8630,11 @@
       <c r="E130">
         <v>26</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -8205,8 +8650,11 @@
       <c r="E131">
         <v>48</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -8222,8 +8670,11 @@
       <c r="E132">
         <v>24</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -8239,8 +8690,11 @@
       <c r="E133">
         <v>41</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -8256,8 +8710,11 @@
       <c r="E134">
         <v>24</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -8273,8 +8730,11 @@
       <c r="E135">
         <v>37</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -8290,8 +8750,11 @@
       <c r="E136">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -8307,8 +8770,11 @@
       <c r="E137">
         <v>42</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -8324,8 +8790,11 @@
       <c r="E138">
         <v>34</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -8341,8 +8810,11 @@
       <c r="E139">
         <v>55</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -8358,8 +8830,11 @@
       <c r="E140">
         <v>21</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -8375,8 +8850,11 @@
       <c r="E141">
         <v>27</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -8392,8 +8870,11 @@
       <c r="E142">
         <v>22</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -8409,8 +8890,11 @@
       <c r="E143">
         <v>29</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -8426,8 +8910,11 @@
       <c r="E144">
         <v>47</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>46</v>
       </c>
@@ -8443,8 +8930,11 @@
       <c r="E145">
         <v>38</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -8460,8 +8950,11 @@
       <c r="E146">
         <v>58</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -8477,8 +8970,11 @@
       <c r="E147">
         <v>25</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -8494,8 +8990,11 @@
       <c r="E148">
         <v>43</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -8511,8 +9010,11 @@
       <c r="E149">
         <v>34</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>47</v>
       </c>
@@ -8525,8 +9027,11 @@
       <c r="E150">
         <v>17</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>48</v>
       </c>
@@ -8542,8 +9047,11 @@
       <c r="E151">
         <v>42</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -8559,8 +9067,11 @@
       <c r="E152">
         <v>33</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -8576,8 +9087,11 @@
       <c r="E153">
         <v>9</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -8593,8 +9107,11 @@
       <c r="E154">
         <v>55</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -8610,8 +9127,11 @@
       <c r="E155">
         <v>46</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -8627,8 +9147,11 @@
       <c r="E156">
         <v>59</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -8644,8 +9167,11 @@
       <c r="E157">
         <v>26</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>43</v>
       </c>
@@ -8661,8 +9187,11 @@
       <c r="E158">
         <v>47</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -8678,8 +9207,11 @@
       <c r="E159">
         <v>43</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -8695,8 +9227,11 @@
       <c r="E160">
         <v>14</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -8712,8 +9247,11 @@
       <c r="E161">
         <v>49</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -8729,8 +9267,11 @@
       <c r="E162">
         <v>24</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -8746,8 +9287,11 @@
       <c r="E163">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>34</v>
       </c>
@@ -8763,8 +9307,11 @@
       <c r="E164">
         <v>40</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -8780,8 +9327,11 @@
       <c r="E165">
         <v>38</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -8797,8 +9347,11 @@
       <c r="E166">
         <v>32</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>49</v>
       </c>
@@ -8814,8 +9367,11 @@
       <c r="E167">
         <v>35</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -8831,8 +9387,11 @@
       <c r="E168">
         <v>32</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -8848,8 +9407,11 @@
       <c r="E169">
         <v>22</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -8865,8 +9427,11 @@
       <c r="E170">
         <v>42</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -8882,8 +9447,11 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -8899,8 +9467,11 @@
       <c r="E172">
         <v>54</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -8916,8 +9487,11 @@
       <c r="E173">
         <v>48</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -8933,8 +9507,11 @@
       <c r="E174">
         <v>31</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>50</v>
       </c>
@@ -8950,8 +9527,11 @@
       <c r="E175">
         <v>56</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -8967,8 +9547,11 @@
       <c r="E176">
         <v>57</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -8984,8 +9567,11 @@
       <c r="E177">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>51</v>
       </c>
@@ -9001,8 +9587,11 @@
       <c r="E178">
         <v>52</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -9018,8 +9607,11 @@
       <c r="E179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -9035,8 +9627,11 @@
       <c r="E180">
         <v>44</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -9052,8 +9647,11 @@
       <c r="E181">
         <v>30</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -9069,8 +9667,11 @@
       <c r="E182">
         <v>20</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -9086,8 +9687,11 @@
       <c r="E183">
         <v>39</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -9103,8 +9707,11 @@
       <c r="E184">
         <v>12</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -9120,8 +9727,11 @@
       <c r="E185">
         <v>35</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -9137,8 +9747,11 @@
       <c r="E186">
         <v>18</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>52</v>
       </c>
@@ -9154,8 +9767,11 @@
       <c r="E187">
         <v>52</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -9171,8 +9787,11 @@
       <c r="E188">
         <v>27</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>53</v>
       </c>
@@ -9188,8 +9807,11 @@
       <c r="E189">
         <v>60</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -9205,8 +9827,11 @@
       <c r="E190">
         <v>18</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -9222,8 +9847,11 @@
       <c r="E191">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -9239,8 +9867,11 @@
       <c r="E192">
         <v>48</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -9256,8 +9887,11 @@
       <c r="E193">
         <v>53</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -9273,8 +9907,11 @@
       <c r="E194">
         <v>25</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>55</v>
       </c>
@@ -9290,8 +9927,11 @@
       <c r="E195">
         <v>40</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -9307,8 +9947,11 @@
       <c r="E196">
         <v>45</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -9324,8 +9967,11 @@
       <c r="E197">
         <v>28</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -9341,8 +9987,11 @@
       <c r="E198">
         <v>51</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -9358,8 +10007,11 @@
       <c r="E199">
         <v>15</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>56</v>
       </c>
@@ -9375,8 +10027,11 @@
       <c r="E200">
         <v>59</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -9392,8 +10047,11 @@
       <c r="E201">
         <v>22</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -9409,8 +10067,11 @@
       <c r="E202">
         <v>58</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -9426,8 +10087,11 @@
       <c r="E203">
         <v>36</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -9443,8 +10107,11 @@
       <c r="E204">
         <v>41</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>57</v>
       </c>
@@ -9460,8 +10127,11 @@
       <c r="E205">
         <v>25</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -9477,8 +10147,11 @@
       <c r="E206">
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -9494,8 +10167,11 @@
       <c r="E207">
         <v>53</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>58</v>
       </c>
@@ -9511,8 +10187,11 @@
       <c r="E208">
         <v>49</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -9528,8 +10207,11 @@
       <c r="E209">
         <v>56</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -9545,8 +10227,11 @@
       <c r="E210">
         <v>56</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="F210" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>41</v>
       </c>
@@ -9562,8 +10247,11 @@
       <c r="E211">
         <v>60</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="F211" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -9579,8 +10267,11 @@
       <c r="E212">
         <v>43</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="F212" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -9596,8 +10287,11 @@
       <c r="E213">
         <v>4</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="F213" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -9613,8 +10307,11 @@
       <c r="E214">
         <v>6</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="F214" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -9630,8 +10327,11 @@
       <c r="E215">
         <v>46</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="F215" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -9647,8 +10347,11 @@
       <c r="E216">
         <v>13</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="F216" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -9664,8 +10367,11 @@
       <c r="E217">
         <v>3</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="F217" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -9681,8 +10387,11 @@
       <c r="E218">
         <v>48</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="F218" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>59</v>
       </c>
@@ -9698,8 +10407,11 @@
       <c r="E219">
         <v>50</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="F219" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>53</v>
       </c>
@@ -9715,8 +10427,11 @@
       <c r="E220">
         <v>33</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="F220" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>48</v>
       </c>
@@ -9732,8 +10447,11 @@
       <c r="E221">
         <v>37</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="F221" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>22</v>
       </c>
@@ -9749,8 +10467,11 @@
       <c r="E222">
         <v>16</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="F222" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -9766,8 +10487,11 @@
       <c r="E223">
         <v>22</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="F223" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>60</v>
       </c>
@@ -9783,8 +10507,11 @@
       <c r="E224">
         <v>3</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="F224" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>31</v>
       </c>
@@ -9800,8 +10527,11 @@
       <c r="E225">
         <v>36</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="F225" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -9817,8 +10547,11 @@
       <c r="E226">
         <v>59</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>61</v>
       </c>
@@ -9834,8 +10567,11 @@
       <c r="E227">
         <v>20</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="F227" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>31</v>
       </c>
@@ -9851,8 +10587,11 @@
       <c r="E228">
         <v>17</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="F228" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -9868,8 +10607,11 @@
       <c r="E229">
         <v>44</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="F229" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>62</v>
       </c>
@@ -9885,8 +10627,11 @@
       <c r="E230">
         <v>57</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="F230" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -9902,8 +10647,11 @@
       <c r="E231">
         <v>12</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="F231" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>63</v>
       </c>
@@ -9919,8 +10667,11 @@
       <c r="E232">
         <v>6</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="F232" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -9936,8 +10687,11 @@
       <c r="E233">
         <v>17</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="F233" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>34</v>
       </c>
@@ -9953,8 +10707,11 @@
       <c r="E234">
         <v>53</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="F234" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>29</v>
       </c>
@@ -9970,8 +10727,11 @@
       <c r="E235">
         <v>34</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="F235" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -9987,8 +10747,11 @@
       <c r="E236">
         <v>35</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="F236" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>39</v>
       </c>
@@ -10004,8 +10767,11 @@
       <c r="E237">
         <v>7</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="F237" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -10021,8 +10787,11 @@
       <c r="E238">
         <v>18</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="F238" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -10038,8 +10807,11 @@
       <c r="E239">
         <v>11</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="F239" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -10055,8 +10827,11 @@
       <c r="E240">
         <v>7</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="F240" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>64</v>
       </c>
@@ -10072,8 +10847,11 @@
       <c r="E241">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="F241" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -10089,8 +10867,11 @@
       <c r="E242">
         <v>10</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="F242" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>65</v>
       </c>
@@ -10106,8 +10887,11 @@
       <c r="E243">
         <v>48</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="F243" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -10123,8 +10907,11 @@
       <c r="E244">
         <v>36</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="F244" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -10140,8 +10927,11 @@
       <c r="E245">
         <v>13</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="F245" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>33</v>
       </c>
@@ -10157,8 +10947,11 @@
       <c r="E246">
         <v>32</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="F246" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -10174,8 +10967,11 @@
       <c r="E247">
         <v>20</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="F247" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -10191,8 +10987,11 @@
       <c r="E248">
         <v>4</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="F248" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -10208,8 +11007,11 @@
       <c r="E249">
         <v>52</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="F249" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>34</v>
       </c>
@@ -10225,8 +11027,11 @@
       <c r="E250">
         <v>31</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="F250" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -10242,8 +11047,11 @@
       <c r="E251">
         <v>14</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="F251" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -10259,8 +11067,11 @@
       <c r="E252">
         <v>50</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="F252" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -10276,8 +11087,11 @@
       <c r="E253">
         <v>22</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="F253" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -10293,8 +11107,11 @@
       <c r="E254">
         <v>37</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="F254" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -10310,8 +11127,11 @@
       <c r="E255">
         <v>49</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="F255" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>42</v>
       </c>
@@ -10327,8 +11147,11 @@
       <c r="E256">
         <v>12</v>
       </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="F256" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -10344,8 +11167,11 @@
       <c r="E257">
         <v>48</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="F257" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -10361,8 +11187,11 @@
       <c r="E258">
         <v>51</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="F258" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>29</v>
       </c>
@@ -10378,8 +11207,11 @@
       <c r="E259">
         <v>60</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="F259" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -10395,8 +11227,11 @@
       <c r="E260">
         <v>35</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="F260" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -10412,8 +11247,11 @@
       <c r="E261">
         <v>5</v>
       </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="F261" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>32</v>
       </c>
@@ -10429,8 +11267,11 @@
       <c r="E262">
         <v>60</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="F262" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -10446,8 +11287,11 @@
       <c r="E263">
         <v>19</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="F263" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>66</v>
       </c>
@@ -10463,8 +11307,11 @@
       <c r="E264">
         <v>9</v>
       </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="F264" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -10480,8 +11327,11 @@
       <c r="E265">
         <v>23</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="F265" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -10497,8 +11347,11 @@
       <c r="E266">
         <v>15</v>
       </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="F266" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -10514,8 +11367,11 @@
       <c r="E267">
         <v>59</v>
       </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="F267" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>31</v>
       </c>
@@ -10531,8 +11387,11 @@
       <c r="E268">
         <v>21</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="F268" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -10548,8 +11407,11 @@
       <c r="E269">
         <v>27</v>
       </c>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="F269" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>29</v>
       </c>
@@ -10565,8 +11427,11 @@
       <c r="E270">
         <v>14</v>
       </c>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="F270" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -10582,8 +11447,11 @@
       <c r="E271">
         <v>22</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="F271" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -10599,8 +11467,11 @@
       <c r="E272">
         <v>47</v>
       </c>
-    </row>
-    <row r="273" spans="1:5">
+      <c r="F272" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>27</v>
       </c>
@@ -10616,8 +11487,11 @@
       <c r="E273">
         <v>41</v>
       </c>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="F273" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>10</v>
       </c>
@@ -10633,8 +11507,11 @@
       <c r="E274">
         <v>37</v>
       </c>
-    </row>
-    <row r="275" spans="1:5">
+      <c r="F274" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>67</v>
       </c>
@@ -10650,8 +11527,11 @@
       <c r="E275">
         <v>2</v>
       </c>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="F275" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -10667,8 +11547,11 @@
       <c r="E276">
         <v>40</v>
       </c>
-    </row>
-    <row r="277" spans="1:5">
+      <c r="F276" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -10684,8 +11567,11 @@
       <c r="E277">
         <v>32</v>
       </c>
-    </row>
-    <row r="278" spans="1:5">
+      <c r="F277" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>68</v>
       </c>
@@ -10701,8 +11587,11 @@
       <c r="E278">
         <v>13</v>
       </c>
-    </row>
-    <row r="279" spans="1:5">
+      <c r="F278" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -10718,8 +11607,11 @@
       <c r="E279">
         <v>60</v>
       </c>
-    </row>
-    <row r="280" spans="1:5">
+      <c r="F279" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -10735,8 +11627,11 @@
       <c r="E280">
         <v>5</v>
       </c>
-    </row>
-    <row r="281" spans="1:5">
+      <c r="F280" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -10752,8 +11647,11 @@
       <c r="E281">
         <v>28</v>
       </c>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="F281" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -10769,8 +11667,11 @@
       <c r="E282">
         <v>5</v>
       </c>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="F282" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -10786,8 +11687,11 @@
       <c r="E283">
         <v>5</v>
       </c>
-    </row>
-    <row r="284" spans="1:5">
+      <c r="F283" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>69</v>
       </c>
@@ -10803,8 +11707,11 @@
       <c r="E284">
         <v>11</v>
       </c>
-    </row>
-    <row r="285" spans="1:5">
+      <c r="F284" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>70</v>
       </c>
@@ -10820,8 +11727,11 @@
       <c r="E285">
         <v>14</v>
       </c>
-    </row>
-    <row r="286" spans="1:5">
+      <c r="F285" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>27</v>
       </c>
@@ -10837,8 +11747,11 @@
       <c r="E286">
         <v>38</v>
       </c>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="F286" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -10854,8 +11767,11 @@
       <c r="E287">
         <v>45</v>
       </c>
-    </row>
-    <row r="288" spans="1:5">
+      <c r="F287" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -10871,8 +11787,11 @@
       <c r="E288">
         <v>26</v>
       </c>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="F288" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -10888,8 +11807,11 @@
       <c r="E289">
         <v>51</v>
       </c>
-    </row>
-    <row r="290" spans="1:5">
+      <c r="F289" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -10905,8 +11827,11 @@
       <c r="E290">
         <v>43</v>
       </c>
-    </row>
-    <row r="291" spans="1:5">
+      <c r="F290" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -10922,8 +11847,11 @@
       <c r="E291">
         <v>28</v>
       </c>
-    </row>
-    <row r="292" spans="1:5">
+      <c r="F291" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -10939,8 +11867,11 @@
       <c r="E292">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="1:5">
+      <c r="F292" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -10956,8 +11887,11 @@
       <c r="E293">
         <v>58</v>
       </c>
-    </row>
-    <row r="294" spans="1:5">
+      <c r="F293" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>38</v>
       </c>
@@ -10973,8 +11907,11 @@
       <c r="E294">
         <v>52</v>
       </c>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="F294" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -10990,8 +11927,11 @@
       <c r="E295">
         <v>48</v>
       </c>
-    </row>
-    <row r="296" spans="1:5">
+      <c r="F295" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -11007,8 +11947,11 @@
       <c r="E296">
         <v>25</v>
       </c>
-    </row>
-    <row r="297" spans="1:5">
+      <c r="F296" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -11024,8 +11967,11 @@
       <c r="E297">
         <v>45</v>
       </c>
-    </row>
-    <row r="298" spans="1:5">
+      <c r="F297" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -11041,8 +11987,11 @@
       <c r="E298">
         <v>57</v>
       </c>
-    </row>
-    <row r="299" spans="1:5">
+      <c r="F298" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -11058,8 +12007,11 @@
       <c r="E299">
         <v>13</v>
       </c>
-    </row>
-    <row r="300" spans="1:5">
+      <c r="F299" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>19</v>
       </c>
@@ -11075,8 +12027,11 @@
       <c r="E300">
         <v>21</v>
       </c>
-    </row>
-    <row r="301" spans="1:5">
+      <c r="F300" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>27</v>
       </c>
@@ -11092,8 +12047,11 @@
       <c r="E301">
         <v>43</v>
       </c>
-    </row>
-    <row r="302" spans="1:5">
+      <c r="F301" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>42</v>
       </c>
@@ -11109,8 +12067,11 @@
       <c r="E302">
         <v>54</v>
       </c>
-    </row>
-    <row r="303" spans="1:5">
+      <c r="F302" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>15</v>
       </c>
@@ -11126,8 +12087,11 @@
       <c r="E303">
         <v>53</v>
       </c>
-    </row>
-    <row r="304" spans="1:5">
+      <c r="F303" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -11144,7 +12108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -11161,7 +12125,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>38</v>
       </c>
@@ -11178,7 +12142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -11195,7 +12159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -11212,7 +12176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -11229,7 +12193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -11246,7 +12210,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -11263,7 +12227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -11280,7 +12244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -11297,7 +12261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>71</v>
       </c>
@@ -11314,7 +12278,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>39</v>
       </c>
@@ -11331,7 +12295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>30</v>
       </c>
@@ -11348,7 +12312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>31</v>
       </c>
@@ -11365,7 +12329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -11382,7 +12346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>72</v>
       </c>
@@ -11399,7 +12363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -11416,7 +12380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -11433,7 +12397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -11450,7 +12414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>10</v>
       </c>
@@ -11467,7 +12431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>73</v>
       </c>
@@ -11484,7 +12448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -11501,7 +12465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>31</v>
       </c>
@@ -11518,7 +12482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>31</v>
       </c>
@@ -11535,7 +12499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>13</v>
       </c>
@@ -11552,7 +12516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -11569,7 +12533,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>29</v>
       </c>
@@ -11586,7 +12550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -11603,7 +12567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>32</v>
       </c>
@@ -11620,7 +12584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -11637,7 +12601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>74</v>
       </c>
@@ -11654,7 +12618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>36</v>
       </c>
@@ -11671,7 +12635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>31</v>
       </c>
@@ -11688,7 +12652,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -11705,7 +12669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>39</v>
       </c>
@@ -11722,7 +12686,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>31</v>
       </c>
@@ -11739,7 +12703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>10</v>
       </c>
@@ -11756,7 +12720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>27</v>
       </c>
@@ -11773,7 +12737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>75</v>
       </c>
@@ -11790,7 +12754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -11807,7 +12771,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>31</v>
       </c>
@@ -11824,7 +12788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -11841,7 +12805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -11858,7 +12822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>41</v>
       </c>
@@ -11875,7 +12839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -11892,7 +12856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -11909,7 +12873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>33</v>
       </c>
@@ -11926,7 +12890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -11943,7 +12907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>38</v>
       </c>
@@ -11960,7 +12924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -11977,7 +12941,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -11994,7 +12958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -12011,7 +12975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -12028,7 +12992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -12045,7 +13009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>15</v>
       </c>
@@ -12062,7 +13026,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>27</v>
       </c>
@@ -12079,7 +13043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>33</v>
       </c>
@@ -12096,7 +13060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -12119,14 +13083,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12146,7 +13110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -12163,7 +13127,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -12180,7 +13144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -12197,7 +13161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1136</v>
       </c>
@@ -12214,7 +13178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -12231,7 +13195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -12248,7 +13212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -12265,7 +13229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -12282,7 +13246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -12299,7 +13263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -12316,7 +13280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -12333,7 +13297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1137</v>
       </c>
@@ -12350,7 +13314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -12367,7 +13331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -12384,7 +13348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -12401,7 +13365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -12418,7 +13382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -12435,7 +13399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -12452,7 +13416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -12469,7 +13433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -12486,7 +13450,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -12503,7 +13467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1138</v>
       </c>
@@ -12520,7 +13484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -12537,7 +13501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -12554,7 +13518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -12571,7 +13535,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -12588,7 +13552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -12605,7 +13569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -12622,7 +13586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -12639,7 +13603,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -12656,7 +13620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -12673,7 +13637,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -12690,7 +13654,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -12707,7 +13671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -12724,7 +13688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -12741,7 +13705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -12758,7 +13722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1139</v>
       </c>
@@ -12775,7 +13739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -12792,7 +13756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1140</v>
       </c>
@@ -12809,7 +13773,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -12826,7 +13790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -12843,7 +13807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -12860,7 +13824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -12877,7 +13841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -12894,7 +13858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -12911,7 +13875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -12928,7 +13892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -12945,7 +13909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -12962,7 +13926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1141</v>
       </c>
@@ -12979,7 +13943,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -12996,7 +13960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -13013,7 +13977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -13030,7 +13994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -13047,7 +14011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -13064,7 +14028,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -13081,7 +14045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -13098,7 +14062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -13115,7 +14079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -13132,7 +14096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -13149,7 +14113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -13166,7 +14130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -13183,7 +14147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -13200,7 +14164,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -13217,7 +14181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -13234,7 +14198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -13251,7 +14215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -13268,7 +14232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -13282,7 +14246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -13299,7 +14263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1142</v>
       </c>
@@ -13316,7 +14280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -13333,7 +14297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -13350,7 +14314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -13367,7 +14331,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1143</v>
       </c>
@@ -13384,7 +14348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -13401,7 +14365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -13418,7 +14382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -13435,7 +14399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -13452,7 +14416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -13469,7 +14433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1144</v>
       </c>
@@ -13486,7 +14450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -13503,7 +14467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -13520,7 +14484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -13537,7 +14501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -13554,7 +14518,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -13571,7 +14535,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -13588,7 +14552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -13605,7 +14569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -13622,7 +14586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -13639,7 +14603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -13656,7 +14620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -13673,7 +14637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -13690,7 +14654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -13707,7 +14671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -13724,7 +14688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -13741,7 +14705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -13758,7 +14722,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -13775,7 +14739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1145</v>
       </c>
@@ -13792,7 +14756,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -13809,7 +14773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -13826,7 +14790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -13843,7 +14807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1146</v>
       </c>
@@ -13860,7 +14824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -13877,7 +14841,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -13894,7 +14858,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -13911,7 +14875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -13928,7 +14892,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1147</v>
       </c>
@@ -13945,7 +14909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -13962,7 +14926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>29</v>
       </c>
@@ -13979,7 +14943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1148</v>
       </c>
@@ -13996,7 +14960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1149</v>
       </c>
@@ -14013,7 +14977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -14030,7 +14994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -14047,7 +15011,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1150</v>
       </c>
@@ -14064,7 +15028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1151</v>
       </c>
@@ -14081,7 +15045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -14098,7 +15062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -14115,7 +15079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1145</v>
       </c>
@@ -14132,7 +15096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -14149,7 +15113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -14166,7 +15130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -14183,7 +15147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -14200,7 +15164,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -14217,7 +15181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -14234,7 +15198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -14251,7 +15215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -14268,7 +15232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -14285,7 +15249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -14302,7 +15266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -14319,7 +15283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -14336,7 +15300,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -14353,7 +15317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -14370,7 +15334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>70</v>
       </c>
@@ -14387,7 +15351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>38</v>
       </c>
@@ -14404,7 +15368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -14421,7 +15385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -14438,7 +15402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -14455,7 +15419,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>1142</v>
       </c>
@@ -14472,7 +15436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -14489,7 +15453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>1152</v>
       </c>
@@ -14506,7 +15470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -14523,7 +15487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -14540,7 +15504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -14557,7 +15521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>1153</v>
       </c>
@@ -14574,7 +15538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -14591,7 +15555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -14608,7 +15572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -14625,7 +15589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -14642,7 +15606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -14659,7 +15623,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -14676,7 +15640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -14693,7 +15657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -14710,7 +15674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>1154</v>
       </c>
@@ -14727,7 +15691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -14744,7 +15708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -14761,7 +15725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -14778,7 +15742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>1155</v>
       </c>
@@ -14795,7 +15759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>27</v>
       </c>
@@ -14812,7 +15776,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -14829,7 +15793,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -14846,7 +15810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>1156</v>
       </c>
@@ -14863,7 +15827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -14880,7 +15844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -14897,7 +15861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -14914,7 +15878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -14931,7 +15895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -14948,7 +15912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -14965,7 +15929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -14982,7 +15946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>27</v>
       </c>
@@ -14999,7 +15963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -15016,7 +15980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>34</v>
       </c>
@@ -15033,7 +15997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -15050,7 +16014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -15067,7 +16031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -15084,7 +16048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -15101,7 +16065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -15118,7 +16082,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -15135,7 +16099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>31</v>
       </c>
@@ -15152,7 +16116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -15169,7 +16133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -15186,7 +16150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -15203,7 +16167,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -15220,7 +16184,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -15237,7 +16201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -15254,7 +16218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -15271,7 +16235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>41</v>
       </c>
@@ -15288,7 +16252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -15305,7 +16269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -15322,7 +16286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>33</v>
       </c>
@@ -15339,7 +16303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>38</v>
       </c>
@@ -15356,7 +16320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -15373,7 +16337,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -15390,7 +16354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>31</v>
       </c>
@@ -15407,7 +16371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -15424,7 +16388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>36</v>
       </c>
@@ -15441,7 +16405,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -15458,7 +16422,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -15475,7 +16439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>32</v>
       </c>
@@ -15492,7 +16456,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -15509,7 +16473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1137</v>
       </c>
@@ -15526,7 +16490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -15543,7 +16507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -15560,7 +16524,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>1136</v>
       </c>
@@ -15577,7 +16541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -15594,7 +16558,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -15611,7 +16575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -15628,7 +16592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -15645,7 +16609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>39</v>
       </c>
@@ -15662,7 +16626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -15679,7 +16643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -15696,7 +16660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -15713,7 +16677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>1157</v>
       </c>
@@ -15730,7 +16694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -15747,7 +16711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>27</v>
       </c>
@@ -15764,7 +16728,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>31</v>
       </c>
@@ -15781,7 +16745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -15798,7 +16762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -15815,7 +16779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -15832,7 +16796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -15849,7 +16813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -15866,7 +16830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -15883,7 +16847,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -15900,7 +16864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -15917,7 +16881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>31</v>
       </c>
@@ -15934,7 +16898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -15951,7 +16915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>42</v>
       </c>
@@ -15968,7 +16932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -15985,7 +16949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1156</v>
       </c>
@@ -16002,7 +16966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>34</v>
       </c>
@@ -16019,7 +16983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>37</v>
       </c>
@@ -16036,7 +17000,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>22</v>
       </c>
@@ -16053,7 +17017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>1154</v>
       </c>
@@ -16070,7 +17034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>1136</v>
       </c>
@@ -16087,7 +17051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -16104,7 +17068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1146</v>
       </c>
@@ -16121,7 +17085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -16138,7 +17102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1158</v>
       </c>
@@ -16155,7 +17119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -16172,7 +17136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>28</v>
       </c>
@@ -16189,7 +17153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>32</v>
       </c>
@@ -16206,7 +17170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>11</v>
       </c>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e0e16b2796fadf2/Área de Trabalho/projeto 1 cdados/22-2a-cd-p1-grupo_renatogp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="641" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AED64B9-96FF-41F3-9704-A4DF6F3B4676}"/>
+  <xr:revisionPtr revIDLastSave="652" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E7758DA-50E4-4EA6-BD87-BB4F770C9F8B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="1869">
   <si>
     <t>Categoria</t>
   </si>
@@ -5625,6 +5625,9 @@
   </si>
   <si>
     <t>RELEVANTE</t>
+  </si>
+  <si>
+    <t>NEUTRO</t>
   </si>
 </sst>
 </file>
@@ -13260,8 +13263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B215" workbookViewId="0">
-      <selection activeCell="F242" sqref="F242"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13526,7 +13529,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -13606,7 +13609,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -13946,7 +13949,7 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -14006,7 +14009,7 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -17603,7 +17606,7 @@
         <v>28</v>
       </c>
       <c r="F217" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -17703,7 +17706,7 @@
         <v>29</v>
       </c>
       <c r="F222" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -17723,7 +17726,7 @@
         <v>3</v>
       </c>
       <c r="F223" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -17783,7 +17786,7 @@
         <v>16</v>
       </c>
       <c r="F226" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -17823,7 +17826,7 @@
         <v>31</v>
       </c>
       <c r="F228" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -18088,5 +18091,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e0e16b2796fadf2/Área de Trabalho/projeto 1 cdados/22-2a-cd-p1-grupo_renatogp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e55f31e0d1b9548b/Área de Trabalho/INSPER/CDADOS/CD22-2/projeto01/22-2a-cd-p1-grupo_renatogp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="652" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E7758DA-50E4-4EA6-BD87-BB4F770C9F8B}"/>
+  <xr:revisionPtr revIDLastSave="669" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C91E4DB-048A-45EA-9818-4740E3DA9CC9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Treinamento!$A$1:$F$361</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -6031,16 +6034,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="F350" sqref="F350"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="117.109375" customWidth="1"/>
+    <col min="3" max="3" width="117.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6060,7 +6063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6100,7 +6103,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6120,7 +6123,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -6140,7 +6143,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6160,7 +6163,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6220,7 +6223,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6277,7 +6280,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6297,7 +6300,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -6317,7 +6320,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -6337,7 +6340,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -6357,7 +6360,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6397,7 +6400,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -6437,7 +6440,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -6457,7 +6460,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6477,7 +6480,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6497,7 +6500,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -6517,7 +6520,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -6537,7 +6540,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -6557,7 +6560,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -6577,7 +6580,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -6597,7 +6600,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -6614,10 +6617,10 @@
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -6657,7 +6660,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -6677,7 +6680,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -6697,7 +6700,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -6737,7 +6740,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -6777,7 +6780,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -6797,7 +6800,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -6817,7 +6820,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -6837,7 +6840,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -6857,7 +6860,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -6897,7 +6900,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -6937,7 +6940,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -6957,7 +6960,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -6977,7 +6980,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -6997,7 +7000,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -7017,7 +7020,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -7037,7 +7040,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -7057,7 +7060,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -7077,7 +7080,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -7117,7 +7120,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -7137,7 +7140,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -7157,7 +7160,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -7177,7 +7180,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -7197,7 +7200,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -7217,7 +7220,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -7237,7 +7240,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -7257,7 +7260,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -7277,7 +7280,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -7294,10 +7297,10 @@
         <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -7317,7 +7320,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -7357,7 +7360,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -7377,7 +7380,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -7397,7 +7400,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -7417,7 +7420,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -7437,7 +7440,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7457,7 +7460,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -7477,7 +7480,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -7497,7 +7500,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -7517,7 +7520,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -7537,7 +7540,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -7557,7 +7560,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -7577,7 +7580,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -7597,7 +7600,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -7617,7 +7620,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -7637,7 +7640,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -7677,7 +7680,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -7697,7 +7700,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -7717,7 +7720,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -7737,7 +7740,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -7757,7 +7760,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -7777,7 +7780,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -7797,7 +7800,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -7817,7 +7820,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -7837,7 +7840,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>35</v>
       </c>
@@ -7877,7 +7880,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -7897,7 +7900,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -7917,7 +7920,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -7937,7 +7940,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -7957,7 +7960,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -7977,7 +7980,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -7997,7 +8000,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -8017,7 +8020,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -8037,7 +8040,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -8057,7 +8060,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -8077,7 +8080,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -8097,7 +8100,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -8117,7 +8120,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -8137,7 +8140,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -8157,7 +8160,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -8177,7 +8180,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -8197,7 +8200,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -8217,7 +8220,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -8237,7 +8240,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -8257,7 +8260,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -8277,7 +8280,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -8297,7 +8300,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -8317,7 +8320,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -8337,7 +8340,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -8357,7 +8360,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -8374,10 +8377,10 @@
         <v>24</v>
       </c>
       <c r="F117" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -8397,7 +8400,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -8417,7 +8420,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -8437,7 +8440,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -8457,7 +8460,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -8477,7 +8480,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -8497,7 +8500,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -8517,7 +8520,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -8537,7 +8540,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>44</v>
       </c>
@@ -8557,7 +8560,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -8577,7 +8580,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -8597,7 +8600,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -8617,7 +8620,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -8657,7 +8660,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -8677,7 +8680,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -8697,7 +8700,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -8717,7 +8720,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -8737,7 +8740,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -8757,7 +8760,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -8777,7 +8780,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -8797,7 +8800,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -8817,7 +8820,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -8837,7 +8840,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -8854,10 +8857,10 @@
         <v>27</v>
       </c>
       <c r="F141" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -8877,7 +8880,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -8894,10 +8897,10 @@
         <v>29</v>
       </c>
       <c r="F143" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -8917,7 +8920,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>46</v>
       </c>
@@ -8937,7 +8940,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -8957,7 +8960,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -8977,7 +8980,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -8997,7 +9000,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -9017,7 +9020,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>47</v>
       </c>
@@ -9034,7 +9037,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>48</v>
       </c>
@@ -9054,7 +9057,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -9074,7 +9077,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -9094,7 +9097,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -9114,7 +9117,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -9134,7 +9137,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -9154,7 +9157,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -9174,7 +9177,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>43</v>
       </c>
@@ -9194,7 +9197,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -9214,7 +9217,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -9234,7 +9237,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -9254,7 +9257,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -9274,7 +9277,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -9294,7 +9297,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>34</v>
       </c>
@@ -9314,7 +9317,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -9334,7 +9337,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -9354,7 +9357,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>49</v>
       </c>
@@ -9374,7 +9377,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -9394,7 +9397,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -9411,10 +9414,10 @@
         <v>22</v>
       </c>
       <c r="F169" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -9434,7 +9437,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -9454,7 +9457,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -9474,7 +9477,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -9494,7 +9497,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -9514,7 +9517,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>50</v>
       </c>
@@ -9534,7 +9537,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -9554,7 +9557,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -9574,7 +9577,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>51</v>
       </c>
@@ -9594,7 +9597,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -9614,7 +9617,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -9634,7 +9637,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -9654,7 +9657,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -9674,7 +9677,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -9694,7 +9697,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -9714,7 +9717,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -9734,7 +9737,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -9754,7 +9757,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>52</v>
       </c>
@@ -9774,7 +9777,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -9794,7 +9797,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>53</v>
       </c>
@@ -9814,7 +9817,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -9834,7 +9837,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -9854,7 +9857,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -9874,7 +9877,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -9894,7 +9897,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -9914,7 +9917,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>55</v>
       </c>
@@ -9934,7 +9937,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -9954,7 +9957,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -9974,7 +9977,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -9994,7 +9997,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -10014,7 +10017,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>56</v>
       </c>
@@ -10034,7 +10037,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -10054,7 +10057,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -10074,7 +10077,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -10094,7 +10097,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -10114,7 +10117,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>57</v>
       </c>
@@ -10134,7 +10137,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -10154,7 +10157,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -10174,7 +10177,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>58</v>
       </c>
@@ -10194,7 +10197,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -10214,7 +10217,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -10234,7 +10237,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>41</v>
       </c>
@@ -10254,7 +10257,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -10274,7 +10277,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -10294,7 +10297,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -10314,7 +10317,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -10334,7 +10337,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -10354,7 +10357,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -10374,7 +10377,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -10394,7 +10397,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>59</v>
       </c>
@@ -10414,7 +10417,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>53</v>
       </c>
@@ -10434,7 +10437,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>48</v>
       </c>
@@ -10454,7 +10457,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>22</v>
       </c>
@@ -10474,7 +10477,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -10491,10 +10494,10 @@
         <v>22</v>
       </c>
       <c r="F223" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>60</v>
       </c>
@@ -10514,7 +10517,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>31</v>
       </c>
@@ -10534,7 +10537,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -10554,7 +10557,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>61</v>
       </c>
@@ -10574,7 +10577,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>31</v>
       </c>
@@ -10594,7 +10597,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -10614,7 +10617,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>62</v>
       </c>
@@ -10634,7 +10637,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -10654,7 +10657,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>63</v>
       </c>
@@ -10674,7 +10677,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -10694,7 +10697,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>34</v>
       </c>
@@ -10714,7 +10717,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>29</v>
       </c>
@@ -10734,7 +10737,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -10754,7 +10757,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>39</v>
       </c>
@@ -10774,7 +10777,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -10794,7 +10797,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -10811,10 +10814,10 @@
         <v>11</v>
       </c>
       <c r="F239" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -10834,7 +10837,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>64</v>
       </c>
@@ -10854,7 +10857,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -10874,7 +10877,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>65</v>
       </c>
@@ -10894,7 +10897,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -10914,7 +10917,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -10934,7 +10937,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>33</v>
       </c>
@@ -10954,7 +10957,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -10974,7 +10977,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -10994,7 +10997,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -11014,7 +11017,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>34</v>
       </c>
@@ -11034,7 +11037,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -11054,7 +11057,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -11074,7 +11077,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -11094,7 +11097,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -11114,7 +11117,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -11134,7 +11137,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>42</v>
       </c>
@@ -11154,7 +11157,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -11174,7 +11177,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -11194,7 +11197,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>29</v>
       </c>
@@ -11214,7 +11217,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -11234,7 +11237,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -11254,7 +11257,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>32</v>
       </c>
@@ -11274,7 +11277,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -11294,7 +11297,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>66</v>
       </c>
@@ -11314,7 +11317,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -11334,7 +11337,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -11354,7 +11357,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -11374,7 +11377,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>31</v>
       </c>
@@ -11394,7 +11397,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -11414,7 +11417,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>29</v>
       </c>
@@ -11434,7 +11437,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -11454,7 +11457,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -11474,7 +11477,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>27</v>
       </c>
@@ -11494,7 +11497,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>10</v>
       </c>
@@ -11514,7 +11517,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>67</v>
       </c>
@@ -11534,7 +11537,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -11554,7 +11557,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -11571,10 +11574,10 @@
         <v>32</v>
       </c>
       <c r="F277" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>68</v>
       </c>
@@ -11594,7 +11597,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -11614,7 +11617,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -11634,7 +11637,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -11654,7 +11657,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -11674,7 +11677,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -11694,7 +11697,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>69</v>
       </c>
@@ -11714,7 +11717,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>70</v>
       </c>
@@ -11734,7 +11737,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>27</v>
       </c>
@@ -11754,7 +11757,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -11774,7 +11777,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -11794,7 +11797,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -11814,7 +11817,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -11834,7 +11837,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -11854,7 +11857,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -11874,7 +11877,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -11894,7 +11897,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>38</v>
       </c>
@@ -11914,7 +11917,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -11934,7 +11937,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -11954,7 +11957,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -11974,7 +11977,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -11994,7 +11997,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -12014,7 +12017,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>19</v>
       </c>
@@ -12034,7 +12037,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>27</v>
       </c>
@@ -12054,7 +12057,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>42</v>
       </c>
@@ -12074,7 +12077,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>15</v>
       </c>
@@ -12094,7 +12097,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -12114,7 +12117,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -12134,7 +12137,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>38</v>
       </c>
@@ -12154,7 +12157,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -12174,7 +12177,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -12194,7 +12197,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -12214,7 +12217,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -12234,7 +12237,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -12254,7 +12257,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -12274,7 +12277,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -12294,7 +12297,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>71</v>
       </c>
@@ -12314,7 +12317,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>39</v>
       </c>
@@ -12334,7 +12337,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>30</v>
       </c>
@@ -12354,7 +12357,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>31</v>
       </c>
@@ -12374,7 +12377,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -12394,7 +12397,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>72</v>
       </c>
@@ -12414,7 +12417,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -12434,7 +12437,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -12454,7 +12457,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -12474,7 +12477,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>10</v>
       </c>
@@ -12494,7 +12497,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>73</v>
       </c>
@@ -12514,7 +12517,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -12534,7 +12537,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>31</v>
       </c>
@@ -12554,7 +12557,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>31</v>
       </c>
@@ -12574,7 +12577,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>13</v>
       </c>
@@ -12594,7 +12597,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -12614,7 +12617,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>29</v>
       </c>
@@ -12634,7 +12637,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -12654,7 +12657,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>32</v>
       </c>
@@ -12674,7 +12677,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -12694,7 +12697,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>74</v>
       </c>
@@ -12714,7 +12717,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>36</v>
       </c>
@@ -12734,7 +12737,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>31</v>
       </c>
@@ -12754,7 +12757,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -12774,7 +12777,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>39</v>
       </c>
@@ -12794,7 +12797,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>31</v>
       </c>
@@ -12814,7 +12817,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>10</v>
       </c>
@@ -12834,7 +12837,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>27</v>
       </c>
@@ -12854,7 +12857,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>75</v>
       </c>
@@ -12874,7 +12877,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -12894,7 +12897,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>31</v>
       </c>
@@ -12914,7 +12917,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -12934,7 +12937,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -12954,7 +12957,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>41</v>
       </c>
@@ -12974,7 +12977,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -12994,7 +12997,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -13014,7 +13017,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>33</v>
       </c>
@@ -13034,7 +13037,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -13054,7 +13057,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>38</v>
       </c>
@@ -13074,7 +13077,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -13094,7 +13097,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -13114,7 +13117,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -13134,7 +13137,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -13154,7 +13157,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -13174,7 +13177,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>15</v>
       </c>
@@ -13194,7 +13197,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>27</v>
       </c>
@@ -13214,7 +13217,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>33</v>
       </c>
@@ -13234,7 +13237,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -13255,6 +13258,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F361" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13263,16 +13267,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C224" sqref="C224"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="97.109375" customWidth="1"/>
+    <col min="3" max="3" width="97.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13292,7 +13296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -13312,7 +13316,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -13332,7 +13336,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -13352,7 +13356,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1136</v>
       </c>
@@ -13372,7 +13376,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -13392,7 +13396,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -13412,7 +13416,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -13432,7 +13436,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -13452,7 +13456,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -13472,7 +13476,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -13492,7 +13496,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -13512,7 +13516,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1137</v>
       </c>
@@ -13532,7 +13536,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -13552,7 +13556,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -13572,7 +13576,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -13592,7 +13596,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -13609,10 +13613,10 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -13632,7 +13636,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -13652,7 +13656,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -13672,7 +13676,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -13692,7 +13696,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -13712,7 +13716,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1138</v>
       </c>
@@ -13732,7 +13736,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -13752,7 +13756,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -13772,7 +13776,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -13792,7 +13796,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -13812,7 +13816,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -13832,7 +13836,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -13852,7 +13856,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -13872,7 +13876,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -13892,7 +13896,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -13912,7 +13916,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -13932,7 +13936,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -13952,7 +13956,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -13972,7 +13976,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -13992,7 +13996,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -14012,7 +14016,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1139</v>
       </c>
@@ -14032,7 +14036,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -14052,7 +14056,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1140</v>
       </c>
@@ -14072,7 +14076,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -14092,7 +14096,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -14112,7 +14116,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -14132,7 +14136,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -14152,7 +14156,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -14172,7 +14176,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -14192,7 +14196,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -14212,7 +14216,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -14232,7 +14236,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -14252,7 +14256,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1141</v>
       </c>
@@ -14272,7 +14276,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -14292,7 +14296,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -14312,7 +14316,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -14332,7 +14336,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -14352,7 +14356,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -14372,7 +14376,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -14392,7 +14396,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -14412,7 +14416,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -14432,7 +14436,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -14452,7 +14456,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -14472,7 +14476,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -14492,7 +14496,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -14512,7 +14516,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -14532,7 +14536,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -14552,7 +14556,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -14572,7 +14576,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -14592,7 +14596,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -14612,7 +14616,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -14629,7 +14633,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -14649,7 +14653,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1142</v>
       </c>
@@ -14669,7 +14673,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -14689,7 +14693,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -14709,7 +14713,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -14729,7 +14733,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1143</v>
       </c>
@@ -14749,7 +14753,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -14769,7 +14773,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -14789,7 +14793,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -14809,7 +14813,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -14829,7 +14833,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -14849,7 +14853,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1144</v>
       </c>
@@ -14869,7 +14873,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -14889,7 +14893,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -14909,7 +14913,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -14929,7 +14933,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -14949,7 +14953,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -14969,7 +14973,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -14989,7 +14993,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -15009,7 +15013,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -15029,7 +15033,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -15049,7 +15053,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -15069,7 +15073,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -15089,7 +15093,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -15109,7 +15113,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -15129,7 +15133,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -15149,7 +15153,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -15169,7 +15173,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -15189,7 +15193,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -15209,7 +15213,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1145</v>
       </c>
@@ -15229,7 +15233,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -15249,7 +15253,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -15269,7 +15273,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -15289,7 +15293,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1146</v>
       </c>
@@ -15309,7 +15313,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -15329,7 +15333,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -15349,7 +15353,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -15369,7 +15373,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -15389,7 +15393,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1147</v>
       </c>
@@ -15409,7 +15413,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -15429,7 +15433,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>29</v>
       </c>
@@ -15449,7 +15453,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1148</v>
       </c>
@@ -15469,7 +15473,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1149</v>
       </c>
@@ -15489,7 +15493,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -15509,7 +15513,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -15529,7 +15533,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1150</v>
       </c>
@@ -15549,7 +15553,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1151</v>
       </c>
@@ -15569,7 +15573,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -15589,7 +15593,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -15609,7 +15613,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1145</v>
       </c>
@@ -15629,7 +15633,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -15649,7 +15653,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -15669,7 +15673,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -15689,7 +15693,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -15709,7 +15713,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -15729,7 +15733,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -15749,7 +15753,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -15769,7 +15773,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -15789,7 +15793,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -15809,7 +15813,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -15829,7 +15833,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -15849,7 +15853,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -15869,7 +15873,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -15889,7 +15893,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -15909,7 +15913,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>70</v>
       </c>
@@ -15929,7 +15933,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>38</v>
       </c>
@@ -15949,7 +15953,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -15969,7 +15973,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -15989,7 +15993,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -16009,7 +16013,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>1142</v>
       </c>
@@ -16029,7 +16033,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -16049,7 +16053,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>1152</v>
       </c>
@@ -16069,7 +16073,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -16089,7 +16093,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -16109,7 +16113,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -16129,7 +16133,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>1153</v>
       </c>
@@ -16149,7 +16153,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -16169,7 +16173,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -16189,7 +16193,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -16209,7 +16213,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -16229,7 +16233,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -16249,7 +16253,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -16269,7 +16273,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -16289,7 +16293,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -16309,7 +16313,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>1154</v>
       </c>
@@ -16329,7 +16333,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -16349,7 +16353,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -16369,7 +16373,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -16389,7 +16393,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>1155</v>
       </c>
@@ -16409,7 +16413,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>27</v>
       </c>
@@ -16429,7 +16433,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -16449,7 +16453,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -16469,7 +16473,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>1156</v>
       </c>
@@ -16489,7 +16493,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -16509,7 +16513,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -16529,7 +16533,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -16549,7 +16553,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -16569,7 +16573,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -16589,7 +16593,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -16609,7 +16613,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -16629,7 +16633,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>27</v>
       </c>
@@ -16649,7 +16653,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -16669,7 +16673,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>34</v>
       </c>
@@ -16689,7 +16693,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -16709,7 +16713,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -16729,7 +16733,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -16749,7 +16753,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -16769,7 +16773,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -16789,7 +16793,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -16809,7 +16813,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>31</v>
       </c>
@@ -16829,7 +16833,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -16849,7 +16853,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -16869,7 +16873,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -16889,7 +16893,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -16909,7 +16913,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -16929,7 +16933,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -16949,7 +16953,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -16969,7 +16973,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>41</v>
       </c>
@@ -16989,7 +16993,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -17009,7 +17013,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -17029,7 +17033,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>33</v>
       </c>
@@ -17049,7 +17053,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>38</v>
       </c>
@@ -17069,7 +17073,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -17089,7 +17093,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -17109,7 +17113,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>31</v>
       </c>
@@ -17129,7 +17133,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -17149,7 +17153,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>36</v>
       </c>
@@ -17169,7 +17173,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -17189,7 +17193,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -17209,7 +17213,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>32</v>
       </c>
@@ -17229,7 +17233,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -17249,7 +17253,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1137</v>
       </c>
@@ -17269,7 +17273,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -17289,7 +17293,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -17309,7 +17313,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>1136</v>
       </c>
@@ -17329,7 +17333,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -17349,7 +17353,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -17369,7 +17373,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -17389,7 +17393,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -17409,7 +17413,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>39</v>
       </c>
@@ -17429,7 +17433,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -17449,7 +17453,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -17469,7 +17473,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -17489,7 +17493,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>1157</v>
       </c>
@@ -17509,7 +17513,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -17529,7 +17533,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>27</v>
       </c>
@@ -17549,7 +17553,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>31</v>
       </c>
@@ -17569,7 +17573,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -17589,7 +17593,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -17609,7 +17613,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -17629,7 +17633,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -17649,7 +17653,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -17669,7 +17673,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -17689,7 +17693,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -17709,7 +17713,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -17729,7 +17733,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>31</v>
       </c>
@@ -17749,7 +17753,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -17769,7 +17773,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>42</v>
       </c>
@@ -17789,7 +17793,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -17809,7 +17813,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1156</v>
       </c>
@@ -17829,7 +17833,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>34</v>
       </c>
@@ -17849,7 +17853,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>37</v>
       </c>
@@ -17869,7 +17873,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>22</v>
       </c>
@@ -17889,7 +17893,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>1154</v>
       </c>
@@ -17909,7 +17913,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>1136</v>
       </c>
@@ -17929,7 +17933,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -17949,7 +17953,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1146</v>
       </c>
@@ -17969,7 +17973,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -17989,7 +17993,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1158</v>
       </c>
@@ -18009,7 +18013,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -18029,7 +18033,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>28</v>
       </c>
@@ -18049,7 +18053,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>32</v>
       </c>
@@ -18069,7 +18073,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>11</v>
       </c>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e55f31e0d1b9548b/Área de Trabalho/INSPER/CDADOS/CD22-2/projeto01/22-2a-cd-p1-grupo_renatogp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="669" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C91E4DB-048A-45EA-9818-4740E3DA9CC9}"/>
+  <xr:revisionPtr revIDLastSave="687" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FFB165C-5730-48D1-9DE1-CAED6E328B10}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Teste!$A$1:$F$241</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Treinamento!$A$1:$F$361</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -6034,7 +6035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
@@ -13267,8 +13268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13693,7 +13694,7 @@
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -14193,7 +14194,7 @@
         <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -14373,7 +14374,7 @@
         <v>56</v>
       </c>
       <c r="F55" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -14433,7 +14434,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -15270,7 +15271,7 @@
         <v>46</v>
       </c>
       <c r="F100" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -15390,7 +15391,7 @@
         <v>51</v>
       </c>
       <c r="F106" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -15870,7 +15871,7 @@
         <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -15950,7 +15951,7 @@
         <v>24</v>
       </c>
       <c r="F134" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -16130,7 +16131,7 @@
         <v>8</v>
       </c>
       <c r="F143" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -17150,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
@@ -17870,7 +17871,7 @@
         <v>48</v>
       </c>
       <c r="F230" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
@@ -18094,6 +18095,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F241" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e55f31e0d1b9548b/Área de Trabalho/INSPER/CDADOS/CD22-2/projeto01/22-2a-cd-p1-grupo_renatogp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e0e16b2796fadf2/Área de Trabalho/projeto 1 cdados/22-2a-cd-p1-grupo_renatogp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="687" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FFB165C-5730-48D1-9DE1-CAED6E328B10}"/>
+  <xr:revisionPtr revIDLastSave="721" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{217321C7-36E5-4AC1-9A2F-D59AF04ED63B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="1869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="1868">
   <si>
     <t>Categoria</t>
   </si>
@@ -5629,16 +5629,13 @@
   </si>
   <si>
     <t>RELEVANTE</t>
-  </si>
-  <si>
-    <t>NEUTRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5648,6 +5645,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -5690,11 +5695,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6033,18 +6040,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F361"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C362" sqref="C362"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C366" sqref="C366"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="117.08984375" customWidth="1"/>
+    <col min="3" max="3" width="117.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6064,7 +6072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6084,7 +6092,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6104,7 +6112,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6124,7 +6132,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -6144,7 +6152,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6164,7 +6172,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6184,7 +6192,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6204,7 +6212,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6224,7 +6232,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6244,7 +6252,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6261,7 +6269,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6281,7 +6289,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6301,7 +6309,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -6321,7 +6329,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -6341,7 +6349,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -6361,7 +6369,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -6381,7 +6389,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6401,7 +6409,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6421,7 +6429,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -6441,7 +6449,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -6461,7 +6469,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6481,7 +6489,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6501,7 +6509,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -6521,7 +6529,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -6541,7 +6549,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -6561,7 +6569,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -6581,7 +6589,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -6601,7 +6609,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -6617,11 +6625,11 @@
       <c r="E29">
         <v>30</v>
       </c>
-      <c r="F29" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F29" s="2" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -6641,7 +6649,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -6661,7 +6669,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -6681,7 +6689,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -6701,7 +6709,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -6721,7 +6729,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -6741,7 +6749,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -6761,7 +6769,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -6781,7 +6789,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -6801,7 +6809,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -6821,7 +6829,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -6841,7 +6849,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -6861,7 +6869,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -6881,7 +6889,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -6901,7 +6909,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -6921,7 +6929,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -6941,7 +6949,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -6961,7 +6969,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -6981,7 +6989,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -7001,7 +7009,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -7021,7 +7029,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -7041,7 +7049,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -7061,7 +7069,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -7081,7 +7089,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -7101,7 +7109,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -7121,7 +7129,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -7141,7 +7149,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -7161,7 +7169,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -7181,7 +7189,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -7201,7 +7209,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -7221,7 +7229,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -7241,7 +7249,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -7261,7 +7269,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -7281,7 +7289,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -7297,11 +7305,11 @@
       <c r="E63">
         <v>37</v>
       </c>
-      <c r="F63" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F63" s="2" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -7321,7 +7329,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -7341,7 +7349,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -7361,7 +7369,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -7381,7 +7389,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -7401,7 +7409,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -7421,7 +7429,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -7441,7 +7449,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7461,7 +7469,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -7481,7 +7489,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -7501,7 +7509,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -7521,7 +7529,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -7541,7 +7549,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -7561,7 +7569,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -7581,7 +7589,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -7601,7 +7609,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -7621,7 +7629,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -7641,7 +7649,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -7661,7 +7669,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -7681,7 +7689,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -7701,7 +7709,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -7721,7 +7729,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -7741,7 +7749,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -7761,7 +7769,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -7781,7 +7789,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -7801,7 +7809,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -7821,7 +7829,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -7841,7 +7849,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -7861,7 +7869,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>35</v>
       </c>
@@ -7881,7 +7889,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -7901,7 +7909,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -7921,7 +7929,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -7941,7 +7949,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -7961,7 +7969,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -7981,7 +7989,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -8001,7 +8009,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -8021,7 +8029,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -8041,7 +8049,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -8061,7 +8069,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -8081,7 +8089,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -8101,7 +8109,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -8121,7 +8129,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -8141,7 +8149,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -8161,7 +8169,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -8181,7 +8189,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -8201,7 +8209,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -8221,7 +8229,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -8241,7 +8249,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -8261,7 +8269,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -8281,7 +8289,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -8301,7 +8309,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -8321,7 +8329,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -8341,7 +8349,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -8361,7 +8369,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -8377,11 +8385,11 @@
       <c r="E117">
         <v>24</v>
       </c>
-      <c r="F117" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F117" s="2" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -8401,7 +8409,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -8421,7 +8429,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -8441,7 +8449,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -8461,7 +8469,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -8481,7 +8489,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -8501,7 +8509,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -8521,7 +8529,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -8541,7 +8549,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>44</v>
       </c>
@@ -8561,7 +8569,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -8581,7 +8589,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -8601,7 +8609,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -8621,7 +8629,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -8641,7 +8649,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -8661,7 +8669,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -8681,7 +8689,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -8701,7 +8709,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -8721,7 +8729,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -8741,7 +8749,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -8761,7 +8769,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -8781,7 +8789,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -8801,7 +8809,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -8821,7 +8829,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -8841,7 +8849,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -8857,11 +8865,11 @@
       <c r="E141">
         <v>27</v>
       </c>
-      <c r="F141" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F141" s="2" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -8881,7 +8889,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -8897,11 +8905,11 @@
       <c r="E143">
         <v>29</v>
       </c>
-      <c r="F143" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F143" s="2" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -8921,7 +8929,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>46</v>
       </c>
@@ -8941,7 +8949,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -8961,7 +8969,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -8981,7 +8989,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -9001,7 +9009,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -9021,7 +9029,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>47</v>
       </c>
@@ -9038,7 +9046,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>48</v>
       </c>
@@ -9058,7 +9066,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -9078,7 +9086,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -9098,7 +9106,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -9118,7 +9126,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -9138,7 +9146,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -9158,7 +9166,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -9178,7 +9186,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>43</v>
       </c>
@@ -9198,7 +9206,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -9218,7 +9226,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -9238,7 +9246,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -9258,7 +9266,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -9278,7 +9286,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -9298,7 +9306,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>34</v>
       </c>
@@ -9318,7 +9326,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -9338,7 +9346,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -9358,7 +9366,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>49</v>
       </c>
@@ -9378,7 +9386,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -9398,7 +9406,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -9414,11 +9422,11 @@
       <c r="E169">
         <v>22</v>
       </c>
-      <c r="F169" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F169" s="2" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -9438,7 +9446,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -9458,7 +9466,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -9478,7 +9486,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -9498,7 +9506,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -9518,7 +9526,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>50</v>
       </c>
@@ -9538,7 +9546,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -9558,7 +9566,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -9578,7 +9586,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>51</v>
       </c>
@@ -9598,7 +9606,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -9618,7 +9626,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -9638,7 +9646,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -9658,7 +9666,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -9678,7 +9686,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -9698,7 +9706,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -9718,7 +9726,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -9738,7 +9746,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -9758,7 +9766,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>52</v>
       </c>
@@ -9778,7 +9786,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -9798,7 +9806,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>53</v>
       </c>
@@ -9818,7 +9826,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -9838,7 +9846,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -9858,7 +9866,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -9878,7 +9886,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -9898,7 +9906,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -9918,7 +9926,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>55</v>
       </c>
@@ -9938,7 +9946,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -9958,7 +9966,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -9978,7 +9986,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -9998,7 +10006,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -10018,7 +10026,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>56</v>
       </c>
@@ -10038,7 +10046,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -10058,7 +10066,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -10078,7 +10086,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -10098,7 +10106,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -10118,7 +10126,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>57</v>
       </c>
@@ -10138,7 +10146,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -10158,7 +10166,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -10178,7 +10186,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>58</v>
       </c>
@@ -10198,7 +10206,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -10218,7 +10226,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -10238,7 +10246,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>41</v>
       </c>
@@ -10258,7 +10266,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -10278,7 +10286,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -10298,7 +10306,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -10318,7 +10326,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -10338,7 +10346,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -10358,7 +10366,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -10378,7 +10386,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -10398,7 +10406,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>59</v>
       </c>
@@ -10418,7 +10426,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>53</v>
       </c>
@@ -10438,7 +10446,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>48</v>
       </c>
@@ -10458,7 +10466,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>22</v>
       </c>
@@ -10478,7 +10486,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -10494,11 +10502,11 @@
       <c r="E223">
         <v>22</v>
       </c>
-      <c r="F223" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F223" s="2" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>60</v>
       </c>
@@ -10518,7 +10526,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>31</v>
       </c>
@@ -10538,7 +10546,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -10558,7 +10566,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>61</v>
       </c>
@@ -10578,7 +10586,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>31</v>
       </c>
@@ -10598,7 +10606,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -10618,7 +10626,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>62</v>
       </c>
@@ -10638,7 +10646,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -10658,7 +10666,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>63</v>
       </c>
@@ -10678,7 +10686,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -10698,7 +10706,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>34</v>
       </c>
@@ -10718,7 +10726,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>29</v>
       </c>
@@ -10738,7 +10746,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -10758,7 +10766,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>39</v>
       </c>
@@ -10778,7 +10786,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -10798,7 +10806,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -10814,11 +10822,11 @@
       <c r="E239">
         <v>11</v>
       </c>
-      <c r="F239" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F239" s="2" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -10838,7 +10846,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>64</v>
       </c>
@@ -10858,7 +10866,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -10878,7 +10886,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>65</v>
       </c>
@@ -10898,7 +10906,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -10918,7 +10926,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -10938,7 +10946,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>33</v>
       </c>
@@ -10958,7 +10966,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -10978,7 +10986,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -10998,7 +11006,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -11018,7 +11026,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>34</v>
       </c>
@@ -11038,7 +11046,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -11058,7 +11066,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -11078,7 +11086,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -11098,7 +11106,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -11118,7 +11126,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -11138,7 +11146,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>42</v>
       </c>
@@ -11158,7 +11166,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -11178,7 +11186,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -11198,7 +11206,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>29</v>
       </c>
@@ -11218,7 +11226,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -11238,7 +11246,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -11258,7 +11266,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>32</v>
       </c>
@@ -11278,7 +11286,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -11298,7 +11306,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>66</v>
       </c>
@@ -11318,7 +11326,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -11338,7 +11346,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -11358,7 +11366,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -11378,7 +11386,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>31</v>
       </c>
@@ -11398,7 +11406,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -11418,7 +11426,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>29</v>
       </c>
@@ -11438,7 +11446,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -11458,7 +11466,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -11478,7 +11486,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>27</v>
       </c>
@@ -11498,7 +11506,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>10</v>
       </c>
@@ -11518,7 +11526,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>67</v>
       </c>
@@ -11538,7 +11546,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -11558,7 +11566,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -11574,11 +11582,11 @@
       <c r="E277">
         <v>32</v>
       </c>
-      <c r="F277" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F277" s="2" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>68</v>
       </c>
@@ -11598,7 +11606,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -11618,7 +11626,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -11638,7 +11646,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -11658,7 +11666,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -11678,7 +11686,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -11698,7 +11706,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>69</v>
       </c>
@@ -11718,7 +11726,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>70</v>
       </c>
@@ -11738,7 +11746,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>27</v>
       </c>
@@ -11758,7 +11766,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -11778,7 +11786,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -11798,7 +11806,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -11818,7 +11826,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -11838,7 +11846,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -11858,7 +11866,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -11878,7 +11886,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -11898,7 +11906,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>38</v>
       </c>
@@ -11918,7 +11926,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -11938,7 +11946,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -11958,7 +11966,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -11978,7 +11986,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -11998,7 +12006,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -12018,7 +12026,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>19</v>
       </c>
@@ -12038,7 +12046,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>27</v>
       </c>
@@ -12058,7 +12066,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>42</v>
       </c>
@@ -12078,7 +12086,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>15</v>
       </c>
@@ -12098,7 +12106,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -12118,7 +12126,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -12138,7 +12146,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>38</v>
       </c>
@@ -12158,7 +12166,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -12178,7 +12186,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -12198,7 +12206,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -12218,7 +12226,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -12238,7 +12246,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -12258,7 +12266,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -12278,7 +12286,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -12298,7 +12306,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>71</v>
       </c>
@@ -12318,7 +12326,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>39</v>
       </c>
@@ -12338,7 +12346,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>30</v>
       </c>
@@ -12358,7 +12366,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>31</v>
       </c>
@@ -12378,7 +12386,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -12398,7 +12406,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>72</v>
       </c>
@@ -12418,7 +12426,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -12438,7 +12446,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -12458,7 +12466,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -12478,7 +12486,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>10</v>
       </c>
@@ -12498,7 +12506,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>73</v>
       </c>
@@ -12518,7 +12526,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -12538,7 +12546,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>31</v>
       </c>
@@ -12558,7 +12566,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>31</v>
       </c>
@@ -12578,7 +12586,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>13</v>
       </c>
@@ -12598,7 +12606,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -12618,7 +12626,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>29</v>
       </c>
@@ -12638,7 +12646,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -12658,7 +12666,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>32</v>
       </c>
@@ -12678,7 +12686,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -12698,7 +12706,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>74</v>
       </c>
@@ -12718,7 +12726,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>36</v>
       </c>
@@ -12738,7 +12746,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>31</v>
       </c>
@@ -12758,7 +12766,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -12778,7 +12786,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>39</v>
       </c>
@@ -12798,7 +12806,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>31</v>
       </c>
@@ -12818,7 +12826,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>10</v>
       </c>
@@ -12838,7 +12846,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>27</v>
       </c>
@@ -12858,7 +12866,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>75</v>
       </c>
@@ -12878,7 +12886,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -12898,7 +12906,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>31</v>
       </c>
@@ -12918,7 +12926,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -12938,7 +12946,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -12958,7 +12966,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>41</v>
       </c>
@@ -12978,7 +12986,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -12998,7 +13006,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -13018,7 +13026,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>33</v>
       </c>
@@ -13038,7 +13046,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -13058,7 +13066,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>38</v>
       </c>
@@ -13078,7 +13086,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -13098,7 +13106,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -13118,7 +13126,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -13138,7 +13146,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -13158,7 +13166,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -13178,7 +13186,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>15</v>
       </c>
@@ -13198,7 +13206,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>27</v>
       </c>
@@ -13218,7 +13226,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>33</v>
       </c>
@@ -13238,7 +13246,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -13258,26 +13266,37 @@
         <v>1867</v>
       </c>
     </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C366" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F361" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F361" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="NEUTRO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C242" sqref="C242"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="97.08984375" customWidth="1"/>
+    <col min="3" max="3" width="97.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13297,7 +13316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -13317,7 +13336,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -13337,7 +13356,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -13357,7 +13376,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1136</v>
       </c>
@@ -13377,7 +13396,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -13397,7 +13416,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -13417,7 +13436,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -13437,7 +13456,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -13457,7 +13476,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -13477,7 +13496,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -13497,7 +13516,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -13517,7 +13536,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1137</v>
       </c>
@@ -13534,10 +13553,10 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -13557,7 +13576,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -13577,7 +13596,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -13597,7 +13616,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -13617,7 +13636,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -13637,7 +13656,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -13657,7 +13676,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -13677,7 +13696,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -13694,10 +13713,10 @@
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -13717,7 +13736,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1138</v>
       </c>
@@ -13737,7 +13756,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -13757,7 +13776,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -13777,7 +13796,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -13797,7 +13816,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -13817,7 +13836,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -13837,7 +13856,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -13857,7 +13876,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -13877,7 +13896,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -13897,7 +13916,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -13917,7 +13936,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -13937,7 +13956,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -13954,10 +13973,10 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -13977,7 +13996,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -13997,7 +14016,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -14014,10 +14033,10 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1139</v>
       </c>
@@ -14037,7 +14056,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -14057,7 +14076,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1140</v>
       </c>
@@ -14077,7 +14096,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -14097,7 +14116,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -14117,7 +14136,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -14137,7 +14156,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -14157,7 +14176,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -14177,7 +14196,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -14194,10 +14213,10 @@
         <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -14217,7 +14236,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -14237,7 +14256,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -14257,7 +14276,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1141</v>
       </c>
@@ -14277,7 +14296,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -14297,7 +14316,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -14317,7 +14336,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -14337,7 +14356,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -14357,7 +14376,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -14374,10 +14393,10 @@
         <v>56</v>
       </c>
       <c r="F55" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -14397,7 +14416,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -14417,7 +14436,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -14434,10 +14453,10 @@
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -14457,7 +14476,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -14477,7 +14496,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -14497,7 +14516,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -14517,7 +14536,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -14537,7 +14556,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -14557,7 +14576,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -14577,7 +14596,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -14597,7 +14616,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -14617,7 +14636,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -14634,7 +14653,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -14654,7 +14673,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1142</v>
       </c>
@@ -14674,7 +14693,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -14694,7 +14713,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -14714,7 +14733,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -14734,7 +14753,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1143</v>
       </c>
@@ -14754,7 +14773,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -14774,7 +14793,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -14794,7 +14813,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -14814,7 +14833,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -14834,7 +14853,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -14854,7 +14873,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1144</v>
       </c>
@@ -14874,7 +14893,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -14894,7 +14913,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -14914,7 +14933,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -14934,7 +14953,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -14954,7 +14973,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -14974,7 +14993,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -14994,7 +15013,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -15014,7 +15033,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -15034,7 +15053,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -15054,7 +15073,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -15074,7 +15093,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -15094,7 +15113,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -15114,7 +15133,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -15134,7 +15153,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -15154,7 +15173,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -15174,7 +15193,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -15194,7 +15213,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -15214,7 +15233,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1145</v>
       </c>
@@ -15234,7 +15253,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -15254,7 +15273,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -15271,10 +15290,10 @@
         <v>46</v>
       </c>
       <c r="F100" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -15294,7 +15313,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1146</v>
       </c>
@@ -15314,7 +15333,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -15334,7 +15353,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -15354,7 +15373,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -15374,7 +15393,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -15391,10 +15410,10 @@
         <v>51</v>
       </c>
       <c r="F106" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1147</v>
       </c>
@@ -15414,7 +15433,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -15434,7 +15453,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>29</v>
       </c>
@@ -15454,7 +15473,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1148</v>
       </c>
@@ -15474,7 +15493,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1149</v>
       </c>
@@ -15494,7 +15513,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -15514,7 +15533,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -15534,7 +15553,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1150</v>
       </c>
@@ -15554,7 +15573,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1151</v>
       </c>
@@ -15574,7 +15593,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -15594,7 +15613,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -15614,7 +15633,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1145</v>
       </c>
@@ -15634,7 +15653,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -15654,7 +15673,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -15674,7 +15693,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -15694,7 +15713,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -15714,7 +15733,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -15734,7 +15753,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -15754,7 +15773,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -15774,7 +15793,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -15794,7 +15813,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -15814,7 +15833,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -15834,7 +15853,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -15854,7 +15873,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -15871,10 +15890,10 @@
         <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -15894,7 +15913,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -15914,7 +15933,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>70</v>
       </c>
@@ -15934,7 +15953,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>38</v>
       </c>
@@ -15951,10 +15970,10 @@
         <v>24</v>
       </c>
       <c r="F134" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -15974,7 +15993,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -15994,7 +16013,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -16014,7 +16033,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1142</v>
       </c>
@@ -16034,7 +16053,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -16054,7 +16073,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1152</v>
       </c>
@@ -16074,7 +16093,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -16094,7 +16113,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -16114,7 +16133,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -16131,10 +16150,10 @@
         <v>8</v>
       </c>
       <c r="F143" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1153</v>
       </c>
@@ -16154,7 +16173,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -16174,7 +16193,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -16194,7 +16213,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -16214,7 +16233,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -16234,7 +16253,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -16254,7 +16273,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -16274,7 +16293,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -16294,7 +16313,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -16314,7 +16333,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1154</v>
       </c>
@@ -16334,7 +16353,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -16354,7 +16373,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -16374,7 +16393,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -16394,7 +16413,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1155</v>
       </c>
@@ -16414,7 +16433,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>27</v>
       </c>
@@ -16434,7 +16453,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -16454,7 +16473,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -16474,7 +16493,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1156</v>
       </c>
@@ -16494,7 +16513,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -16514,7 +16533,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -16534,7 +16553,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -16554,7 +16573,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -16574,7 +16593,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -16594,7 +16613,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -16614,7 +16633,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -16634,7 +16653,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>27</v>
       </c>
@@ -16654,7 +16673,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -16674,7 +16693,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>34</v>
       </c>
@@ -16694,7 +16713,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -16714,7 +16733,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -16734,7 +16753,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -16754,7 +16773,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -16774,7 +16793,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -16794,7 +16813,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -16814,7 +16833,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>31</v>
       </c>
@@ -16834,7 +16853,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -16854,7 +16873,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -16874,7 +16893,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -16894,7 +16913,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -16914,7 +16933,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -16934,7 +16953,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -16954,7 +16973,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -16974,7 +16993,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>41</v>
       </c>
@@ -16994,7 +17013,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -17014,7 +17033,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -17034,7 +17053,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>33</v>
       </c>
@@ -17054,7 +17073,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>38</v>
       </c>
@@ -17074,7 +17093,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -17094,7 +17113,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -17114,7 +17133,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>31</v>
       </c>
@@ -17134,7 +17153,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -17154,7 +17173,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>36</v>
       </c>
@@ -17174,7 +17193,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -17194,7 +17213,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -17214,7 +17233,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>32</v>
       </c>
@@ -17234,7 +17253,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -17254,7 +17273,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1137</v>
       </c>
@@ -17274,7 +17293,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -17294,7 +17313,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -17314,7 +17333,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1136</v>
       </c>
@@ -17334,7 +17353,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -17354,7 +17373,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -17374,7 +17393,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -17394,7 +17413,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -17414,7 +17433,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>39</v>
       </c>
@@ -17434,7 +17453,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -17454,7 +17473,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -17474,7 +17493,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -17494,7 +17513,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1157</v>
       </c>
@@ -17514,7 +17533,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -17534,7 +17553,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>27</v>
       </c>
@@ -17554,7 +17573,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>31</v>
       </c>
@@ -17574,7 +17593,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -17594,7 +17613,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -17611,10 +17630,10 @@
         <v>28</v>
       </c>
       <c r="F217" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -17634,7 +17653,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -17654,7 +17673,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -17674,7 +17693,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -17694,7 +17713,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -17711,10 +17730,10 @@
         <v>29</v>
       </c>
       <c r="F222" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -17731,10 +17750,10 @@
         <v>3</v>
       </c>
       <c r="F223" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>31</v>
       </c>
@@ -17754,7 +17773,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -17774,7 +17793,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>42</v>
       </c>
@@ -17791,10 +17810,10 @@
         <v>16</v>
       </c>
       <c r="F226" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -17814,7 +17833,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1156</v>
       </c>
@@ -17831,10 +17850,10 @@
         <v>31</v>
       </c>
       <c r="F228" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>34</v>
       </c>
@@ -17854,7 +17873,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>37</v>
       </c>
@@ -17871,10 +17890,10 @@
         <v>48</v>
       </c>
       <c r="F230" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>22</v>
       </c>
@@ -17894,7 +17913,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1154</v>
       </c>
@@ -17914,7 +17933,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1136</v>
       </c>
@@ -17934,7 +17953,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -17954,7 +17973,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1146</v>
       </c>
@@ -17974,7 +17993,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -17994,7 +18013,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1158</v>
       </c>
@@ -18014,7 +18033,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -18034,7 +18053,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>28</v>
       </c>
@@ -18054,7 +18073,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>32</v>
       </c>
@@ -18074,7 +18093,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -18095,7 +18114,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F241" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:F241" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="NEUTRO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e0e16b2796fadf2/Área de Trabalho/projeto 1 cdados/22-2a-cd-p1-grupo_renatogp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e55f31e0d1b9548b/Área de Trabalho/INSPER/CDADOS/CD22-2/projeto01/22-2a-cd-p1-grupo_renatogp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="721" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{217321C7-36E5-4AC1-9A2F-D59AF04ED63B}"/>
+  <xr:revisionPtr revIDLastSave="749" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B5C10E1-4FFF-4E87-8CCF-D2DC9114ED7A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -6043,16 +6043,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C366" sqref="C366"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="F295" sqref="F295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="117.109375" customWidth="1"/>
+    <col min="3" max="3" width="117.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>35</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -8406,10 +8406,10 @@
         <v>54</v>
       </c>
       <c r="F118" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>44</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>46</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -8986,10 +8986,10 @@
         <v>25</v>
       </c>
       <c r="F147" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>47</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>48</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -9123,10 +9123,10 @@
         <v>55</v>
       </c>
       <c r="F154" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>43</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>34</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -9363,10 +9363,10 @@
         <v>32</v>
       </c>
       <c r="F166" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>49</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>50</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>51</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -9683,10 +9683,10 @@
         <v>20</v>
       </c>
       <c r="F182" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>52</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>53</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -9903,10 +9903,10 @@
         <v>53</v>
       </c>
       <c r="F193" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>55</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>56</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>57</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>58</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>41</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>59</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>53</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>48</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>22</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>60</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>31</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>61</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>31</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>62</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>63</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>34</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>29</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>39</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>64</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>65</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>33</v>
       </c>
@@ -10963,10 +10963,10 @@
         <v>32</v>
       </c>
       <c r="F246" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>34</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>42</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>29</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>32</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>66</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>31</v>
       </c>
@@ -11403,10 +11403,10 @@
         <v>21</v>
       </c>
       <c r="F268" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>29</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -11463,10 +11463,10 @@
         <v>22</v>
       </c>
       <c r="F271" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>27</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>10</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>67</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>68</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>69</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>70</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>27</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -11783,10 +11783,10 @@
         <v>45</v>
       </c>
       <c r="F287" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -11863,10 +11863,10 @@
         <v>28</v>
       </c>
       <c r="F291" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>38</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -11983,10 +11983,10 @@
         <v>45</v>
       </c>
       <c r="F297" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -12023,10 +12023,10 @@
         <v>13</v>
       </c>
       <c r="F299" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>19</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>27</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>42</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>15</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>38</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>71</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>39</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>30</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>31</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>72</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>10</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>73</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>31</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>31</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>13</v>
       </c>
@@ -12606,7 +12606,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>29</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>32</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>74</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>36</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>31</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>39</v>
       </c>
@@ -12803,10 +12803,10 @@
         <v>41</v>
       </c>
       <c r="F338" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>31</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>10</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>27</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>75</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>31</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>41</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>33</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>38</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>15</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>27</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>33</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -13266,14 +13266,80 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C366" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F361" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:F361" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <x14:filter val="A alta volatilidade dos mercados e o nível elevado de incertezas quanto a uma possível recessão global têm levado instituições financeiras a revisar o preço-alvo para o Ibovespa (IBOV) ao final do ano."/>
+            <x14:filter val="A arroba do boi gordo encontrou o preço de equilíbrio em R$ 320 em São Paulo e, agora, o mercado não tem grandes expectativas sobre novas altas expressivas este ano, em razão da ausência de “grandes movimentos” do setor."/>
+            <x14:filter val="A combinação de eventos negativos tanto no cenário local quanto no global – como a falta ou o excesso de chuvas em certas regiões brasileiras e a guerra na Ucrânia – empurrou parte do agronegócio para uma situação que preocupa credores do setor. Parte dos produtores rurais tem recorrido à recuperação judicial."/>
+            <x14:filter val="A confirmação dos 0,75 pontos percentuais de alta dos juros nos EUA, conforme esperado, não alterou os rumos dos ativos de risco. Já estava nos preços, de modo de as commodities agrícolas reagiram a seus fundamentos e seguem assim nesta quinta (28)."/>
+            <x14:filter val="A economia global está cada vez mais em risco de entrar em recessão, mostraram pesquisas nesta terça-feira, uma vez que consumidores enfrentam a inflação mais alta em uma geração e controlam os gastos, enquanto os bancos centrais apertam agressivamente a política monetária justamente quando apoio é necessário."/>
+            <x14:filter val="A Petrobras (PETR3;PETR4) divulgou, na última quinta-feira (28), os seus resultados referentes ao 2º trimestre de 2022. Segundo os dados reportados pela petroleira, o lucro líquido obtido foi de R$ 54,3 bilhões, uma alta de 26,8% em comparação ao mesmo período do ano passado."/>
+            <x14:filter val="A tendência de realização de lucros nos três grãos negociados em Chicago não está acontecendo nesta sexta (29), após várias sessões de alta. Soja, milho e trigo sobem."/>
+            <x14:filter val="Após baixas desproporcionais em vários dias, as altas de ontem de todas as commodities agrícolas tiveram seu dia de bonança também fora da lógica. Como esperado, todas abriram a terça (19) devolvendo pontos sobre  valorizações que não se sustentam."/>
+            <x14:filter val="Após operar entre perdas e ganhos ao longo do dia, o Ibovespa (IBOV) encerrou esta sexta-feira (22) no negativo, quebrando a sequência de altas dos últimos cinco pregões."/>
+            <x14:filter val="Conviver com a inflação alta é um hábito dos países da América Latina. Aqui no Brasil, a alta dos preços já chega a 11,89%; no Chile, a taxa anualizada é de 12,5%. Quem mais está sofrendo é a Argentina, com uma inflação anual de 64%."/>
+            <x14:filter val="Criptomoedas amanhecem com o pé direito e chegam a ensaiar alta acima da média negociada nos últimos 30 dias, todavia os mercados globais contagiam os ânimos do mercado."/>
+            <x14:filter val="Das baixas generalizadas das ações de empresa do agronegócio nesta segunda (11), a SLC Agrícola (SLCE3) lidera. Na tabela oposta, das altas do setor, entre as companhias de maior peso do mercado, a M. Dias Branco (MDIA3) é franca favorita a terminar o dia na frente."/>
+            <x14:filter val="Em junho, a inflação registrou aceleração. De acordo com o Índice Nacional de Preços ao Consumidor Amplo (IPCA), a alta no período foi de 0,67% – acima da taxa de maio, de 0,47%."/>
+            <x14:filter val="Mesmo com a safra de laranja brasileira 21/22 se concluindo levemente inferior ao ciclo anterior, que já veio de forte baixa, as cotações do suco em Nova York não sustentaram os dois picos de alta do último trimestre."/>
+            <x14:filter val="Não foi desta vez que o Banco Central encerrou o ciclo de aperto monetário. Ontem, o Comitê de Política Monetária (Copom) elevou a Selic em 0,50 ponto porcentual, para 13,75% ao ano e sinalizou que uma alta mais branda pode ser aprovada na reunião de setembro."/>
+            <x14:filter val="No embalo de Wall Street, o Ibovespa (IBOV) fechou em forte alta nesta terça-feira (19), engatando seu terceiro pregão consecutivo de valorização."/>
+            <x14:filter val="O Ibovespa (IBOV) abriu o pregão desta quinta-feira (7) em alta, seguindo o ritmo das Bolsas globais. Por volta das 10h15, o principal índice da Bolsa subia 1,51%, aos 100,2 mil pontos, após uma alta de 0,42% na véspera."/>
+            <x14:filter val="O Ibovespa (IBOV) iniciou agosto caminhando para a terceira semana seguida de alta, após encerrar julho no maior nível desde maio. Apenas nos primeiros dias deste mês, a valorização acumulada supera 2,5%."/>
+            <x14:filter val="O Ibovespa (IBOV) perdeu fôlego ao longo desta segunda-feira (18), mas conseguiu fechar o pregão em alta, descolando-se de Wall Street, que virou para uma tendência de baixa."/>
+            <x14:filter val="O Ibovespa operava em alta na abertura do pregão desta sexta-feira (22), apesar da falta de uma referência externa e a agenda local esvaziada. Por volta das 10h05, o principal índice da Bolsa brasileira subia 0,48%, aos 99,5 mil pontos."/>
+            <x14:filter val="O Ibovespa pode receber influência do sinal negativo vindo dos mercados internacionais nesta sexta-feira (19). Ainda mais, diante da agenda econômica sem destaques. Porém, mesmo em um pregão mais fraco ontem, a bolsa conseguiu cravar a quinta alta seguida."/>
+            <x14:filter val="O Ibovespa (IBOV) fechou praticamente no zero a zero ontem sem uma direção clara, com ligeira alta de 0,06%, aos 98,2 mil pontos. Nesta quarta-feira (13), o índice brasileiro tem alguma chance de acompanhar o desempenho positivo das bolsas de valores asiáticas."/>
+            <x14:filter val="O IPCA, a inflação oficial do Brasil, mostrou que em junho os preços de vários alimentos e do etanol tiveram redução, enquanto que o índice geral teve alta de 0,67%, puxando a inflação a 11,89% nos últimos 12 meses, de acordo com dados divulgados nesta sexta-feira (8)."/>
+            <x14:filter val="O mercado de juros futuros apagou a maior parte das apostas em uma alta adicional da Selic em setembro."/>
+            <x14:filter val="O rali da soja, que começou dia 6, prossegue nesta manhã de segunda (11). Os indicativos da CBOT (Chicago) apresentam boas altas entre o vencimento mais próximo e os mais distantes."/>
+            <x14:filter val="O Santander reduziu sua projeção para a alta do IPCA em 2022, na esteira da aprovação de novas reduções de impostos no Brasil, mas espera que o efeito dessas medidas tenha curta duração, o que levou a uma elevação de suas estimativas de inflação para o ano que vem."/>
+            <x14:filter val="O Wells Fargo (WFCO34) divulgou nesta sexta-feira uma queda de 48% no lucro do segundo trimestre, diante de maiores provisões para potenciais perdas com calotes e de uma pressão da alta dos juros no negócio de financiamento imobiliário."/>
+            <x14:filter val="Os contratos futuros de açúcar bruto fecharam em alta na ICE nesta terça-feira, após atingirem uma mínima de um ano na sessão anterior, com os especuladores resistindo a assumir novas posições vendidas, apesar do sentimento pessimista nos mercados financeiros mais amplos."/>
+            <x14:filter val="Os contratos futuros de café arábica negociados na ICE fecharam em alta nesta quarta-feira, dando sequência a um movimento de recuperação no mercado, enquanto o açúcar bruto também avançou."/>
+            <x14:filter val="Os economistas ouvidos pelo Banco Central revisaram a previsão da taxa básica de juros ao fim deste ano em alta, passando de 13,25% para 13,75%. O último Relatório Focus publicado pelo Banco Central foi de 29 de abril."/>
+            <x14:filter val="Os leves movimentos de alta da soja e do milho em Chicago nesta parte da manhã de quarta (17) estão sob correções depois de dois tombos fortes contaminados pela aversão ao risco vinda lá dos lados da China."/>
+            <x14:filter val="Os principais índices de Wall Street caíam nesta terça-feira, após alerta de lucro do  Walmart aumentar temores no setor de varejo de que os consumidores estão cortando gastos discricionários diante da inflação mais alta em décadas."/>
+            <x14:filter val="Os produtores de soja do Brasil deverão cultivar 42,88 milhões de hectares no ciclo 2022/23, que começa em setembro, alta de 2,6% no comparativo anual e o maior patamar da história, ganhando áreas, inclusive, que seriam de milho verão e algodão em algumas regiões, disse nesta sexta-feira a Safras &amp; Mercado."/>
+            <x14:filter val="Um dos principais temas que estão sendo explorados nas campanhas eleitorais é a alta no preço da gasolina. Para Bruno Pascon, cofundador e diretor da CBIE Advisory (Centro Brasileiro de Infraestrutura), por mais que os combustíveis sejam o ponto fraco do atual governo, é possível trabalhar o tema a favor."/>
+          </mc:Choice>
+          <mc:Fallback>
+            <filter val="A alta volatilidade dos mercados e o nível elevado de incertezas quanto a uma possível recessão global têm levado instituições financeiras a revisar o preço-alvo para o Ibovespa (IBOV) ao final do ano."/>
+            <filter val="A arroba do boi gordo encontrou o preço de equilíbrio em R$ 320 em São Paulo e, agora, o mercado não tem grandes expectativas sobre novas altas expressivas este ano, em razão da ausência de “grandes movimentos” do setor."/>
+            <filter val="A confirmação dos 0,75 pontos percentuais de alta dos juros nos EUA, conforme esperado, não alterou os rumos dos ativos de risco. Já estava nos preços, de modo de as commodities agrícolas reagiram a seus fundamentos e seguem assim nesta quinta (28)."/>
+            <filter val="A tendência de realização de lucros nos três grãos negociados em Chicago não está acontecendo nesta sexta (29), após várias sessões de alta. Soja, milho e trigo sobem."/>
+            <filter val="Após baixas desproporcionais em vários dias, as altas de ontem de todas as commodities agrícolas tiveram seu dia de bonança também fora da lógica. Como esperado, todas abriram a terça (19) devolvendo pontos sobre  valorizações que não se sustentam."/>
+            <filter val="Após operar entre perdas e ganhos ao longo do dia, o Ibovespa (IBOV) encerrou esta sexta-feira (22) no negativo, quebrando a sequência de altas dos últimos cinco pregões."/>
+            <filter val="Conviver com a inflação alta é um hábito dos países da América Latina. Aqui no Brasil, a alta dos preços já chega a 11,89%; no Chile, a taxa anualizada é de 12,5%. Quem mais está sofrendo é a Argentina, com uma inflação anual de 64%."/>
+            <filter val="Criptomoedas amanhecem com o pé direito e chegam a ensaiar alta acima da média negociada nos últimos 30 dias, todavia os mercados globais contagiam os ânimos do mercado."/>
+            <filter val="Em junho, a inflação registrou aceleração. De acordo com o Índice Nacional de Preços ao Consumidor Amplo (IPCA), a alta no período foi de 0,67% – acima da taxa de maio, de 0,47%."/>
+            <filter val="Mesmo com a safra de laranja brasileira 21/22 se concluindo levemente inferior ao ciclo anterior, que já veio de forte baixa, as cotações do suco em Nova York não sustentaram os dois picos de alta do último trimestre."/>
+            <filter val="No embalo de Wall Street, o Ibovespa (IBOV) fechou em forte alta nesta terça-feira (19), engatando seu terceiro pregão consecutivo de valorização."/>
+            <filter val="O Ibovespa (IBOV) abriu o pregão desta quinta-feira (7) em alta, seguindo o ritmo das Bolsas globais. Por volta das 10h15, o principal índice da Bolsa subia 1,51%, aos 100,2 mil pontos, após uma alta de 0,42% na véspera."/>
+            <filter val="O Ibovespa (IBOV) iniciou agosto caminhando para a terceira semana seguida de alta, após encerrar julho no maior nível desde maio. Apenas nos primeiros dias deste mês, a valorização acumulada supera 2,5%."/>
+            <filter val="O Ibovespa (IBOV) perdeu fôlego ao longo desta segunda-feira (18), mas conseguiu fechar o pregão em alta, descolando-se de Wall Street, que virou para uma tendência de baixa."/>
+            <filter val="O Ibovespa operava em alta na abertura do pregão desta sexta-feira (22), apesar da falta de uma referência externa e a agenda local esvaziada. Por volta das 10h05, o principal índice da Bolsa brasileira subia 0,48%, aos 99,5 mil pontos."/>
+            <filter val="O mercado de juros futuros apagou a maior parte das apostas em uma alta adicional da Selic em setembro."/>
+            <filter val="O rali da soja, que começou dia 6, prossegue nesta manhã de segunda (11). Os indicativos da CBOT (Chicago) apresentam boas altas entre o vencimento mais próximo e os mais distantes."/>
+            <filter val="O Wells Fargo (WFCO34) divulgou nesta sexta-feira uma queda de 48% no lucro do segundo trimestre, diante de maiores provisões para potenciais perdas com calotes e de uma pressão da alta dos juros no negócio de financiamento imobiliário."/>
+            <filter val="Os contratos futuros de café arábica negociados na ICE fecharam em alta nesta quarta-feira, dando sequência a um movimento de recuperação no mercado, enquanto o açúcar bruto também avançou."/>
+            <filter val="Os economistas ouvidos pelo Banco Central revisaram a previsão da taxa básica de juros ao fim deste ano em alta, passando de 13,25% para 13,75%. O último Relatório Focus publicado pelo Banco Central foi de 29 de abril."/>
+            <filter val="Os leves movimentos de alta da soja e do milho em Chicago nesta parte da manhã de quarta (17) estão sob correções depois de dois tombos fortes contaminados pela aversão ao risco vinda lá dos lados da China."/>
+            <filter val="Os principais índices de Wall Street caíam nesta terça-feira, após alerta de lucro do  Walmart aumentar temores no setor de varejo de que os consumidores estão cortando gastos discricionários diante da inflação mais alta em décadas."/>
+          </mc:Fallback>
+        </mc:AlternateContent>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="NEUTRO"/>
+        <filter val="IRRELEVANTE"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13288,15 +13354,15 @@
   <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F230"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="97.109375" customWidth="1"/>
+    <col min="3" max="3" width="97.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13316,7 +13382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -13336,7 +13402,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -13356,7 +13422,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -13376,7 +13442,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1136</v>
       </c>
@@ -13396,7 +13462,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -13416,7 +13482,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -13436,7 +13502,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -13456,7 +13522,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -13476,7 +13542,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -13496,7 +13562,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -13516,7 +13582,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -13536,7 +13602,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1137</v>
       </c>
@@ -13556,7 +13622,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -13576,7 +13642,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -13596,7 +13662,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -13616,7 +13682,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -13636,7 +13702,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -13656,7 +13722,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -13676,7 +13742,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -13696,7 +13762,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -13716,7 +13782,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -13736,7 +13802,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1138</v>
       </c>
@@ -13756,7 +13822,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -13776,7 +13842,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -13796,7 +13862,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -13816,7 +13882,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -13836,7 +13902,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -13856,7 +13922,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -13876,7 +13942,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -13896,7 +13962,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -13916,7 +13982,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -13936,7 +14002,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -13956,7 +14022,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -13976,7 +14042,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -13996,7 +14062,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -14016,7 +14082,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -14036,7 +14102,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1139</v>
       </c>
@@ -14056,7 +14122,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -14076,7 +14142,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1140</v>
       </c>
@@ -14096,7 +14162,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -14116,7 +14182,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -14136,7 +14202,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -14156,7 +14222,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -14176,7 +14242,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -14196,7 +14262,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -14216,7 +14282,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -14236,7 +14302,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -14256,7 +14322,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -14276,7 +14342,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1141</v>
       </c>
@@ -14296,7 +14362,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -14316,7 +14382,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -14336,7 +14402,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -14356,7 +14422,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -14376,7 +14442,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -14396,7 +14462,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -14416,7 +14482,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -14436,7 +14502,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -14456,7 +14522,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -14476,7 +14542,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -14496,7 +14562,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -14516,7 +14582,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -14536,7 +14602,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -14556,7 +14622,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -14576,7 +14642,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -14596,7 +14662,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -14616,7 +14682,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -14636,7 +14702,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -14653,7 +14719,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -14673,7 +14739,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1142</v>
       </c>
@@ -14693,7 +14759,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -14713,7 +14779,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -14733,7 +14799,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -14753,7 +14819,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1143</v>
       </c>
@@ -14773,7 +14839,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -14793,7 +14859,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -14813,7 +14879,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -14833,7 +14899,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -14853,7 +14919,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -14873,7 +14939,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1144</v>
       </c>
@@ -14893,7 +14959,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -14913,7 +14979,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -14933,7 +14999,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -14953,7 +15019,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -14973,7 +15039,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -14993,7 +15059,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -15013,7 +15079,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -15033,7 +15099,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -15053,7 +15119,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -15073,7 +15139,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -15093,7 +15159,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -15113,7 +15179,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -15133,7 +15199,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -15153,7 +15219,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -15173,7 +15239,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -15193,7 +15259,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -15213,7 +15279,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -15233,7 +15299,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1145</v>
       </c>
@@ -15253,7 +15319,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -15273,7 +15339,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -15293,7 +15359,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -15313,7 +15379,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1146</v>
       </c>
@@ -15333,7 +15399,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -15353,7 +15419,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -15373,7 +15439,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -15393,7 +15459,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -15413,7 +15479,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1147</v>
       </c>
@@ -15433,7 +15499,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -15453,7 +15519,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>29</v>
       </c>
@@ -15473,7 +15539,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1148</v>
       </c>
@@ -15493,7 +15559,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1149</v>
       </c>
@@ -15513,7 +15579,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -15533,7 +15599,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -15553,7 +15619,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1150</v>
       </c>
@@ -15573,7 +15639,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1151</v>
       </c>
@@ -15593,7 +15659,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -15613,7 +15679,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -15633,7 +15699,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1145</v>
       </c>
@@ -15653,7 +15719,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -15673,7 +15739,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -15693,7 +15759,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -15713,7 +15779,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -15733,7 +15799,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -15753,7 +15819,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -15773,7 +15839,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -15793,7 +15859,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -15813,7 +15879,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -15833,7 +15899,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -15853,7 +15919,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -15873,7 +15939,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -15893,7 +15959,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -15913,7 +15979,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -15933,7 +15999,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>70</v>
       </c>
@@ -15953,7 +16019,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>38</v>
       </c>
@@ -15973,7 +16039,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -15993,7 +16059,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -16013,7 +16079,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -16033,7 +16099,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>1142</v>
       </c>
@@ -16053,7 +16119,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -16073,7 +16139,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>1152</v>
       </c>
@@ -16093,7 +16159,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -16113,7 +16179,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -16133,7 +16199,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -16153,7 +16219,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>1153</v>
       </c>
@@ -16173,7 +16239,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -16193,7 +16259,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -16213,7 +16279,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -16233,7 +16299,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -16253,7 +16319,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -16273,7 +16339,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -16293,7 +16359,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -16313,7 +16379,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -16333,7 +16399,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>1154</v>
       </c>
@@ -16353,7 +16419,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -16373,7 +16439,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -16393,7 +16459,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -16413,7 +16479,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>1155</v>
       </c>
@@ -16433,7 +16499,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>27</v>
       </c>
@@ -16453,7 +16519,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -16473,7 +16539,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -16493,7 +16559,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>1156</v>
       </c>
@@ -16513,7 +16579,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -16533,7 +16599,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -16553,7 +16619,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -16573,7 +16639,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -16593,7 +16659,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -16613,7 +16679,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -16633,7 +16699,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -16653,7 +16719,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>27</v>
       </c>
@@ -16673,7 +16739,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -16693,7 +16759,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>34</v>
       </c>
@@ -16713,7 +16779,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -16733,7 +16799,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -16753,7 +16819,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -16773,7 +16839,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -16793,7 +16859,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -16813,7 +16879,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -16833,7 +16899,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>31</v>
       </c>
@@ -16853,7 +16919,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -16873,7 +16939,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -16893,7 +16959,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -16913,7 +16979,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -16933,7 +16999,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -16953,7 +17019,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -16973,7 +17039,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -16993,7 +17059,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>41</v>
       </c>
@@ -17013,7 +17079,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -17033,7 +17099,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -17053,7 +17119,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>33</v>
       </c>
@@ -17073,7 +17139,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>38</v>
       </c>
@@ -17093,7 +17159,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -17113,7 +17179,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -17133,7 +17199,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>31</v>
       </c>
@@ -17153,7 +17219,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -17173,7 +17239,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>36</v>
       </c>
@@ -17193,7 +17259,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -17213,7 +17279,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -17233,7 +17299,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>32</v>
       </c>
@@ -17253,7 +17319,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -17273,7 +17339,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1137</v>
       </c>
@@ -17293,7 +17359,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -17313,7 +17379,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -17333,7 +17399,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>1136</v>
       </c>
@@ -17353,7 +17419,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -17373,7 +17439,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -17393,7 +17459,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -17413,7 +17479,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -17433,7 +17499,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>39</v>
       </c>
@@ -17453,7 +17519,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -17473,7 +17539,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -17493,7 +17559,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -17513,7 +17579,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>1157</v>
       </c>
@@ -17533,7 +17599,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -17553,7 +17619,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>27</v>
       </c>
@@ -17573,7 +17639,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>31</v>
       </c>
@@ -17593,7 +17659,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -17613,7 +17679,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -17633,7 +17699,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -17653,7 +17719,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -17673,7 +17739,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -17693,7 +17759,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -17713,7 +17779,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -17733,7 +17799,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -17753,7 +17819,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>31</v>
       </c>
@@ -17773,7 +17839,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -17793,7 +17859,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>42</v>
       </c>
@@ -17813,7 +17879,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -17833,7 +17899,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1156</v>
       </c>
@@ -17853,7 +17919,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>34</v>
       </c>
@@ -17873,7 +17939,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>37</v>
       </c>
@@ -17893,7 +17959,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>22</v>
       </c>
@@ -17913,7 +17979,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>1154</v>
       </c>
@@ -17933,7 +17999,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>1136</v>
       </c>
@@ -17953,7 +18019,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -17973,7 +18039,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1146</v>
       </c>
@@ -17993,7 +18059,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -18013,7 +18079,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1158</v>
       </c>
@@ -18033,7 +18099,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -18053,7 +18119,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>28</v>
       </c>
@@ -18073,7 +18139,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>32</v>
       </c>
@@ -18093,7 +18159,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -18114,10 +18180,40 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F241" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:F241" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <x14:filter val="A China reduziu a quantidade de títulos do Tesouro dos Estados Unidos (Treasuries) para abaixo de US$ 1 trilhão, segundo dados divulgados nesta semana."/>
+            <x14:filter val="As vendas no varejo dos Estados Unidos subiram em junho, em meio ao medo de recessão. Segundo dados divulgados há pouco pelo Departamento de Comércio, as vendas do setor varejista aumentaram 1% em junho em relação a maio, totalizando US$ 680,6 bilhões."/>
+            <x14:filter val="No aguardo da direção que os mercados financeiros deverão seguir, sobretudo após da abertura das bolsas nos Estados Unidos, a soja e o milho estão em realização de lucros em Chicago."/>
+            <x14:filter val="O dólar à vista opera em queda de 1,5% frente ao real, negociado nas mínimas do pregão, no nível de R$ 5,07. A moeda norte-americana perde força global com indicadores nos Estados Unidos."/>
+            <x14:filter val="O dólar à vista opera em queda de mais de 1% frente ao real, negociado a R$ 5,18, exibindo um certo alívio após os dados do mercado de trabalho dos Estados Unidos, o payroll, ficarem acima do esperado."/>
+            <x14:filter val="O dólar abriu o pregão desta sexta-feira (2), dia de dados de emprego (payroll) nos Estados Unidos, em baixa. Por volta das 9h04, a moeda recuava 0,22%, a R$ 5,2302."/>
+            <x14:filter val="O dólar começou o pregão desta sexta-feira (8) em alta, em dia marcado pela expectativa sobre o relatório de emprego nos Estados Unidos (payroll). "/>
+            <x14:filter val="O dólar operava em queda na abertura do pregão desta sexta-feira (14), em dia de dados sobre o varejo e a indústria nos Estados Unidos. Por volta das 9h05, a moeda norte-americana recuava 0,32%, a R$ 5,4057. "/>
+            <x14:filter val="O dólar perdia terreno frente ao real pelo terceiro dia consecutivo nesta quarta-feira, com nova alta nos preços de commodities importantes sustentando o apetite por risco de investidores, que trabalhavam em modo de espera antes da decisão de política monetária do banco central dos Estados Unidos."/>
+            <x14:filter val="O dólar reverteu perdas de mais cedo e era negociado acima dos 5,30 reais nesta quarta-feira, acompanhando a mudança de sinal da moeda norte-americana no exterior na esteira de dados mais fortes do que o esperado sobre a economia dos Estados Unidos."/>
+            <x14:filter val="O dólar tinha queda acentuada contra o real nesta segunda-feira, acompanhando movimento semelhante observado nos mercados de câmbio globais, com o foco de investidores na reunião de política monetária do banco central dos Estados Unidos, o Federeal Reserve, mais tarde nesta semana."/>
+          </mc:Choice>
+          <mc:Fallback>
+            <filter val="A China reduziu a quantidade de títulos do Tesouro dos Estados Unidos (Treasuries) para abaixo de US$ 1 trilhão, segundo dados divulgados nesta semana."/>
+            <filter val="As vendas no varejo dos Estados Unidos subiram em junho, em meio ao medo de recessão. Segundo dados divulgados há pouco pelo Departamento de Comércio, as vendas do setor varejista aumentaram 1% em junho em relação a maio, totalizando US$ 680,6 bilhões."/>
+            <filter val="No aguardo da direção que os mercados financeiros deverão seguir, sobretudo após da abertura das bolsas nos Estados Unidos, a soja e o milho estão em realização de lucros em Chicago."/>
+            <filter val="O dólar à vista opera em queda de 1,5% frente ao real, negociado nas mínimas do pregão, no nível de R$ 5,07. A moeda norte-americana perde força global com indicadores nos Estados Unidos."/>
+            <filter val="O dólar à vista opera em queda de mais de 1% frente ao real, negociado a R$ 5,18, exibindo um certo alívio após os dados do mercado de trabalho dos Estados Unidos, o payroll, ficarem acima do esperado."/>
+            <filter val="O dólar abriu o pregão desta sexta-feira (2), dia de dados de emprego (payroll) nos Estados Unidos, em baixa. Por volta das 9h04, a moeda recuava 0,22%, a R$ 5,2302."/>
+            <filter val="O dólar começou o pregão desta sexta-feira (8) em alta, em dia marcado pela expectativa sobre o relatório de emprego nos Estados Unidos (payroll). "/>
+            <filter val="O dólar operava em queda na abertura do pregão desta sexta-feira (14), em dia de dados sobre o varejo e a indústria nos Estados Unidos. Por volta das 9h05, a moeda norte-americana recuava 0,32%, a R$ 5,4057. "/>
+            <filter val="O dólar reverteu perdas de mais cedo e era negociado acima dos 5,30 reais nesta quarta-feira, acompanhando a mudança de sinal da moeda norte-americana no exterior na esteira de dados mais fortes do que o esperado sobre a economia dos Estados Unidos."/>
+          </mc:Fallback>
+        </mc:AlternateContent>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="NEUTRO"/>
+        <filter val="RELEVANTE"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e0e16b2796fadf2/Área de Trabalho/projeto 1 cdados/22-2a-cd-p1-grupo_renatogp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="763" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{349C9D2E-5303-41E4-9FA7-232EAA0043E8}"/>
+  <xr:revisionPtr revIDLastSave="781" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA5B8C4B-0D18-44B1-B539-6AE459DB5584}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1867">
   <si>
     <t>Categoria</t>
   </si>
@@ -5623,9 +5623,6 @@
   </si>
   <si>
     <t>06/07/2022 - 17:09</t>
-  </si>
-  <si>
-    <t>IRRELEVANTE</t>
   </si>
   <si>
     <t>RELEVANTE</t>
@@ -5635,7 +5632,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5645,14 +5642,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -5700,7 +5689,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6040,10 +6029,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F361"/>
+  <dimension ref="A1:H361"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H319" sqref="H319"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="H355" sqref="H355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6071,7 +6060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6087,11 +6076,11 @@
       <c r="E2">
         <v>51</v>
       </c>
-      <c r="F2" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6107,11 +6096,11 @@
       <c r="E3">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6127,11 +6116,11 @@
       <c r="E4">
         <v>58</v>
       </c>
-      <c r="F4" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -6147,11 +6136,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6167,11 +6156,11 @@
       <c r="E6">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6187,11 +6176,11 @@
       <c r="E7">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6207,11 +6196,11 @@
       <c r="E8">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6227,11 +6216,11 @@
       <c r="E9">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6247,11 +6236,11 @@
       <c r="E10">
         <v>20</v>
       </c>
-      <c r="F10" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6264,11 +6253,11 @@
       <c r="E11">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6284,11 +6273,11 @@
       <c r="E12">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6304,11 +6293,11 @@
       <c r="E13">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -6324,11 +6313,11 @@
       <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -6344,11 +6333,11 @@
       <c r="E15">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -6364,11 +6353,11 @@
       <c r="E16">
         <v>39</v>
       </c>
-      <c r="F16" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -6384,11 +6373,11 @@
       <c r="E17">
         <v>25</v>
       </c>
-      <c r="F17" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6404,11 +6393,11 @@
       <c r="E18">
         <v>57</v>
       </c>
-      <c r="F18" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6424,11 +6413,11 @@
       <c r="E19">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -6444,11 +6433,11 @@
       <c r="E20">
         <v>31</v>
       </c>
-      <c r="F20" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -6464,11 +6453,11 @@
       <c r="E21">
         <v>25</v>
       </c>
-      <c r="F21" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6484,11 +6473,11 @@
       <c r="E22">
         <v>24</v>
       </c>
-      <c r="F22" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6504,11 +6493,11 @@
       <c r="E23">
         <v>6</v>
       </c>
-      <c r="F23" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -6524,11 +6513,11 @@
       <c r="E24">
         <v>14</v>
       </c>
-      <c r="F24" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -6544,11 +6533,11 @@
       <c r="E25">
         <v>42</v>
       </c>
-      <c r="F25" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -6564,11 +6553,11 @@
       <c r="E26">
         <v>31</v>
       </c>
-      <c r="F26" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -6584,11 +6573,11 @@
       <c r="E27">
         <v>9</v>
       </c>
-      <c r="F27" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -6604,11 +6593,11 @@
       <c r="E28">
         <v>26</v>
       </c>
-      <c r="F28" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -6624,11 +6613,11 @@
       <c r="E29">
         <v>30</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -6644,11 +6633,11 @@
       <c r="E30">
         <v>44</v>
       </c>
-      <c r="F30" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -6664,11 +6653,11 @@
       <c r="E31">
         <v>55</v>
       </c>
-      <c r="F31" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -6684,11 +6673,11 @@
       <c r="E32">
         <v>37</v>
       </c>
-      <c r="F32" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -6704,11 +6693,11 @@
       <c r="E33">
         <v>41</v>
       </c>
-      <c r="F33" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -6724,11 +6713,11 @@
       <c r="E34">
         <v>27</v>
       </c>
-      <c r="F34" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -6744,11 +6733,11 @@
       <c r="E35">
         <v>47</v>
       </c>
-      <c r="F35" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -6764,11 +6753,11 @@
       <c r="E36">
         <v>54</v>
       </c>
-      <c r="F36" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -6784,11 +6773,11 @@
       <c r="E37">
         <v>41</v>
       </c>
-      <c r="F37" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -6804,11 +6793,11 @@
       <c r="E38">
         <v>24</v>
       </c>
-      <c r="F38" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -6824,11 +6813,11 @@
       <c r="E39">
         <v>18</v>
       </c>
-      <c r="F39" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -6844,11 +6833,11 @@
       <c r="E40">
         <v>6</v>
       </c>
-      <c r="F40" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -6864,11 +6853,11 @@
       <c r="E41">
         <v>45</v>
       </c>
-      <c r="F41" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -6884,11 +6873,11 @@
       <c r="E42">
         <v>54</v>
       </c>
-      <c r="F42" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -6904,11 +6893,11 @@
       <c r="E43">
         <v>29</v>
       </c>
-      <c r="F43" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -6924,11 +6913,11 @@
       <c r="E44">
         <v>37</v>
       </c>
-      <c r="F44" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -6944,11 +6933,11 @@
       <c r="E45">
         <v>55</v>
       </c>
-      <c r="F45" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -6964,11 +6953,11 @@
       <c r="E46">
         <v>59</v>
       </c>
-      <c r="F46" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -6984,11 +6973,11 @@
       <c r="E47">
         <v>8</v>
       </c>
-      <c r="F47" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -7004,11 +6993,11 @@
       <c r="E48">
         <v>31</v>
       </c>
-      <c r="F48" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -7024,11 +7013,11 @@
       <c r="E49">
         <v>3</v>
       </c>
-      <c r="F49" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -7044,11 +7033,11 @@
       <c r="E50">
         <v>32</v>
       </c>
-      <c r="F50" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -7064,11 +7053,11 @@
       <c r="E51">
         <v>51</v>
       </c>
-      <c r="F51" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -7084,11 +7073,11 @@
       <c r="E52">
         <v>58</v>
       </c>
-      <c r="F52" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -7104,11 +7093,11 @@
       <c r="E53">
         <v>2</v>
       </c>
-      <c r="F53" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -7124,11 +7113,11 @@
       <c r="E54">
         <v>46</v>
       </c>
-      <c r="F54" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -7144,11 +7133,11 @@
       <c r="E55">
         <v>10</v>
       </c>
-      <c r="F55" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -7164,11 +7153,11 @@
       <c r="E56">
         <v>51</v>
       </c>
-      <c r="F56" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -7184,11 +7173,11 @@
       <c r="E57">
         <v>18</v>
       </c>
-      <c r="F57" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -7204,11 +7193,11 @@
       <c r="E58">
         <v>15</v>
       </c>
-      <c r="F58" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -7224,11 +7213,11 @@
       <c r="E59">
         <v>47</v>
       </c>
-      <c r="F59" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -7244,11 +7233,11 @@
       <c r="E60">
         <v>30</v>
       </c>
-      <c r="F60" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -7264,11 +7253,11 @@
       <c r="E61">
         <v>2</v>
       </c>
-      <c r="F61" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -7284,11 +7273,11 @@
       <c r="E62">
         <v>23</v>
       </c>
-      <c r="F62" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -7304,11 +7293,11 @@
       <c r="E63">
         <v>37</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -7324,11 +7313,11 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -7344,11 +7333,11 @@
       <c r="E65">
         <v>7</v>
       </c>
-      <c r="F65" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -7364,11 +7353,11 @@
       <c r="E66">
         <v>42</v>
       </c>
-      <c r="F66" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -7384,11 +7373,11 @@
       <c r="E67">
         <v>39</v>
       </c>
-      <c r="F67" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -7404,11 +7393,11 @@
       <c r="E68">
         <v>6</v>
       </c>
-      <c r="F68" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -7424,11 +7413,11 @@
       <c r="E69">
         <v>30</v>
       </c>
-      <c r="F69" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -7444,11 +7433,11 @@
       <c r="E70">
         <v>23</v>
       </c>
-      <c r="F70" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7464,11 +7453,11 @@
       <c r="E71">
         <v>50</v>
       </c>
-      <c r="F71" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -7484,11 +7473,11 @@
       <c r="E72">
         <v>9</v>
       </c>
-      <c r="F72" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -7504,11 +7493,11 @@
       <c r="E73">
         <v>1</v>
       </c>
-      <c r="F73" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -7524,11 +7513,11 @@
       <c r="E74">
         <v>56</v>
       </c>
-      <c r="F74" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -7544,11 +7533,11 @@
       <c r="E75">
         <v>49</v>
       </c>
-      <c r="F75" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -7564,11 +7553,11 @@
       <c r="E76">
         <v>6</v>
       </c>
-      <c r="F76" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -7584,11 +7573,11 @@
       <c r="E77">
         <v>19</v>
       </c>
-      <c r="F77" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -7604,11 +7593,11 @@
       <c r="E78">
         <v>57</v>
       </c>
-      <c r="F78" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -7624,11 +7613,11 @@
       <c r="E79">
         <v>50</v>
       </c>
-      <c r="F79" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -7644,11 +7633,11 @@
       <c r="E80">
         <v>38</v>
       </c>
-      <c r="F80" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -7664,11 +7653,11 @@
       <c r="E81">
         <v>55</v>
       </c>
-      <c r="F81" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -7684,11 +7673,11 @@
       <c r="E82">
         <v>10</v>
       </c>
-      <c r="F82" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -7704,11 +7693,11 @@
       <c r="E83">
         <v>45</v>
       </c>
-      <c r="F83" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -7724,11 +7713,11 @@
       <c r="E84">
         <v>29</v>
       </c>
-      <c r="F84" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -7744,11 +7733,11 @@
       <c r="E85">
         <v>53</v>
       </c>
-      <c r="F85" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -7764,11 +7753,11 @@
       <c r="E86">
         <v>27</v>
       </c>
-      <c r="F86" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -7784,11 +7773,11 @@
       <c r="E87">
         <v>2</v>
       </c>
-      <c r="F87" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -7804,11 +7793,11 @@
       <c r="E88">
         <v>30</v>
       </c>
-      <c r="F88" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -7824,11 +7813,11 @@
       <c r="E89">
         <v>34</v>
       </c>
-      <c r="F89" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -7844,11 +7833,11 @@
       <c r="E90">
         <v>9</v>
       </c>
-      <c r="F90" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -7864,11 +7853,11 @@
       <c r="E91">
         <v>44</v>
       </c>
-      <c r="F91" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>35</v>
       </c>
@@ -7884,11 +7873,11 @@
       <c r="E92">
         <v>39</v>
       </c>
-      <c r="F92" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -7904,11 +7893,11 @@
       <c r="E93">
         <v>58</v>
       </c>
-      <c r="F93" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -7924,11 +7913,11 @@
       <c r="E94">
         <v>26</v>
       </c>
-      <c r="F94" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -7944,11 +7933,11 @@
       <c r="E95">
         <v>34</v>
       </c>
-      <c r="F95" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -7964,11 +7953,11 @@
       <c r="E96">
         <v>50</v>
       </c>
-      <c r="F96" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -7984,11 +7973,11 @@
       <c r="E97">
         <v>45</v>
       </c>
-      <c r="F97" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -8004,11 +7993,11 @@
       <c r="E98">
         <v>9</v>
       </c>
-      <c r="F98" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -8024,11 +8013,11 @@
       <c r="E99">
         <v>56</v>
       </c>
-      <c r="F99" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -8044,11 +8033,11 @@
       <c r="E100">
         <v>42</v>
       </c>
-      <c r="F100" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -8064,11 +8053,11 @@
       <c r="E101">
         <v>8</v>
       </c>
-      <c r="F101" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -8084,11 +8073,11 @@
       <c r="E102">
         <v>33</v>
       </c>
-      <c r="F102" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -8104,11 +8093,11 @@
       <c r="E103">
         <v>20</v>
       </c>
-      <c r="F103" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -8124,11 +8113,11 @@
       <c r="E104">
         <v>3</v>
       </c>
-      <c r="F104" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -8144,11 +8133,11 @@
       <c r="E105">
         <v>36</v>
       </c>
-      <c r="F105" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -8164,11 +8153,11 @@
       <c r="E106">
         <v>35</v>
       </c>
-      <c r="F106" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -8184,11 +8173,11 @@
       <c r="E107">
         <v>39</v>
       </c>
-      <c r="F107" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -8204,11 +8193,11 @@
       <c r="E108">
         <v>18</v>
       </c>
-      <c r="F108" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -8224,11 +8213,11 @@
       <c r="E109">
         <v>27</v>
       </c>
-      <c r="F109" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -8244,11 +8233,11 @@
       <c r="E110">
         <v>10</v>
       </c>
-      <c r="F110" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -8264,11 +8253,11 @@
       <c r="E111">
         <v>22</v>
       </c>
-      <c r="F111" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -8284,11 +8273,11 @@
       <c r="E112">
         <v>46</v>
       </c>
-      <c r="F112" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -8304,11 +8293,11 @@
       <c r="E113">
         <v>31</v>
       </c>
-      <c r="F113" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -8324,11 +8313,11 @@
       <c r="E114">
         <v>32</v>
       </c>
-      <c r="F114" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -8344,11 +8333,11 @@
       <c r="E115">
         <v>46</v>
       </c>
-      <c r="F115" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -8364,11 +8353,11 @@
       <c r="E116">
         <v>9</v>
       </c>
-      <c r="F116" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -8384,11 +8373,11 @@
       <c r="E117">
         <v>24</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -8404,11 +8393,11 @@
       <c r="E118">
         <v>54</v>
       </c>
-      <c r="F118" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -8424,11 +8413,11 @@
       <c r="E119">
         <v>27</v>
       </c>
-      <c r="F119" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -8444,11 +8433,11 @@
       <c r="E120">
         <v>13</v>
       </c>
-      <c r="F120" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -8464,11 +8453,11 @@
       <c r="E121">
         <v>10</v>
       </c>
-      <c r="F121" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -8484,11 +8473,11 @@
       <c r="E122">
         <v>21</v>
       </c>
-      <c r="F122" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -8504,11 +8493,11 @@
       <c r="E123">
         <v>52</v>
       </c>
-      <c r="F123" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -8524,11 +8513,11 @@
       <c r="E124">
         <v>53</v>
       </c>
-      <c r="F124" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -8544,11 +8533,11 @@
       <c r="E125">
         <v>28</v>
       </c>
-      <c r="F125" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>44</v>
       </c>
@@ -8564,11 +8553,11 @@
       <c r="E126">
         <v>55</v>
       </c>
-      <c r="F126" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -8584,11 +8573,11 @@
       <c r="E127">
         <v>20</v>
       </c>
-      <c r="F127" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -8604,11 +8593,11 @@
       <c r="E128">
         <v>8</v>
       </c>
-      <c r="F128" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -8624,11 +8613,11 @@
       <c r="E129">
         <v>44</v>
       </c>
-      <c r="F129" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -8644,11 +8633,11 @@
       <c r="E130">
         <v>26</v>
       </c>
-      <c r="F130" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -8664,11 +8653,11 @@
       <c r="E131">
         <v>48</v>
       </c>
-      <c r="F131" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -8684,11 +8673,11 @@
       <c r="E132">
         <v>24</v>
       </c>
-      <c r="F132" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -8704,11 +8693,11 @@
       <c r="E133">
         <v>41</v>
       </c>
-      <c r="F133" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -8724,11 +8713,11 @@
       <c r="E134">
         <v>24</v>
       </c>
-      <c r="F134" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -8744,11 +8733,11 @@
       <c r="E135">
         <v>37</v>
       </c>
-      <c r="F135" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -8764,11 +8753,11 @@
       <c r="E136">
         <v>11</v>
       </c>
-      <c r="F136" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -8784,11 +8773,11 @@
       <c r="E137">
         <v>42</v>
       </c>
-      <c r="F137" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -8804,11 +8793,11 @@
       <c r="E138">
         <v>34</v>
       </c>
-      <c r="F138" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -8824,11 +8813,11 @@
       <c r="E139">
         <v>55</v>
       </c>
-      <c r="F139" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -8844,11 +8833,11 @@
       <c r="E140">
         <v>21</v>
       </c>
-      <c r="F140" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -8864,11 +8853,11 @@
       <c r="E141">
         <v>27</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -8884,11 +8873,11 @@
       <c r="E142">
         <v>22</v>
       </c>
-      <c r="F142" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -8904,11 +8893,11 @@
       <c r="E143">
         <v>29</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -8924,11 +8913,11 @@
       <c r="E144">
         <v>47</v>
       </c>
-      <c r="F144" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>46</v>
       </c>
@@ -8944,11 +8933,11 @@
       <c r="E145">
         <v>38</v>
       </c>
-      <c r="F145" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -8964,11 +8953,11 @@
       <c r="E146">
         <v>58</v>
       </c>
-      <c r="F146" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -8984,11 +8973,11 @@
       <c r="E147">
         <v>25</v>
       </c>
-      <c r="F147" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -9004,11 +8993,11 @@
       <c r="E148">
         <v>43</v>
       </c>
-      <c r="F148" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -9024,11 +9013,11 @@
       <c r="E149">
         <v>34</v>
       </c>
-      <c r="F149" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>47</v>
       </c>
@@ -9041,11 +9030,11 @@
       <c r="E150">
         <v>17</v>
       </c>
-      <c r="F150" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>48</v>
       </c>
@@ -9061,11 +9050,11 @@
       <c r="E151">
         <v>42</v>
       </c>
-      <c r="F151" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -9081,11 +9070,11 @@
       <c r="E152">
         <v>33</v>
       </c>
-      <c r="F152" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -9101,11 +9090,11 @@
       <c r="E153">
         <v>9</v>
       </c>
-      <c r="F153" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -9121,11 +9110,11 @@
       <c r="E154">
         <v>55</v>
       </c>
-      <c r="F154" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -9141,11 +9130,11 @@
       <c r="E155">
         <v>46</v>
       </c>
-      <c r="F155" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -9161,11 +9150,11 @@
       <c r="E156">
         <v>59</v>
       </c>
-      <c r="F156" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -9181,11 +9170,11 @@
       <c r="E157">
         <v>26</v>
       </c>
-      <c r="F157" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>43</v>
       </c>
@@ -9201,11 +9190,11 @@
       <c r="E158">
         <v>47</v>
       </c>
-      <c r="F158" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -9221,11 +9210,11 @@
       <c r="E159">
         <v>43</v>
       </c>
-      <c r="F159" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -9241,11 +9230,11 @@
       <c r="E160">
         <v>14</v>
       </c>
-      <c r="F160" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -9261,11 +9250,11 @@
       <c r="E161">
         <v>49</v>
       </c>
-      <c r="F161" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -9281,11 +9270,11 @@
       <c r="E162">
         <v>24</v>
       </c>
-      <c r="F162" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -9301,11 +9290,11 @@
       <c r="E163">
         <v>6</v>
       </c>
-      <c r="F163" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>34</v>
       </c>
@@ -9321,11 +9310,11 @@
       <c r="E164">
         <v>40</v>
       </c>
-      <c r="F164" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -9341,11 +9330,11 @@
       <c r="E165">
         <v>38</v>
       </c>
-      <c r="F165" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -9361,11 +9350,11 @@
       <c r="E166">
         <v>32</v>
       </c>
-      <c r="F166" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>49</v>
       </c>
@@ -9381,11 +9370,11 @@
       <c r="E167">
         <v>35</v>
       </c>
-      <c r="F167" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -9401,11 +9390,11 @@
       <c r="E168">
         <v>32</v>
       </c>
-      <c r="F168" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -9421,11 +9410,11 @@
       <c r="E169">
         <v>22</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -9441,11 +9430,11 @@
       <c r="E170">
         <v>42</v>
       </c>
-      <c r="F170" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -9461,11 +9450,11 @@
       <c r="E171">
         <v>1</v>
       </c>
-      <c r="F171" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -9481,11 +9470,11 @@
       <c r="E172">
         <v>54</v>
       </c>
-      <c r="F172" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -9501,11 +9490,11 @@
       <c r="E173">
         <v>48</v>
       </c>
-      <c r="F173" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -9521,11 +9510,11 @@
       <c r="E174">
         <v>31</v>
       </c>
-      <c r="F174" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>50</v>
       </c>
@@ -9541,11 +9530,11 @@
       <c r="E175">
         <v>56</v>
       </c>
-      <c r="F175" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -9561,11 +9550,11 @@
       <c r="E176">
         <v>57</v>
       </c>
-      <c r="F176" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -9581,11 +9570,11 @@
       <c r="E177">
         <v>3</v>
       </c>
-      <c r="F177" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>51</v>
       </c>
@@ -9601,11 +9590,11 @@
       <c r="E178">
         <v>52</v>
       </c>
-      <c r="F178" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -9621,11 +9610,11 @@
       <c r="E179">
         <v>2</v>
       </c>
-      <c r="F179" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -9641,11 +9630,11 @@
       <c r="E180">
         <v>44</v>
       </c>
-      <c r="F180" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -9661,11 +9650,11 @@
       <c r="E181">
         <v>30</v>
       </c>
-      <c r="F181" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -9681,11 +9670,11 @@
       <c r="E182">
         <v>20</v>
       </c>
-      <c r="F182" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -9701,11 +9690,11 @@
       <c r="E183">
         <v>39</v>
       </c>
-      <c r="F183" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -9721,11 +9710,11 @@
       <c r="E184">
         <v>12</v>
       </c>
-      <c r="F184" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -9741,11 +9730,11 @@
       <c r="E185">
         <v>35</v>
       </c>
-      <c r="F185" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -9761,11 +9750,11 @@
       <c r="E186">
         <v>18</v>
       </c>
-      <c r="F186" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>52</v>
       </c>
@@ -9781,11 +9770,11 @@
       <c r="E187">
         <v>52</v>
       </c>
-      <c r="F187" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -9801,11 +9790,11 @@
       <c r="E188">
         <v>27</v>
       </c>
-      <c r="F188" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>53</v>
       </c>
@@ -9821,11 +9810,11 @@
       <c r="E189">
         <v>60</v>
       </c>
-      <c r="F189" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -9841,11 +9830,11 @@
       <c r="E190">
         <v>18</v>
       </c>
-      <c r="F190" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -9861,11 +9850,11 @@
       <c r="E191">
         <v>7</v>
       </c>
-      <c r="F191" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -9881,11 +9870,11 @@
       <c r="E192">
         <v>48</v>
       </c>
-      <c r="F192" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -9901,11 +9890,11 @@
       <c r="E193">
         <v>53</v>
       </c>
-      <c r="F193" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -9921,11 +9910,11 @@
       <c r="E194">
         <v>25</v>
       </c>
-      <c r="F194" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>55</v>
       </c>
@@ -9941,11 +9930,11 @@
       <c r="E195">
         <v>40</v>
       </c>
-      <c r="F195" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -9961,11 +9950,11 @@
       <c r="E196">
         <v>45</v>
       </c>
-      <c r="F196" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -9981,11 +9970,11 @@
       <c r="E197">
         <v>28</v>
       </c>
-      <c r="F197" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -10001,11 +9990,11 @@
       <c r="E198">
         <v>51</v>
       </c>
-      <c r="F198" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -10021,11 +10010,11 @@
       <c r="E199">
         <v>15</v>
       </c>
-      <c r="F199" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>56</v>
       </c>
@@ -10041,11 +10030,11 @@
       <c r="E200">
         <v>59</v>
       </c>
-      <c r="F200" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -10061,11 +10050,11 @@
       <c r="E201">
         <v>22</v>
       </c>
-      <c r="F201" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -10081,11 +10070,11 @@
       <c r="E202">
         <v>58</v>
       </c>
-      <c r="F202" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -10101,11 +10090,11 @@
       <c r="E203">
         <v>36</v>
       </c>
-      <c r="F203" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -10121,11 +10110,11 @@
       <c r="E204">
         <v>41</v>
       </c>
-      <c r="F204" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>57</v>
       </c>
@@ -10141,11 +10130,11 @@
       <c r="E205">
         <v>25</v>
       </c>
-      <c r="F205" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -10161,11 +10150,11 @@
       <c r="E206">
         <v>7</v>
       </c>
-      <c r="F206" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -10181,11 +10170,11 @@
       <c r="E207">
         <v>53</v>
       </c>
-      <c r="F207" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>58</v>
       </c>
@@ -10201,11 +10190,11 @@
       <c r="E208">
         <v>49</v>
       </c>
-      <c r="F208" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -10221,11 +10210,11 @@
       <c r="E209">
         <v>56</v>
       </c>
-      <c r="F209" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -10241,11 +10230,11 @@
       <c r="E210">
         <v>56</v>
       </c>
-      <c r="F210" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>41</v>
       </c>
@@ -10261,11 +10250,11 @@
       <c r="E211">
         <v>60</v>
       </c>
-      <c r="F211" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -10281,11 +10270,11 @@
       <c r="E212">
         <v>43</v>
       </c>
-      <c r="F212" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -10301,11 +10290,11 @@
       <c r="E213">
         <v>4</v>
       </c>
-      <c r="F213" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -10321,11 +10310,11 @@
       <c r="E214">
         <v>6</v>
       </c>
-      <c r="F214" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -10341,11 +10330,11 @@
       <c r="E215">
         <v>46</v>
       </c>
-      <c r="F215" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -10361,11 +10350,11 @@
       <c r="E216">
         <v>13</v>
       </c>
-      <c r="F216" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -10381,11 +10370,11 @@
       <c r="E217">
         <v>3</v>
       </c>
-      <c r="F217" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -10401,11 +10390,11 @@
       <c r="E218">
         <v>48</v>
       </c>
-      <c r="F218" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>59</v>
       </c>
@@ -10421,11 +10410,11 @@
       <c r="E219">
         <v>50</v>
       </c>
-      <c r="F219" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>53</v>
       </c>
@@ -10441,11 +10430,11 @@
       <c r="E220">
         <v>33</v>
       </c>
-      <c r="F220" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>48</v>
       </c>
@@ -10461,11 +10450,11 @@
       <c r="E221">
         <v>37</v>
       </c>
-      <c r="F221" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>22</v>
       </c>
@@ -10481,11 +10470,11 @@
       <c r="E222">
         <v>16</v>
       </c>
-      <c r="F222" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -10501,11 +10490,11 @@
       <c r="E223">
         <v>22</v>
       </c>
-      <c r="F223" s="2" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>60</v>
       </c>
@@ -10521,11 +10510,11 @@
       <c r="E224">
         <v>3</v>
       </c>
-      <c r="F224" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>31</v>
       </c>
@@ -10541,11 +10530,11 @@
       <c r="E225">
         <v>36</v>
       </c>
-      <c r="F225" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -10561,11 +10550,11 @@
       <c r="E226">
         <v>59</v>
       </c>
-      <c r="F226" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>61</v>
       </c>
@@ -10581,11 +10570,11 @@
       <c r="E227">
         <v>20</v>
       </c>
-      <c r="F227" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>31</v>
       </c>
@@ -10601,11 +10590,11 @@
       <c r="E228">
         <v>17</v>
       </c>
-      <c r="F228" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -10621,11 +10610,11 @@
       <c r="E229">
         <v>44</v>
       </c>
-      <c r="F229" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>62</v>
       </c>
@@ -10641,11 +10630,11 @@
       <c r="E230">
         <v>57</v>
       </c>
-      <c r="F230" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -10661,11 +10650,11 @@
       <c r="E231">
         <v>12</v>
       </c>
-      <c r="F231" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>63</v>
       </c>
@@ -10681,11 +10670,11 @@
       <c r="E232">
         <v>6</v>
       </c>
-      <c r="F232" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -10701,11 +10690,11 @@
       <c r="E233">
         <v>17</v>
       </c>
-      <c r="F233" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>34</v>
       </c>
@@ -10721,11 +10710,11 @@
       <c r="E234">
         <v>53</v>
       </c>
-      <c r="F234" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>29</v>
       </c>
@@ -10741,11 +10730,11 @@
       <c r="E235">
         <v>34</v>
       </c>
-      <c r="F235" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -10761,11 +10750,11 @@
       <c r="E236">
         <v>35</v>
       </c>
-      <c r="F236" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>39</v>
       </c>
@@ -10781,11 +10770,11 @@
       <c r="E237">
         <v>7</v>
       </c>
-      <c r="F237" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -10801,11 +10790,11 @@
       <c r="E238">
         <v>18</v>
       </c>
-      <c r="F238" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -10821,11 +10810,11 @@
       <c r="E239">
         <v>11</v>
       </c>
-      <c r="F239" s="2" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -10841,11 +10830,11 @@
       <c r="E240">
         <v>7</v>
       </c>
-      <c r="F240" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>64</v>
       </c>
@@ -10861,11 +10850,11 @@
       <c r="E241">
         <v>4</v>
       </c>
-      <c r="F241" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -10881,11 +10870,11 @@
       <c r="E242">
         <v>10</v>
       </c>
-      <c r="F242" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>65</v>
       </c>
@@ -10901,11 +10890,11 @@
       <c r="E243">
         <v>48</v>
       </c>
-      <c r="F243" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -10921,11 +10910,11 @@
       <c r="E244">
         <v>36</v>
       </c>
-      <c r="F244" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -10941,11 +10930,11 @@
       <c r="E245">
         <v>13</v>
       </c>
-      <c r="F245" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>33</v>
       </c>
@@ -10961,11 +10950,11 @@
       <c r="E246">
         <v>32</v>
       </c>
-      <c r="F246" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -10981,11 +10970,11 @@
       <c r="E247">
         <v>20</v>
       </c>
-      <c r="F247" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -11001,11 +10990,11 @@
       <c r="E248">
         <v>4</v>
       </c>
-      <c r="F248" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -11021,11 +11010,11 @@
       <c r="E249">
         <v>52</v>
       </c>
-      <c r="F249" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>34</v>
       </c>
@@ -11041,11 +11030,11 @@
       <c r="E250">
         <v>31</v>
       </c>
-      <c r="F250" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -11061,11 +11050,11 @@
       <c r="E251">
         <v>14</v>
       </c>
-      <c r="F251" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -11081,11 +11070,11 @@
       <c r="E252">
         <v>50</v>
       </c>
-      <c r="F252" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -11101,11 +11090,11 @@
       <c r="E253">
         <v>22</v>
       </c>
-      <c r="F253" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -11121,11 +11110,11 @@
       <c r="E254">
         <v>37</v>
       </c>
-      <c r="F254" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -11141,11 +11130,11 @@
       <c r="E255">
         <v>49</v>
       </c>
-      <c r="F255" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>42</v>
       </c>
@@ -11161,11 +11150,11 @@
       <c r="E256">
         <v>12</v>
       </c>
-      <c r="F256" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -11181,11 +11170,11 @@
       <c r="E257">
         <v>48</v>
       </c>
-      <c r="F257" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -11201,11 +11190,11 @@
       <c r="E258">
         <v>51</v>
       </c>
-      <c r="F258" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>29</v>
       </c>
@@ -11221,11 +11210,11 @@
       <c r="E259">
         <v>60</v>
       </c>
-      <c r="F259" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -11241,11 +11230,11 @@
       <c r="E260">
         <v>35</v>
       </c>
-      <c r="F260" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -11261,11 +11250,11 @@
       <c r="E261">
         <v>5</v>
       </c>
-      <c r="F261" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>32</v>
       </c>
@@ -11281,11 +11270,11 @@
       <c r="E262">
         <v>60</v>
       </c>
-      <c r="F262" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -11301,11 +11290,11 @@
       <c r="E263">
         <v>19</v>
       </c>
-      <c r="F263" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>66</v>
       </c>
@@ -11321,11 +11310,11 @@
       <c r="E264">
         <v>9</v>
       </c>
-      <c r="F264" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -11341,11 +11330,11 @@
       <c r="E265">
         <v>23</v>
       </c>
-      <c r="F265" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -11361,11 +11350,11 @@
       <c r="E266">
         <v>15</v>
       </c>
-      <c r="F266" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -11381,11 +11370,11 @@
       <c r="E267">
         <v>59</v>
       </c>
-      <c r="F267" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>31</v>
       </c>
@@ -11401,11 +11390,11 @@
       <c r="E268">
         <v>21</v>
       </c>
-      <c r="F268" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -11421,11 +11410,11 @@
       <c r="E269">
         <v>27</v>
       </c>
-      <c r="F269" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>29</v>
       </c>
@@ -11441,11 +11430,11 @@
       <c r="E270">
         <v>14</v>
       </c>
-      <c r="F270" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -11461,11 +11450,11 @@
       <c r="E271">
         <v>22</v>
       </c>
-      <c r="F271" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -11481,11 +11470,11 @@
       <c r="E272">
         <v>47</v>
       </c>
-      <c r="F272" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>27</v>
       </c>
@@ -11501,11 +11490,11 @@
       <c r="E273">
         <v>41</v>
       </c>
-      <c r="F273" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>10</v>
       </c>
@@ -11521,11 +11510,11 @@
       <c r="E274">
         <v>37</v>
       </c>
-      <c r="F274" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>67</v>
       </c>
@@ -11541,11 +11530,11 @@
       <c r="E275">
         <v>2</v>
       </c>
-      <c r="F275" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -11561,11 +11550,11 @@
       <c r="E276">
         <v>40</v>
       </c>
-      <c r="F276" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -11581,11 +11570,11 @@
       <c r="E277">
         <v>32</v>
       </c>
-      <c r="F277" s="2" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>68</v>
       </c>
@@ -11601,11 +11590,11 @@
       <c r="E278">
         <v>13</v>
       </c>
-      <c r="F278" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -11621,11 +11610,11 @@
       <c r="E279">
         <v>60</v>
       </c>
-      <c r="F279" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -11641,11 +11630,11 @@
       <c r="E280">
         <v>5</v>
       </c>
-      <c r="F280" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -11661,11 +11650,11 @@
       <c r="E281">
         <v>28</v>
       </c>
-      <c r="F281" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -11681,11 +11670,11 @@
       <c r="E282">
         <v>5</v>
       </c>
-      <c r="F282" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -11701,11 +11690,11 @@
       <c r="E283">
         <v>5</v>
       </c>
-      <c r="F283" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>69</v>
       </c>
@@ -11721,11 +11710,11 @@
       <c r="E284">
         <v>11</v>
       </c>
-      <c r="F284" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>70</v>
       </c>
@@ -11741,11 +11730,11 @@
       <c r="E285">
         <v>14</v>
       </c>
-      <c r="F285" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>27</v>
       </c>
@@ -11761,11 +11750,11 @@
       <c r="E286">
         <v>38</v>
       </c>
-      <c r="F286" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -11781,11 +11770,11 @@
       <c r="E287">
         <v>45</v>
       </c>
-      <c r="F287" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -11801,11 +11790,11 @@
       <c r="E288">
         <v>26</v>
       </c>
-      <c r="F288" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -11821,11 +11810,11 @@
       <c r="E289">
         <v>51</v>
       </c>
-      <c r="F289" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -11841,11 +11830,11 @@
       <c r="E290">
         <v>43</v>
       </c>
-      <c r="F290" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -11861,11 +11850,11 @@
       <c r="E291">
         <v>28</v>
       </c>
-      <c r="F291" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -11881,11 +11870,11 @@
       <c r="E292">
         <v>2</v>
       </c>
-      <c r="F292" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -11901,11 +11890,11 @@
       <c r="E293">
         <v>58</v>
       </c>
-      <c r="F293" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>38</v>
       </c>
@@ -11921,11 +11910,11 @@
       <c r="E294">
         <v>52</v>
       </c>
-      <c r="F294" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -11941,11 +11930,11 @@
       <c r="E295">
         <v>48</v>
       </c>
-      <c r="F295" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -11961,11 +11950,11 @@
       <c r="E296">
         <v>25</v>
       </c>
-      <c r="F296" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -11981,11 +11970,11 @@
       <c r="E297">
         <v>45</v>
       </c>
-      <c r="F297" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -12001,11 +11990,11 @@
       <c r="E298">
         <v>57</v>
       </c>
-      <c r="F298" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -12021,11 +12010,11 @@
       <c r="E299">
         <v>13</v>
       </c>
-      <c r="F299" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>19</v>
       </c>
@@ -12041,11 +12030,11 @@
       <c r="E300">
         <v>21</v>
       </c>
-      <c r="F300" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>27</v>
       </c>
@@ -12061,11 +12050,11 @@
       <c r="E301">
         <v>43</v>
       </c>
-      <c r="F301" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>42</v>
       </c>
@@ -12081,11 +12070,11 @@
       <c r="E302">
         <v>54</v>
       </c>
-      <c r="F302" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>15</v>
       </c>
@@ -12101,11 +12090,11 @@
       <c r="E303">
         <v>53</v>
       </c>
-      <c r="F303" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -12121,11 +12110,11 @@
       <c r="E304">
         <v>29</v>
       </c>
-      <c r="F304" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -12141,11 +12130,11 @@
       <c r="E305">
         <v>44</v>
       </c>
-      <c r="F305" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>38</v>
       </c>
@@ -12161,11 +12150,11 @@
       <c r="E306">
         <v>32</v>
       </c>
-      <c r="F306" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -12181,11 +12170,11 @@
       <c r="E307">
         <v>39</v>
       </c>
-      <c r="F307" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -12201,11 +12190,11 @@
       <c r="E308">
         <v>17</v>
       </c>
-      <c r="F308" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -12221,11 +12210,11 @@
       <c r="E309">
         <v>52</v>
       </c>
-      <c r="F309" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -12241,11 +12230,11 @@
       <c r="E310">
         <v>56</v>
       </c>
-      <c r="F310" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -12261,11 +12250,11 @@
       <c r="E311">
         <v>21</v>
       </c>
-      <c r="F311" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -12281,11 +12270,11 @@
       <c r="E312">
         <v>47</v>
       </c>
-      <c r="F312" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -12301,11 +12290,11 @@
       <c r="E313">
         <v>50</v>
       </c>
-      <c r="F313" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>71</v>
       </c>
@@ -12321,11 +12310,11 @@
       <c r="E314">
         <v>41</v>
       </c>
-      <c r="F314" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>39</v>
       </c>
@@ -12341,11 +12330,11 @@
       <c r="E315">
         <v>5</v>
       </c>
-      <c r="F315" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>30</v>
       </c>
@@ -12361,11 +12350,11 @@
       <c r="E316">
         <v>16</v>
       </c>
-      <c r="F316" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>31</v>
       </c>
@@ -12381,11 +12370,11 @@
       <c r="E317">
         <v>41</v>
       </c>
-      <c r="F317" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -12401,11 +12390,11 @@
       <c r="E318">
         <v>27</v>
       </c>
-      <c r="F318" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>72</v>
       </c>
@@ -12421,11 +12410,11 @@
       <c r="E319">
         <v>26</v>
       </c>
-      <c r="F319" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -12441,11 +12430,11 @@
       <c r="E320">
         <v>2</v>
       </c>
-      <c r="F320" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -12461,11 +12450,11 @@
       <c r="E321">
         <v>13</v>
       </c>
-      <c r="F321" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -12481,11 +12470,11 @@
       <c r="E322">
         <v>6</v>
       </c>
-      <c r="F322" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>10</v>
       </c>
@@ -12501,11 +12490,11 @@
       <c r="E323">
         <v>12</v>
       </c>
-      <c r="F323" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>73</v>
       </c>
@@ -12521,11 +12510,11 @@
       <c r="E324">
         <v>20</v>
       </c>
-      <c r="F324" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -12541,11 +12530,11 @@
       <c r="E325">
         <v>3</v>
       </c>
-      <c r="F325" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>31</v>
       </c>
@@ -12561,11 +12550,11 @@
       <c r="E326">
         <v>5</v>
       </c>
-      <c r="F326" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>31</v>
       </c>
@@ -12581,11 +12570,11 @@
       <c r="E327">
         <v>7</v>
       </c>
-      <c r="F327" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>13</v>
       </c>
@@ -12601,11 +12590,11 @@
       <c r="E328">
         <v>50</v>
       </c>
-      <c r="F328" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -12621,11 +12610,11 @@
       <c r="E329">
         <v>38</v>
       </c>
-      <c r="F329" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>29</v>
       </c>
@@ -12641,11 +12630,11 @@
       <c r="E330">
         <v>30</v>
       </c>
-      <c r="F330" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -12661,11 +12650,11 @@
       <c r="E331">
         <v>36</v>
       </c>
-      <c r="F331" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>32</v>
       </c>
@@ -12681,11 +12670,11 @@
       <c r="E332">
         <v>25</v>
       </c>
-      <c r="F332" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -12701,11 +12690,11 @@
       <c r="E333">
         <v>39</v>
       </c>
-      <c r="F333" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>74</v>
       </c>
@@ -12721,11 +12710,11 @@
       <c r="E334">
         <v>31</v>
       </c>
-      <c r="F334" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>36</v>
       </c>
@@ -12741,11 +12730,11 @@
       <c r="E335">
         <v>19</v>
       </c>
-      <c r="F335" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>31</v>
       </c>
@@ -12761,11 +12750,11 @@
       <c r="E336">
         <v>57</v>
       </c>
-      <c r="F336" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -12781,11 +12770,11 @@
       <c r="E337">
         <v>5</v>
       </c>
-      <c r="F337" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>39</v>
       </c>
@@ -12801,11 +12790,11 @@
       <c r="E338">
         <v>41</v>
       </c>
-      <c r="F338" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>31</v>
       </c>
@@ -12821,11 +12810,11 @@
       <c r="E339">
         <v>2</v>
       </c>
-      <c r="F339" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>10</v>
       </c>
@@ -12841,11 +12830,11 @@
       <c r="E340">
         <v>32</v>
       </c>
-      <c r="F340" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>27</v>
       </c>
@@ -12861,11 +12850,11 @@
       <c r="E341">
         <v>52</v>
       </c>
-      <c r="F341" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>75</v>
       </c>
@@ -12881,11 +12870,11 @@
       <c r="E342">
         <v>18</v>
       </c>
-      <c r="F342" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -12901,11 +12890,11 @@
       <c r="E343">
         <v>45</v>
       </c>
-      <c r="F343" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>31</v>
       </c>
@@ -12921,11 +12910,11 @@
       <c r="E344">
         <v>58</v>
       </c>
-      <c r="F344" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -12941,11 +12930,11 @@
       <c r="E345">
         <v>11</v>
       </c>
-      <c r="F345" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -12961,11 +12950,11 @@
       <c r="E346">
         <v>29</v>
       </c>
-      <c r="F346" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>41</v>
       </c>
@@ -12981,11 +12970,11 @@
       <c r="E347">
         <v>22</v>
       </c>
-      <c r="F347" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -13001,11 +12990,11 @@
       <c r="E348">
         <v>55</v>
       </c>
-      <c r="F348" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -13021,11 +13010,11 @@
       <c r="E349">
         <v>40</v>
       </c>
-      <c r="F349" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>33</v>
       </c>
@@ -13041,11 +13030,11 @@
       <c r="E350">
         <v>1</v>
       </c>
-      <c r="F350" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -13061,11 +13050,11 @@
       <c r="E351">
         <v>52</v>
       </c>
-      <c r="F351" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>38</v>
       </c>
@@ -13081,11 +13070,11 @@
       <c r="E352">
         <v>24</v>
       </c>
-      <c r="F352" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -13101,11 +13090,11 @@
       <c r="E353">
         <v>49</v>
       </c>
-      <c r="F353" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -13121,11 +13110,11 @@
       <c r="E354">
         <v>41</v>
       </c>
-      <c r="F354" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -13141,11 +13130,12 @@
       <c r="E355">
         <v>49</v>
       </c>
-      <c r="F355" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="H355" s="2"/>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -13161,11 +13151,11 @@
       <c r="E356">
         <v>28</v>
       </c>
-      <c r="F356" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -13181,11 +13171,11 @@
       <c r="E357">
         <v>27</v>
       </c>
-      <c r="F357" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>15</v>
       </c>
@@ -13201,11 +13191,11 @@
       <c r="E358">
         <v>44</v>
       </c>
-      <c r="F358" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>27</v>
       </c>
@@ -13221,11 +13211,11 @@
       <c r="E359">
         <v>54</v>
       </c>
-      <c r="F359" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>33</v>
       </c>
@@ -13241,11 +13231,11 @@
       <c r="E360">
         <v>36</v>
       </c>
-      <c r="F360" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -13261,15 +13251,15 @@
       <c r="E361">
         <v>49</v>
       </c>
-      <c r="F361" t="s">
-        <v>1867</v>
+      <c r="F361">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F361" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters>
-        <filter val="RELEVANTE"/>
+        <filter val="IRRELEVANTE"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13283,8 +13273,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13312,7 +13302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -13328,8 +13318,8 @@
       <c r="E2">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
-        <v>1866</v>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -13348,11 +13338,11 @@
       <c r="E3">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -13368,11 +13358,11 @@
       <c r="E4">
         <v>46</v>
       </c>
-      <c r="F4" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1136</v>
       </c>
@@ -13388,8 +13378,8 @@
       <c r="E5">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>1866</v>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -13408,11 +13398,11 @@
       <c r="E6">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -13428,11 +13418,11 @@
       <c r="E7">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -13448,11 +13438,11 @@
       <c r="E8">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -13468,11 +13458,11 @@
       <c r="E9">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -13488,11 +13478,11 @@
       <c r="E10">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -13508,11 +13498,11 @@
       <c r="E11">
         <v>57</v>
       </c>
-      <c r="F11" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -13528,8 +13518,8 @@
       <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
-        <v>1866</v>
+      <c r="F12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -13548,8 +13538,8 @@
       <c r="E13">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
-        <v>1867</v>
+      <c r="F13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -13568,11 +13558,11 @@
       <c r="E14">
         <v>54</v>
       </c>
-      <c r="F14" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -13588,11 +13578,11 @@
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -13608,11 +13598,11 @@
       <c r="E16">
         <v>60</v>
       </c>
-      <c r="F16" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -13628,8 +13618,8 @@
       <c r="E17">
         <v>21</v>
       </c>
-      <c r="F17" t="s">
-        <v>1866</v>
+      <c r="F17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -13648,11 +13638,11 @@
       <c r="E18">
         <v>21</v>
       </c>
-      <c r="F18" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -13668,11 +13658,11 @@
       <c r="E19">
         <v>15</v>
       </c>
-      <c r="F19" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -13688,8 +13678,8 @@
       <c r="E20">
         <v>54</v>
       </c>
-      <c r="F20" t="s">
-        <v>1866</v>
+      <c r="F20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -13708,8 +13698,8 @@
       <c r="E21">
         <v>38</v>
       </c>
-      <c r="F21" t="s">
-        <v>1867</v>
+      <c r="F21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -13728,11 +13718,11 @@
       <c r="E22">
         <v>46</v>
       </c>
-      <c r="F22" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1138</v>
       </c>
@@ -13748,11 +13738,11 @@
       <c r="E23">
         <v>52</v>
       </c>
-      <c r="F23" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -13768,11 +13758,11 @@
       <c r="E24">
         <v>48</v>
       </c>
-      <c r="F24" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -13788,8 +13778,8 @@
       <c r="E25">
         <v>43</v>
       </c>
-      <c r="F25" t="s">
-        <v>1866</v>
+      <c r="F25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -13808,11 +13798,11 @@
       <c r="E26">
         <v>53</v>
       </c>
-      <c r="F26" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -13828,8 +13818,8 @@
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="F27" t="s">
-        <v>1866</v>
+      <c r="F27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -13848,11 +13838,11 @@
       <c r="E28">
         <v>39</v>
       </c>
-      <c r="F28" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -13868,11 +13858,11 @@
       <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -13888,11 +13878,11 @@
       <c r="E30">
         <v>44</v>
       </c>
-      <c r="F30" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -13908,11 +13898,11 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -13928,8 +13918,8 @@
       <c r="E32">
         <v>38</v>
       </c>
-      <c r="F32" t="s">
-        <v>1866</v>
+      <c r="F32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -13948,8 +13938,8 @@
       <c r="E33">
         <v>59</v>
       </c>
-      <c r="F33" t="s">
-        <v>1867</v>
+      <c r="F33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -13968,11 +13958,11 @@
       <c r="E34">
         <v>26</v>
       </c>
-      <c r="F34" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -13988,11 +13978,11 @@
       <c r="E35">
         <v>59</v>
       </c>
-      <c r="F35" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -14008,8 +13998,8 @@
       <c r="E36">
         <v>36</v>
       </c>
-      <c r="F36" t="s">
-        <v>1866</v>
+      <c r="F36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14028,11 +14018,11 @@
       <c r="E37">
         <v>16</v>
       </c>
-      <c r="F37" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1139</v>
       </c>
@@ -14048,11 +14038,11 @@
       <c r="E38">
         <v>40</v>
       </c>
-      <c r="F38" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -14068,8 +14058,8 @@
       <c r="E39">
         <v>31</v>
       </c>
-      <c r="F39" t="s">
-        <v>1866</v>
+      <c r="F39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14088,8 +14078,8 @@
       <c r="E40">
         <v>51</v>
       </c>
-      <c r="F40" t="s">
-        <v>1867</v>
+      <c r="F40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14108,11 +14098,11 @@
       <c r="E41">
         <v>12</v>
       </c>
-      <c r="F41" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -14128,11 +14118,11 @@
       <c r="E42">
         <v>17</v>
       </c>
-      <c r="F42" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -14148,11 +14138,11 @@
       <c r="E43">
         <v>9</v>
       </c>
-      <c r="F43" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -14168,11 +14158,11 @@
       <c r="E44">
         <v>26</v>
       </c>
-      <c r="F44" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -14188,8 +14178,8 @@
       <c r="E45">
         <v>55</v>
       </c>
-      <c r="F45" t="s">
-        <v>1866</v>
+      <c r="F45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14208,8 +14198,8 @@
       <c r="E46">
         <v>35</v>
       </c>
-      <c r="F46" t="s">
-        <v>1867</v>
+      <c r="F46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -14228,11 +14218,11 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -14248,8 +14238,8 @@
       <c r="E48">
         <v>23</v>
       </c>
-      <c r="F48" t="s">
-        <v>1866</v>
+      <c r="F48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14268,11 +14258,11 @@
       <c r="E49">
         <v>29</v>
       </c>
-      <c r="F49" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1141</v>
       </c>
@@ -14288,11 +14278,11 @@
       <c r="E50">
         <v>40</v>
       </c>
-      <c r="F50" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -14308,11 +14298,11 @@
       <c r="E51">
         <v>45</v>
       </c>
-      <c r="F51" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -14328,11 +14318,11 @@
       <c r="E52">
         <v>10</v>
       </c>
-      <c r="F52" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -14348,8 +14338,8 @@
       <c r="E53">
         <v>29</v>
       </c>
-      <c r="F53" t="s">
-        <v>1866</v>
+      <c r="F53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -14368,8 +14358,8 @@
       <c r="E54">
         <v>4</v>
       </c>
-      <c r="F54" t="s">
-        <v>1866</v>
+      <c r="F54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14388,11 +14378,11 @@
       <c r="E55">
         <v>56</v>
       </c>
-      <c r="F55" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -14408,11 +14398,11 @@
       <c r="E56">
         <v>38</v>
       </c>
-      <c r="F56" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -14428,8 +14418,8 @@
       <c r="E57">
         <v>25</v>
       </c>
-      <c r="F57" t="s">
-        <v>1866</v>
+      <c r="F57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14448,11 +14438,11 @@
       <c r="E58">
         <v>17</v>
       </c>
-      <c r="F58" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -14468,11 +14458,11 @@
       <c r="E59">
         <v>16</v>
       </c>
-      <c r="F59" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -14488,11 +14478,11 @@
       <c r="E60">
         <v>14</v>
       </c>
-      <c r="F60" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -14508,11 +14498,11 @@
       <c r="E61">
         <v>17</v>
       </c>
-      <c r="F61" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -14528,11 +14518,11 @@
       <c r="E62">
         <v>39</v>
       </c>
-      <c r="F62" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -14548,11 +14538,11 @@
       <c r="E63">
         <v>43</v>
       </c>
-      <c r="F63" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -14568,8 +14558,8 @@
       <c r="E64">
         <v>45</v>
       </c>
-      <c r="F64" t="s">
-        <v>1866</v>
+      <c r="F64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -14588,11 +14578,11 @@
       <c r="E65">
         <v>11</v>
       </c>
-      <c r="F65" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -14608,8 +14598,8 @@
       <c r="E66">
         <v>7</v>
       </c>
-      <c r="F66" t="s">
-        <v>1866</v>
+      <c r="F66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14628,11 +14618,11 @@
       <c r="E67">
         <v>43</v>
       </c>
-      <c r="F67" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -14645,11 +14635,11 @@
       <c r="E68">
         <v>30</v>
       </c>
-      <c r="F68" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -14665,11 +14655,11 @@
       <c r="E69">
         <v>13</v>
       </c>
-      <c r="F69" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1142</v>
       </c>
@@ -14685,8 +14675,8 @@
       <c r="E70">
         <v>12</v>
       </c>
-      <c r="F70" t="s">
-        <v>1866</v>
+      <c r="F70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14705,8 +14695,8 @@
       <c r="E71">
         <v>54</v>
       </c>
-      <c r="F71" t="s">
-        <v>1867</v>
+      <c r="F71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14725,8 +14715,8 @@
       <c r="E72">
         <v>47</v>
       </c>
-      <c r="F72" t="s">
-        <v>1867</v>
+      <c r="F72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14745,11 +14735,11 @@
       <c r="E73">
         <v>49</v>
       </c>
-      <c r="F73" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1143</v>
       </c>
@@ -14765,8 +14755,8 @@
       <c r="E74">
         <v>13</v>
       </c>
-      <c r="F74" t="s">
-        <v>1866</v>
+      <c r="F74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14785,11 +14775,11 @@
       <c r="E75">
         <v>17</v>
       </c>
-      <c r="F75" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -14805,8 +14795,8 @@
       <c r="E76">
         <v>40</v>
       </c>
-      <c r="F76" t="s">
-        <v>1866</v>
+      <c r="F76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14825,11 +14815,11 @@
       <c r="E77">
         <v>23</v>
       </c>
-      <c r="F77" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -14845,11 +14835,11 @@
       <c r="E78">
         <v>16</v>
       </c>
-      <c r="F78" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -14865,11 +14855,11 @@
       <c r="E79">
         <v>27</v>
       </c>
-      <c r="F79" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1144</v>
       </c>
@@ -14885,11 +14875,11 @@
       <c r="E80">
         <v>23</v>
       </c>
-      <c r="F80" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -14905,8 +14895,8 @@
       <c r="E81">
         <v>23</v>
       </c>
-      <c r="F81" t="s">
-        <v>1866</v>
+      <c r="F81">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14925,8 +14915,8 @@
       <c r="E82">
         <v>15</v>
       </c>
-      <c r="F82" t="s">
-        <v>1867</v>
+      <c r="F82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -14945,11 +14935,11 @@
       <c r="E83">
         <v>26</v>
       </c>
-      <c r="F83" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -14965,8 +14955,8 @@
       <c r="E84">
         <v>58</v>
       </c>
-      <c r="F84" t="s">
-        <v>1866</v>
+      <c r="F84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -14985,11 +14975,11 @@
       <c r="E85">
         <v>33</v>
       </c>
-      <c r="F85" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -15005,11 +14995,11 @@
       <c r="E86">
         <v>42</v>
       </c>
-      <c r="F86" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -15025,11 +15015,11 @@
       <c r="E87">
         <v>34</v>
       </c>
-      <c r="F87" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -15045,11 +15035,11 @@
       <c r="E88">
         <v>40</v>
       </c>
-      <c r="F88" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -15065,11 +15055,11 @@
       <c r="E89">
         <v>17</v>
       </c>
-      <c r="F89" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -15085,11 +15075,11 @@
       <c r="E90">
         <v>32</v>
       </c>
-      <c r="F90" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -15105,11 +15095,11 @@
       <c r="E91">
         <v>30</v>
       </c>
-      <c r="F91" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -15125,11 +15115,11 @@
       <c r="E92">
         <v>28</v>
       </c>
-      <c r="F92" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -15145,11 +15135,11 @@
       <c r="E93">
         <v>33</v>
       </c>
-      <c r="F93" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -15165,11 +15155,11 @@
       <c r="E94">
         <v>11</v>
       </c>
-      <c r="F94" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -15185,11 +15175,11 @@
       <c r="E95">
         <v>8</v>
       </c>
-      <c r="F95" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -15205,8 +15195,8 @@
       <c r="E96">
         <v>57</v>
       </c>
-      <c r="F96" t="s">
-        <v>1866</v>
+      <c r="F96">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15225,8 +15215,8 @@
       <c r="E97">
         <v>60</v>
       </c>
-      <c r="F97" t="s">
-        <v>1867</v>
+      <c r="F97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15245,8 +15235,8 @@
       <c r="E98">
         <v>59</v>
       </c>
-      <c r="F98" t="s">
-        <v>1867</v>
+      <c r="F98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15265,8 +15255,8 @@
       <c r="E99">
         <v>46</v>
       </c>
-      <c r="F99" t="s">
-        <v>1867</v>
+      <c r="F99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15285,8 +15275,8 @@
       <c r="E100">
         <v>46</v>
       </c>
-      <c r="F100" t="s">
-        <v>1867</v>
+      <c r="F100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15305,8 +15295,8 @@
       <c r="E101">
         <v>9</v>
       </c>
-      <c r="F101" t="s">
-        <v>1867</v>
+      <c r="F101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15325,8 +15315,8 @@
       <c r="E102">
         <v>2</v>
       </c>
-      <c r="F102" t="s">
-        <v>1867</v>
+      <c r="F102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15345,11 +15335,11 @@
       <c r="E103">
         <v>34</v>
       </c>
-      <c r="F103" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -15365,11 +15355,11 @@
       <c r="E104">
         <v>51</v>
       </c>
-      <c r="F104" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -15385,8 +15375,8 @@
       <c r="E105">
         <v>53</v>
       </c>
-      <c r="F105" t="s">
-        <v>1866</v>
+      <c r="F105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15405,11 +15395,11 @@
       <c r="E106">
         <v>51</v>
       </c>
-      <c r="F106" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1147</v>
       </c>
@@ -15425,11 +15415,11 @@
       <c r="E107">
         <v>3</v>
       </c>
-      <c r="F107" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -15445,11 +15435,11 @@
       <c r="E108">
         <v>38</v>
       </c>
-      <c r="F108" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>29</v>
       </c>
@@ -15465,11 +15455,11 @@
       <c r="E109">
         <v>11</v>
       </c>
-      <c r="F109" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1148</v>
       </c>
@@ -15485,11 +15475,11 @@
       <c r="E110">
         <v>26</v>
       </c>
-      <c r="F110" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1149</v>
       </c>
@@ -15505,8 +15495,8 @@
       <c r="E111">
         <v>35</v>
       </c>
-      <c r="F111" t="s">
-        <v>1866</v>
+      <c r="F111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -15525,8 +15515,8 @@
       <c r="E112">
         <v>34</v>
       </c>
-      <c r="F112" t="s">
-        <v>1866</v>
+      <c r="F112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15545,11 +15535,11 @@
       <c r="E113">
         <v>58</v>
       </c>
-      <c r="F113" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1150</v>
       </c>
@@ -15565,11 +15555,11 @@
       <c r="E114">
         <v>33</v>
       </c>
-      <c r="F114" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1151</v>
       </c>
@@ -15585,11 +15575,11 @@
       <c r="E115">
         <v>28</v>
       </c>
-      <c r="F115" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -15605,11 +15595,11 @@
       <c r="E116">
         <v>55</v>
       </c>
-      <c r="F116" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -15625,8 +15615,8 @@
       <c r="E117">
         <v>9</v>
       </c>
-      <c r="F117" t="s">
-        <v>1866</v>
+      <c r="F117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15645,8 +15635,8 @@
       <c r="E118">
         <v>46</v>
       </c>
-      <c r="F118" t="s">
-        <v>1867</v>
+      <c r="F118">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -15665,11 +15655,11 @@
       <c r="E119">
         <v>15</v>
       </c>
-      <c r="F119" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -15685,8 +15675,8 @@
       <c r="E120">
         <v>23</v>
       </c>
-      <c r="F120" t="s">
-        <v>1866</v>
+      <c r="F120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15705,8 +15695,8 @@
       <c r="E121">
         <v>11</v>
       </c>
-      <c r="F121" t="s">
-        <v>1867</v>
+      <c r="F121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15725,11 +15715,11 @@
       <c r="E122">
         <v>42</v>
       </c>
-      <c r="F122" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -15745,8 +15735,8 @@
       <c r="E123">
         <v>35</v>
       </c>
-      <c r="F123" t="s">
-        <v>1866</v>
+      <c r="F123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15765,11 +15755,11 @@
       <c r="E124">
         <v>10</v>
       </c>
-      <c r="F124" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -15785,11 +15775,11 @@
       <c r="E125">
         <v>28</v>
       </c>
-      <c r="F125" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -15805,11 +15795,11 @@
       <c r="E126">
         <v>19</v>
       </c>
-      <c r="F126" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -15825,11 +15815,11 @@
       <c r="E127">
         <v>8</v>
       </c>
-      <c r="F127" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -15845,11 +15835,11 @@
       <c r="E128">
         <v>25</v>
       </c>
-      <c r="F128" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -15865,8 +15855,8 @@
       <c r="E129">
         <v>17</v>
       </c>
-      <c r="F129" t="s">
-        <v>1867</v>
+      <c r="F129">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15885,11 +15875,11 @@
       <c r="E130">
         <v>33</v>
       </c>
-      <c r="F130" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -15905,8 +15895,8 @@
       <c r="E131">
         <v>15</v>
       </c>
-      <c r="F131" t="s">
-        <v>1866</v>
+      <c r="F131">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15925,8 +15915,8 @@
       <c r="E132">
         <v>56</v>
       </c>
-      <c r="F132" t="s">
-        <v>1867</v>
+      <c r="F132">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15945,8 +15935,8 @@
       <c r="E133">
         <v>15</v>
       </c>
-      <c r="F133" t="s">
-        <v>1867</v>
+      <c r="F133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -15965,11 +15955,11 @@
       <c r="E134">
         <v>24</v>
       </c>
-      <c r="F134" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -15985,8 +15975,8 @@
       <c r="E135">
         <v>31</v>
       </c>
-      <c r="F135" t="s">
-        <v>1866</v>
+      <c r="F135">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16005,8 +15995,8 @@
       <c r="E136">
         <v>4</v>
       </c>
-      <c r="F136" t="s">
-        <v>1867</v>
+      <c r="F136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16025,11 +16015,11 @@
       <c r="E137">
         <v>47</v>
       </c>
-      <c r="F137" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1142</v>
       </c>
@@ -16045,8 +16035,8 @@
       <c r="E138">
         <v>22</v>
       </c>
-      <c r="F138" t="s">
-        <v>1866</v>
+      <c r="F138">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16065,11 +16055,11 @@
       <c r="E139">
         <v>8</v>
       </c>
-      <c r="F139" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1152</v>
       </c>
@@ -16085,8 +16075,8 @@
       <c r="E140">
         <v>5</v>
       </c>
-      <c r="F140" t="s">
-        <v>1866</v>
+      <c r="F140">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16105,11 +16095,11 @@
       <c r="E141">
         <v>19</v>
       </c>
-      <c r="F141" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -16125,8 +16115,8 @@
       <c r="E142">
         <v>16</v>
       </c>
-      <c r="F142" t="s">
-        <v>1866</v>
+      <c r="F142">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16145,11 +16135,11 @@
       <c r="E143">
         <v>8</v>
       </c>
-      <c r="F143" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1153</v>
       </c>
@@ -16165,8 +16155,8 @@
       <c r="E144">
         <v>12</v>
       </c>
-      <c r="F144" t="s">
-        <v>1866</v>
+      <c r="F144">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16185,11 +16175,11 @@
       <c r="E145">
         <v>37</v>
       </c>
-      <c r="F145" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -16205,8 +16195,8 @@
       <c r="E146">
         <v>23</v>
       </c>
-      <c r="F146" t="s">
-        <v>1866</v>
+      <c r="F146">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16225,11 +16215,11 @@
       <c r="E147">
         <v>4</v>
       </c>
-      <c r="F147" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -16245,11 +16235,11 @@
       <c r="E148">
         <v>19</v>
       </c>
-      <c r="F148" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -16265,11 +16255,11 @@
       <c r="E149">
         <v>53</v>
       </c>
-      <c r="F149" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -16285,8 +16275,8 @@
       <c r="E150">
         <v>34</v>
       </c>
-      <c r="F150" t="s">
-        <v>1866</v>
+      <c r="F150">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16305,11 +16295,11 @@
       <c r="E151">
         <v>30</v>
       </c>
-      <c r="F151" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -16325,8 +16315,8 @@
       <c r="E152">
         <v>37</v>
       </c>
-      <c r="F152" t="s">
-        <v>1866</v>
+      <c r="F152">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16345,11 +16335,11 @@
       <c r="E153">
         <v>48</v>
       </c>
-      <c r="F153" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -16365,11 +16355,11 @@
       <c r="E154">
         <v>7</v>
       </c>
-      <c r="F154" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -16385,8 +16375,8 @@
       <c r="E155">
         <v>5</v>
       </c>
-      <c r="F155" t="s">
-        <v>1866</v>
+      <c r="F155">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16405,11 +16395,11 @@
       <c r="E156">
         <v>39</v>
       </c>
-      <c r="F156" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1155</v>
       </c>
@@ -16425,11 +16415,11 @@
       <c r="E157">
         <v>35</v>
       </c>
-      <c r="F157" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>27</v>
       </c>
@@ -16445,11 +16435,11 @@
       <c r="E158">
         <v>59</v>
       </c>
-      <c r="F158" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -16465,11 +16455,11 @@
       <c r="E159">
         <v>51</v>
       </c>
-      <c r="F159" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -16485,11 +16475,11 @@
       <c r="E160">
         <v>50</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1156</v>
       </c>
@@ -16505,11 +16495,11 @@
       <c r="E161">
         <v>3</v>
       </c>
-      <c r="F161" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -16525,8 +16515,8 @@
       <c r="E162">
         <v>49</v>
       </c>
-      <c r="F162" t="s">
-        <v>1866</v>
+      <c r="F162">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -16545,8 +16535,8 @@
       <c r="E163">
         <v>14</v>
       </c>
-      <c r="F163" t="s">
-        <v>1866</v>
+      <c r="F163">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16565,8 +16555,8 @@
       <c r="E164">
         <v>1</v>
       </c>
-      <c r="F164" t="s">
-        <v>1867</v>
+      <c r="F164">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16585,11 +16575,11 @@
       <c r="E165">
         <v>16</v>
       </c>
-      <c r="F165" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -16605,11 +16595,11 @@
       <c r="E166">
         <v>11</v>
       </c>
-      <c r="F166" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -16625,8 +16615,8 @@
       <c r="E167">
         <v>15</v>
       </c>
-      <c r="F167" t="s">
-        <v>1866</v>
+      <c r="F167">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16645,11 +16635,11 @@
       <c r="E168">
         <v>40</v>
       </c>
-      <c r="F168" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>27</v>
       </c>
@@ -16665,8 +16655,8 @@
       <c r="E169">
         <v>10</v>
       </c>
-      <c r="F169" t="s">
-        <v>1866</v>
+      <c r="F169">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16685,11 +16675,11 @@
       <c r="E170">
         <v>43</v>
       </c>
-      <c r="F170" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>34</v>
       </c>
@@ -16705,11 +16695,11 @@
       <c r="E171">
         <v>21</v>
       </c>
-      <c r="F171" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -16725,11 +16715,11 @@
       <c r="E172">
         <v>44</v>
       </c>
-      <c r="F172" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -16745,11 +16735,11 @@
       <c r="E173">
         <v>41</v>
       </c>
-      <c r="F173" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -16765,11 +16755,11 @@
       <c r="E174">
         <v>30</v>
       </c>
-      <c r="F174" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -16785,11 +16775,11 @@
       <c r="E175">
         <v>50</v>
       </c>
-      <c r="F175" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -16805,11 +16795,11 @@
       <c r="E176">
         <v>38</v>
       </c>
-      <c r="F176" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -16825,11 +16815,11 @@
       <c r="E177">
         <v>21</v>
       </c>
-      <c r="F177" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>31</v>
       </c>
@@ -16837,7 +16827,7 @@
         <v>1333</v>
       </c>
       <c r="C178" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D178" t="s">
         <v>1802</v>
@@ -16845,11 +16835,11 @@
       <c r="E178">
         <v>47</v>
       </c>
-      <c r="F178" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -16865,8 +16855,8 @@
       <c r="E179">
         <v>35</v>
       </c>
-      <c r="F179" t="s">
-        <v>1866</v>
+      <c r="F179">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16885,11 +16875,11 @@
       <c r="E180">
         <v>33</v>
       </c>
-      <c r="F180" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -16905,8 +16895,8 @@
       <c r="E181">
         <v>56</v>
       </c>
-      <c r="F181" t="s">
-        <v>1866</v>
+      <c r="F181">
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16925,8 +16915,8 @@
       <c r="E182">
         <v>57</v>
       </c>
-      <c r="F182" t="s">
-        <v>1867</v>
+      <c r="F182">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16945,8 +16935,8 @@
       <c r="E183">
         <v>16</v>
       </c>
-      <c r="F183" t="s">
-        <v>1867</v>
+      <c r="F183">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -16965,11 +16955,11 @@
       <c r="E184">
         <v>8</v>
       </c>
-      <c r="F184" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -16985,8 +16975,8 @@
       <c r="E185">
         <v>21</v>
       </c>
-      <c r="F185" t="s">
-        <v>1866</v>
+      <c r="F185">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17005,8 +16995,8 @@
       <c r="E186">
         <v>13</v>
       </c>
-      <c r="F186" t="s">
-        <v>1867</v>
+      <c r="F186">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17025,8 +17015,8 @@
       <c r="E187">
         <v>18</v>
       </c>
-      <c r="F187" t="s">
-        <v>1867</v>
+      <c r="F187">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17045,11 +17035,11 @@
       <c r="E188">
         <v>33</v>
       </c>
-      <c r="F188" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>33</v>
       </c>
@@ -17065,11 +17055,11 @@
       <c r="E189">
         <v>13</v>
       </c>
-      <c r="F189" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>38</v>
       </c>
@@ -17085,8 +17075,8 @@
       <c r="E190">
         <v>20</v>
       </c>
-      <c r="F190" t="s">
-        <v>1866</v>
+      <c r="F190">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -17105,11 +17095,11 @@
       <c r="E191">
         <v>42</v>
       </c>
-      <c r="F191" s="2" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -17125,11 +17115,11 @@
       <c r="E192">
         <v>19</v>
       </c>
-      <c r="F192" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>31</v>
       </c>
@@ -17145,8 +17135,8 @@
       <c r="E193">
         <v>45</v>
       </c>
-      <c r="F193" t="s">
-        <v>1866</v>
+      <c r="F193">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17165,8 +17155,8 @@
       <c r="E194">
         <v>1</v>
       </c>
-      <c r="F194" t="s">
-        <v>1867</v>
+      <c r="F194">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -17185,11 +17175,11 @@
       <c r="E195">
         <v>47</v>
       </c>
-      <c r="F195" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -17205,11 +17195,11 @@
       <c r="E196">
         <v>52</v>
       </c>
-      <c r="F196" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -17225,11 +17215,11 @@
       <c r="E197">
         <v>36</v>
       </c>
-      <c r="F197" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>32</v>
       </c>
@@ -17245,11 +17235,11 @@
       <c r="E198">
         <v>55</v>
       </c>
-      <c r="F198" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -17265,11 +17255,11 @@
       <c r="E199">
         <v>23</v>
       </c>
-      <c r="F199" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1137</v>
       </c>
@@ -17285,8 +17275,8 @@
       <c r="E200">
         <v>33</v>
       </c>
-      <c r="F200" t="s">
-        <v>1866</v>
+      <c r="F200">
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17305,8 +17295,8 @@
       <c r="E201">
         <v>7</v>
       </c>
-      <c r="F201" t="s">
-        <v>1867</v>
+      <c r="F201">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17325,8 +17315,8 @@
       <c r="E202">
         <v>42</v>
       </c>
-      <c r="F202" t="s">
-        <v>1867</v>
+      <c r="F202">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17345,11 +17335,11 @@
       <c r="E203">
         <v>6</v>
       </c>
-      <c r="F203" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -17365,8 +17355,8 @@
       <c r="E204">
         <v>40</v>
       </c>
-      <c r="F204" t="s">
-        <v>1866</v>
+      <c r="F204">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17385,8 +17375,8 @@
       <c r="E205">
         <v>8</v>
       </c>
-      <c r="F205" t="s">
-        <v>1867</v>
+      <c r="F205">
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17405,8 +17395,8 @@
       <c r="E206">
         <v>29</v>
       </c>
-      <c r="F206" t="s">
-        <v>1867</v>
+      <c r="F206">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17425,11 +17415,11 @@
       <c r="E207">
         <v>24</v>
       </c>
-      <c r="F207" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>39</v>
       </c>
@@ -17445,8 +17435,8 @@
       <c r="E208">
         <v>15</v>
       </c>
-      <c r="F208" t="s">
-        <v>1866</v>
+      <c r="F208">
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17465,8 +17455,8 @@
       <c r="E209">
         <v>1</v>
       </c>
-      <c r="F209" t="s">
-        <v>1867</v>
+      <c r="F209">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17485,11 +17475,11 @@
       <c r="E210">
         <v>20</v>
       </c>
-      <c r="F210" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -17505,11 +17495,11 @@
       <c r="E211">
         <v>36</v>
       </c>
-      <c r="F211" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1157</v>
       </c>
@@ -17525,11 +17515,11 @@
       <c r="E212">
         <v>3</v>
       </c>
-      <c r="F212" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -17545,11 +17535,11 @@
       <c r="E213">
         <v>20</v>
       </c>
-      <c r="F213" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>27</v>
       </c>
@@ -17565,8 +17555,8 @@
       <c r="E214">
         <v>56</v>
       </c>
-      <c r="F214" t="s">
-        <v>1866</v>
+      <c r="F214">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17585,8 +17575,8 @@
       <c r="E215">
         <v>43</v>
       </c>
-      <c r="F215" t="s">
-        <v>1867</v>
+      <c r="F215">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17605,8 +17595,8 @@
       <c r="E216">
         <v>12</v>
       </c>
-      <c r="F216" t="s">
-        <v>1867</v>
+      <c r="F216">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17625,8 +17615,8 @@
       <c r="E217">
         <v>28</v>
       </c>
-      <c r="F217" t="s">
-        <v>1867</v>
+      <c r="F217">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17645,8 +17635,8 @@
       <c r="E218">
         <v>4</v>
       </c>
-      <c r="F218" t="s">
-        <v>1867</v>
+      <c r="F218">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17665,8 +17655,8 @@
       <c r="E219">
         <v>14</v>
       </c>
-      <c r="F219" t="s">
-        <v>1867</v>
+      <c r="F219">
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17685,11 +17675,11 @@
       <c r="E220">
         <v>12</v>
       </c>
-      <c r="F220" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -17705,8 +17695,8 @@
       <c r="E221">
         <v>58</v>
       </c>
-      <c r="F221" t="s">
-        <v>1866</v>
+      <c r="F221">
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17725,8 +17715,8 @@
       <c r="E222">
         <v>29</v>
       </c>
-      <c r="F222" t="s">
-        <v>1867</v>
+      <c r="F222">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17745,11 +17735,11 @@
       <c r="E223">
         <v>3</v>
       </c>
-      <c r="F223" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>31</v>
       </c>
@@ -17765,8 +17755,8 @@
       <c r="E224">
         <v>25</v>
       </c>
-      <c r="F224" t="s">
-        <v>1866</v>
+      <c r="F224">
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17785,8 +17775,8 @@
       <c r="E225">
         <v>49</v>
       </c>
-      <c r="F225" t="s">
-        <v>1867</v>
+      <c r="F225">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17805,8 +17795,8 @@
       <c r="E226">
         <v>16</v>
       </c>
-      <c r="F226" t="s">
-        <v>1867</v>
+      <c r="F226">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17825,8 +17815,8 @@
       <c r="E227">
         <v>11</v>
       </c>
-      <c r="F227" t="s">
-        <v>1867</v>
+      <c r="F227">
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17845,11 +17835,11 @@
       <c r="E228">
         <v>31</v>
       </c>
-      <c r="F228" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>34</v>
       </c>
@@ -17865,8 +17855,8 @@
       <c r="E229">
         <v>4</v>
       </c>
-      <c r="F229" t="s">
-        <v>1866</v>
+      <c r="F229">
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17885,11 +17875,11 @@
       <c r="E230">
         <v>48</v>
       </c>
-      <c r="F230" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>22</v>
       </c>
@@ -17905,8 +17895,8 @@
       <c r="E231">
         <v>37</v>
       </c>
-      <c r="F231" t="s">
-        <v>1866</v>
+      <c r="F231">
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -17925,11 +17915,11 @@
       <c r="E232">
         <v>60</v>
       </c>
-      <c r="F232" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1136</v>
       </c>
@@ -17945,11 +17935,11 @@
       <c r="E233">
         <v>14</v>
       </c>
-      <c r="F233" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -17965,8 +17955,8 @@
       <c r="E234">
         <v>2</v>
       </c>
-      <c r="F234" t="s">
-        <v>1866</v>
+      <c r="F234">
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -17985,11 +17975,11 @@
       <c r="E235">
         <v>57</v>
       </c>
-      <c r="F235" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -18005,11 +17995,11 @@
       <c r="E236">
         <v>32</v>
       </c>
-      <c r="F236" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1158</v>
       </c>
@@ -18025,8 +18015,8 @@
       <c r="E237">
         <v>19</v>
       </c>
-      <c r="F237" t="s">
-        <v>1866</v>
+      <c r="F237">
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -18045,11 +18035,11 @@
       <c r="E238">
         <v>54</v>
       </c>
-      <c r="F238" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>28</v>
       </c>
@@ -18065,11 +18055,11 @@
       <c r="E239">
         <v>59</v>
       </c>
-      <c r="F239" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>32</v>
       </c>
@@ -18085,11 +18075,11 @@
       <c r="E240">
         <v>34</v>
       </c>
-      <c r="F240" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -18105,49 +18095,12 @@
       <c r="E241">
         <v>60</v>
       </c>
-      <c r="F241" t="s">
-        <v>1866</v>
+      <c r="F241">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:F241" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <x14:filter val="A trégua de uns dias acabou desde ontem. O peso do temor sobre a saúde da economia global voltou a ser mais sentido nas commodities agrícolas, após alguns pregões nas bolsas de futuros nos quais os fundos estavam se ajustando aos fundamentos."/>
-            <x14:filter val="Especuladores que operam na Bolsa Mercantil de Chicago (CME) fizeram a maior venda líquida de contratos futuros de real desde 2019 nos sete dias findos em 5 de julho, mostraram dados da CFTC divulgados nesta sexta-feira, depois de semanas de forte depreciação da taxa de câmbio brasileira."/>
-            <x14:filter val="O algodão negociado na bolsa de Nova York (ICE) saltou mais de 4% nesta sexta-feira, depois que a Índia estendeu o prazo para importações isentas de impostos."/>
-            <x14:filter val="O Ibovespa (IBOV) dispara nesta segunda-feira (18) em meio à recuperação das bolsas globais e o alívio dos juros."/>
-            <x14:filter val="O Ibovespa (IBOV) operava em queda nesta quarta-feira (17), seguindo o desempenho das Bolsas globais, que aguardam pela ata do Fomc para calibrar suas apostas sobre os próximos passos do Fed em sua política monetária."/>
-            <x14:filter val="O Ibovespa (IBOV) operava em queda nesta quarta-feira (20), seguindo as Bolsas globais, que têm dia volátil. Por volta das 10h10, o principal índice acionário brasileiro recuava 0,41%, aos 97,1 mil pontos."/>
-            <x14:filter val="O Ibovespa (IBOV) tentava interromper nesta terça-feira (23) a sequência de dois pregões de queda firme. Por volta das 10h05, o principal índice da Bolsa subia 0,33%, aos 110,8 mil pontos."/>
-            <x14:filter val="O Ibovespa recuava mais de 2% nesta quinta-feira, caindo abaixo dos 96 mil pontos pela primeira vez desde novembro de 2020, contaminado pela queda de bolsas e commodities no exterior, em meio a persistentes preocupações com o ritmo da atividade econômica mundial."/>
-            <x14:filter val="O Ibovespa seguia o exterior e operava em alta na abertura do pregão desta quarta-feira (27). Por volta das 10h05, o principal índice da Bolsa brasileira avançava 0,19%, aos 999,7 mil pontos."/>
-            <x14:filter val="O Ibovespa subia na abertura do pregão desta terça-feira (19), em linha com as Bolsas globais."/>
-            <x14:filter val="O Ibovespa (IBOV) caía na abertura do pregão desta sexta-feira (19). Por volta das 10h05, o principal índice da Bolsa brasileira recuava 0,78%, aos 112,9 mil pontos."/>
-            <x14:filter val="O Ibovespa (IBOV) subia na abertura do pregão desta quinta-feira (18), em sintonia com o desempenho das Bolsas e índices futuros no exterior. Por volta das 10h05, o principal índice da Bolsa brasileira avançava 0,38%, aos 114,1 mil pontos."/>
-            <x14:filter val="Os contratos futuros do açúcar bruto negociados na bolsa ICE atingiram uma nova mínima de um ano nesta terça-feira, antes de fecharem estáveis ​​em uma sessão marcada por volatilidade, com o mercado procurando direção."/>
-            <x14:filter val="Os contratos futuros do trigo negociados na bolsa de Chicago caíram mais de 4%, enquanto o milho e a soja também fecharam em baixa nesta quinta-feira, devido a crescentes preocupações com uma desaceleração econômica global, disseram analistas."/>
-            <x14:filter val="Os futuros de trigo da Bolsa de Chicago caíram para a mínima de cinco meses nesta sexta-feira, com a possibilidade de uma recuperação nas exportações da Ucrânia ameaçando os recentes ganhos obtidos com a demanda por suprimentos dos Estados Unidos, disseram traders."/>
-          </mc:Choice>
-          <mc:Fallback>
-            <filter val="A trégua de uns dias acabou desde ontem. O peso do temor sobre a saúde da economia global voltou a ser mais sentido nas commodities agrícolas, após alguns pregões nas bolsas de futuros nos quais os fundos estavam se ajustando aos fundamentos."/>
-            <filter val="O algodão negociado na bolsa de Nova York (ICE) saltou mais de 4% nesta sexta-feira, depois que a Índia estendeu o prazo para importações isentas de impostos."/>
-            <filter val="O Ibovespa (IBOV) dispara nesta segunda-feira (18) em meio à recuperação das bolsas globais e o alívio dos juros."/>
-            <filter val="O Ibovespa (IBOV) operava em queda nesta quarta-feira (17), seguindo o desempenho das Bolsas globais, que aguardam pela ata do Fomc para calibrar suas apostas sobre os próximos passos do Fed em sua política monetária."/>
-            <filter val="O Ibovespa (IBOV) operava em queda nesta quarta-feira (20), seguindo as Bolsas globais, que têm dia volátil. Por volta das 10h10, o principal índice acionário brasileiro recuava 0,41%, aos 97,1 mil pontos."/>
-            <filter val="O Ibovespa (IBOV) tentava interromper nesta terça-feira (23) a sequência de dois pregões de queda firme. Por volta das 10h05, o principal índice da Bolsa subia 0,33%, aos 110,8 mil pontos."/>
-            <filter val="O Ibovespa seguia o exterior e operava em alta na abertura do pregão desta quarta-feira (27). Por volta das 10h05, o principal índice da Bolsa brasileira avançava 0,19%, aos 999,7 mil pontos."/>
-            <filter val="O Ibovespa subia na abertura do pregão desta terça-feira (19), em linha com as Bolsas globais."/>
-            <filter val="O Ibovespa (IBOV) caía na abertura do pregão desta sexta-feira (19). Por volta das 10h05, o principal índice da Bolsa brasileira recuava 0,78%, aos 112,9 mil pontos."/>
-            <filter val="O Ibovespa (IBOV) subia na abertura do pregão desta quinta-feira (18), em sintonia com o desempenho das Bolsas e índices futuros no exterior. Por volta das 10h05, o principal índice da Bolsa brasileira avançava 0,38%, aos 114,1 mil pontos."/>
-            <filter val="Os contratos futuros do açúcar bruto negociados na bolsa ICE atingiram uma nova mínima de um ano nesta terça-feira, antes de fecharem estáveis ​​em uma sessão marcada por volatilidade, com o mercado procurando direção."/>
-            <filter val="Os contratos futuros do trigo negociados na bolsa de Chicago caíram mais de 4%, enquanto o milho e a soja também fecharam em baixa nesta quinta-feira, devido a crescentes preocupações com uma desaceleração econômica global, disseram analistas."/>
-          </mc:Fallback>
-        </mc:AlternateContent>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:F241" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="5">
       <filters>
         <filter val="IRRELEVANTE"/>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e0e16b2796fadf2/Área de Trabalho/projeto 1 cdados/22-2a-cd-p1-grupo_renatogp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="781" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA5B8C4B-0D18-44B1-B539-6AE459DB5584}"/>
+  <xr:revisionPtr revIDLastSave="804" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{113BB30D-9C00-4A68-8FE5-3BA7B5802B7A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1867">
   <si>
     <t>Categoria</t>
   </si>
@@ -5684,12 +5684,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6029,14 +6028,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H361"/>
+  <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H355" sqref="H355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="117.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13074,7 +13074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -13133,9 +13133,8 @@
       <c r="F355">
         <v>0</v>
       </c>
-      <c r="H355" s="2"/>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -13155,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -13175,7 +13174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>15</v>
       </c>
@@ -13195,7 +13194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>27</v>
       </c>
@@ -13215,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>33</v>
       </c>
@@ -13235,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -13270,15 +13269,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="93.109375" customWidth="1"/>
     <col min="3" max="3" width="97.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13286,9 +13285,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
@@ -13322,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -13382,7 +13379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -13482,7 +13479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -13522,7 +13519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1137</v>
       </c>
@@ -13542,7 +13539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -13622,7 +13619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -13682,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -13782,7 +13779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -13822,7 +13819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -13922,7 +13919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -13942,7 +13939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -14002,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -14062,7 +14059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1140</v>
       </c>
@@ -14082,7 +14079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -14182,7 +14179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -14242,7 +14239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -14362,7 +14359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -14422,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -14602,7 +14599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -14679,7 +14676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -14699,7 +14696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -14719,7 +14716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -14759,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -14799,7 +14796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -14899,7 +14896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -14919,7 +14916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -15199,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -15219,7 +15216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1145</v>
       </c>
@@ -15239,7 +15236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -15259,7 +15256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -15279,7 +15276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -15299,7 +15296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1146</v>
       </c>
@@ -15319,7 +15316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -15379,7 +15376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -15519,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -15619,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1145</v>
       </c>
@@ -15679,7 +15676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -15699,7 +15696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -15739,7 +15736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -15839,7 +15836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -15859,7 +15856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -15899,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -15919,7 +15916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>70</v>
       </c>
@@ -15939,7 +15936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>38</v>
       </c>
@@ -15979,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -15999,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -16039,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -16079,7 +16076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -16119,7 +16116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -16159,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -16199,7 +16196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -16279,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -16319,7 +16316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1154</v>
       </c>
@@ -16379,7 +16376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -16459,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -16539,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -16559,7 +16556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -16619,7 +16616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -16659,7 +16656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -16699,7 +16696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -16859,7 +16856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -16899,7 +16896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -16919,7 +16916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -16939,7 +16936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -16979,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>41</v>
       </c>
@@ -16999,7 +16996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -17019,7 +17016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -17139,7 +17136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -17279,7 +17276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -17299,7 +17296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -17319,7 +17316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1136</v>
       </c>
@@ -17359,7 +17356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -17379,7 +17376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -17399,7 +17396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -17439,7 +17436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -17459,7 +17456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -17559,7 +17556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>31</v>
       </c>
@@ -17579,7 +17576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -17599,7 +17596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -17619,7 +17616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -17639,7 +17636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -17659,7 +17656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -17699,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -17719,7 +17716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -17759,7 +17756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -17779,7 +17776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>42</v>
       </c>
@@ -17799,7 +17796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -17819,7 +17816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1156</v>
       </c>
@@ -17859,7 +17856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>37</v>
       </c>
@@ -17899,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1154</v>
       </c>
@@ -18019,7 +18016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -18100,13 +18097,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F241" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="IRRELEVANTE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F241" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e0e16b2796fadf2/Área de Trabalho/projeto 1 cdados/22-2a-cd-p1-grupo_renatogp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e55f31e0d1b9548b/Área de Trabalho/INSPER/CDADOS/CD22-2/projeto01/22-2a-cd-p1-grupo_renatogp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="804" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{113BB30D-9C00-4A68-8FE5-3BA7B5802B7A}"/>
+  <xr:revisionPtr revIDLastSave="805" documentId="11_6002E1672CF0F908711D55B20D6A11F3C8FD98DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{324698CD-B6C7-4168-AD60-1FB731574386}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1867">
   <si>
     <t>Categoria</t>
   </si>
@@ -6034,13 +6034,13 @@
       <selection activeCell="H355" sqref="H355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="117.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="3" max="3" width="117.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>27</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>35</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>42</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>44</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>46</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>47</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>48</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>32</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>43</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>34</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>49</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>50</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>51</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>52</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>53</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>55</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>56</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>57</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>58</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>41</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>59</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>53</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>48</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>22</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>60</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>31</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>61</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>31</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>62</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>63</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>34</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>29</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>39</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>64</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>65</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>33</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>34</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>42</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>29</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>32</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>66</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>31</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>29</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>27</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>10</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>67</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>68</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>69</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>70</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>27</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>23</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>38</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>10</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>19</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>27</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>42</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>15</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>10</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>38</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>71</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>39</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>30</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>31</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>72</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>10</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>73</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>31</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>31</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>13</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>29</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>32</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>74</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>36</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>31</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>39</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>31</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>10</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>27</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>75</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>34</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>31</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>41</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>33</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>38</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>11</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>11</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>15</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>27</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>33</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>11</v>
       </c>
@@ -13271,21 +13271,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="93.109375" customWidth="1"/>
-    <col min="3" max="3" width="97.109375" customWidth="1"/>
+    <col min="2" max="2" width="93.08984375" customWidth="1"/>
+    <col min="3" max="3" width="97.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
@@ -13299,7 +13301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -13319,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -13339,7 +13341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -13359,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1136</v>
       </c>
@@ -13379,7 +13381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -13399,7 +13401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -13419,7 +13421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -13439,7 +13441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -13459,7 +13461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -13479,7 +13481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -13499,7 +13501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -13519,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1137</v>
       </c>
@@ -13539,7 +13541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -13559,7 +13561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -13579,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -13599,7 +13601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -13619,7 +13621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -13639,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -13659,7 +13661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -13679,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -13699,7 +13701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -13719,7 +13721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1138</v>
       </c>
@@ -13739,7 +13741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -13759,7 +13761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -13779,7 +13781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -13799,7 +13801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -13819,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -13839,7 +13841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -13859,7 +13861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -13879,7 +13881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -13899,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -13919,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -13939,7 +13941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -13959,7 +13961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -13979,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -13999,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -14019,7 +14021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1139</v>
       </c>
@@ -14039,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -14059,7 +14061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1140</v>
       </c>
@@ -14079,7 +14081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -14099,7 +14101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -14119,7 +14121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -14139,7 +14141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -14159,7 +14161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -14179,7 +14181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -14199,7 +14201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -14219,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -14239,7 +14241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -14259,7 +14261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1141</v>
       </c>
@@ -14279,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -14299,7 +14301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -14319,7 +14321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -14339,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -14359,7 +14361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -14379,7 +14381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -14399,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -14419,7 +14421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -14439,7 +14441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -14459,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -14479,7 +14481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -14499,7 +14501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -14519,7 +14521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -14539,7 +14541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -14559,7 +14561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -14579,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -14599,7 +14601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -14619,7 +14621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -14636,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -14656,7 +14658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1142</v>
       </c>
@@ -14676,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -14696,7 +14698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -14716,7 +14718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -14736,7 +14738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1143</v>
       </c>
@@ -14756,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -14776,7 +14778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -14796,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -14816,7 +14818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -14836,7 +14838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -14856,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1144</v>
       </c>
@@ -14876,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -14896,7 +14898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -14916,7 +14918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -14936,7 +14938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -14956,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -14976,7 +14978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -14996,7 +14998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -15016,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -15036,7 +15038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -15056,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -15076,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -15096,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -15116,7 +15118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -15136,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -15156,7 +15158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -15176,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -15196,7 +15198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -15216,7 +15218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1145</v>
       </c>
@@ -15236,7 +15238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -15256,7 +15258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -15276,7 +15278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -15296,7 +15298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1146</v>
       </c>
@@ -15316,7 +15318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -15336,7 +15338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -15356,7 +15358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -15376,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -15396,7 +15398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1147</v>
       </c>
@@ -15416,7 +15418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -15436,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>29</v>
       </c>
@@ -15456,7 +15458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1148</v>
       </c>
@@ -15476,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1149</v>
       </c>
@@ -15496,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -15516,7 +15518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -15536,7 +15538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1150</v>
       </c>
@@ -15556,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1151</v>
       </c>
@@ -15576,7 +15578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>31</v>
       </c>
@@ -15596,7 +15598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -15616,7 +15618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1145</v>
       </c>
@@ -15636,7 +15638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -15656,7 +15658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -15676,7 +15678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -15696,7 +15698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -15716,7 +15718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -15736,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -15756,7 +15758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -15776,7 +15778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -15796,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>33</v>
       </c>
@@ -15816,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -15836,7 +15838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -15856,7 +15858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -15876,7 +15878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -15896,7 +15898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -15916,7 +15918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>70</v>
       </c>
@@ -15936,7 +15938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>38</v>
       </c>
@@ -15956,7 +15958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -15976,7 +15978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -15996,7 +15998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -16016,7 +16018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>1142</v>
       </c>
@@ -16036,7 +16038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -16056,7 +16058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>1152</v>
       </c>
@@ -16076,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -16096,7 +16098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -16116,7 +16118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -16136,7 +16138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>1153</v>
       </c>
@@ -16156,7 +16158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -16176,7 +16178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -16196,7 +16198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -16216,7 +16218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -16236,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -16256,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>34</v>
       </c>
@@ -16276,7 +16278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -16296,7 +16298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -16316,7 +16318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>1154</v>
       </c>
@@ -16336,7 +16338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -16356,7 +16358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -16376,7 +16378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -16396,7 +16398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>1155</v>
       </c>
@@ -16416,7 +16418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>27</v>
       </c>
@@ -16436,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -16456,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -16476,7 +16478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>1156</v>
       </c>
@@ -16496,7 +16498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -16516,7 +16518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -16536,7 +16538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -16556,7 +16558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -16576,7 +16578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -16596,7 +16598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -16616,7 +16618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -16636,7 +16638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>27</v>
       </c>
@@ -16656,7 +16658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -16676,7 +16678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>34</v>
       </c>
@@ -16696,7 +16698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -16716,7 +16718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -16736,7 +16738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -16756,7 +16758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -16776,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -16796,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -16816,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>31</v>
       </c>
@@ -16836,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -16856,7 +16858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -16876,7 +16878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -16896,7 +16898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -16916,7 +16918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -16936,7 +16938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -16956,7 +16958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -16976,7 +16978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>41</v>
       </c>
@@ -16996,7 +16998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -17016,7 +17018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -17036,7 +17038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>33</v>
       </c>
@@ -17056,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>38</v>
       </c>
@@ -17076,7 +17078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -17096,7 +17098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -17116,7 +17118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>31</v>
       </c>
@@ -17136,7 +17138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -17156,7 +17158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>36</v>
       </c>
@@ -17176,7 +17178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -17196,7 +17198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -17216,7 +17218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>32</v>
       </c>
@@ -17236,7 +17238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -17256,7 +17258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1137</v>
       </c>
@@ -17276,7 +17278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -17296,7 +17298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -17316,7 +17318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>1136</v>
       </c>
@@ -17336,7 +17338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -17356,7 +17358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -17376,7 +17378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -17396,7 +17398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -17416,7 +17418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>39</v>
       </c>
@@ -17436,7 +17438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -17456,7 +17458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -17476,7 +17478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -17496,7 +17498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>1157</v>
       </c>
@@ -17516,7 +17518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -17536,7 +17538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>27</v>
       </c>
@@ -17556,7 +17558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>31</v>
       </c>
@@ -17576,7 +17578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -17596,7 +17598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -17616,7 +17618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -17636,7 +17638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -17656,7 +17658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -17676,7 +17678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -17696,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -17716,7 +17718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -17736,7 +17738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>31</v>
       </c>
@@ -17756,7 +17758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -17776,7 +17778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>42</v>
       </c>
@@ -17796,7 +17798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -17816,7 +17818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1156</v>
       </c>
@@ -17836,7 +17838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>34</v>
       </c>
@@ -17856,7 +17858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>37</v>
       </c>
@@ -17876,7 +17878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>22</v>
       </c>
@@ -17896,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>1154</v>
       </c>
@@ -17916,7 +17918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>1136</v>
       </c>
@@ -17936,7 +17938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -17956,7 +17958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1146</v>
       </c>
@@ -17976,7 +17978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -17996,7 +17998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1158</v>
       </c>
@@ -18016,7 +18018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -18036,7 +18038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>28</v>
       </c>
@@ -18056,7 +18058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>32</v>
       </c>
@@ -18076,7 +18078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>11</v>
       </c>
